--- a/Code/Results/Cases/Case_1_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9262561903950879</v>
+        <v>0.9262561903950856</v>
       </c>
       <c r="D2">
-        <v>1.024648938175946</v>
+        <v>1.024648938175945</v>
       </c>
       <c r="E2">
-        <v>0.9423747411518092</v>
+        <v>0.9423747411518074</v>
       </c>
       <c r="F2">
-        <v>0.9743088977639973</v>
+        <v>0.9743088977639955</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046814901226902</v>
+        <v>1.046814901226901</v>
       </c>
       <c r="J2">
-        <v>0.9508908850016303</v>
+        <v>0.9508908850016281</v>
       </c>
       <c r="K2">
         <v>1.035775231251474</v>
       </c>
       <c r="L2">
-        <v>0.9546998774377821</v>
+        <v>0.9546998774377802</v>
       </c>
       <c r="M2">
-        <v>0.9861381459692283</v>
+        <v>0.9861381459692267</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.939089244845232</v>
+        <v>0.9390892448452325</v>
       </c>
       <c r="D3">
-        <v>1.030254159906192</v>
+        <v>1.030254159906193</v>
       </c>
       <c r="E3">
-        <v>0.9531305716007094</v>
+        <v>0.9531305716007096</v>
       </c>
       <c r="F3">
-        <v>0.9853753711861796</v>
+        <v>0.9853753711861803</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049639630783989</v>
+        <v>1.04963963078399</v>
       </c>
       <c r="J3">
-        <v>0.9613903330377916</v>
+        <v>0.9613903330377919</v>
       </c>
       <c r="K3">
         <v>1.040514031640349</v>
       </c>
       <c r="L3">
-        <v>0.9644004891862954</v>
+        <v>0.9644004891862955</v>
       </c>
       <c r="M3">
-        <v>0.9961988612445408</v>
+        <v>0.9961988612445412</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,31 +497,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9469567928498583</v>
+        <v>0.9469567928498582</v>
       </c>
       <c r="D4">
-        <v>1.0337016910164</v>
+        <v>1.033701691016399</v>
       </c>
       <c r="E4">
-        <v>0.9597366170221723</v>
+        <v>0.9597366170221722</v>
       </c>
       <c r="F4">
-        <v>0.9921522934204809</v>
+        <v>0.9921522934204807</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051352143125884</v>
+        <v>1.051352143125883</v>
       </c>
       <c r="J4">
-        <v>0.967822069826376</v>
+        <v>0.9678220698263759</v>
       </c>
       <c r="K4">
-        <v>1.043409694503261</v>
+        <v>1.04340969450326</v>
       </c>
       <c r="L4">
-        <v>0.9703465683504862</v>
+        <v>0.970346568350486</v>
       </c>
       <c r="M4">
         <v>1.002346365322017</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9501701653357257</v>
+        <v>0.9501701653357246</v>
       </c>
       <c r="D5">
         <v>1.035111282285982</v>
       </c>
       <c r="E5">
-        <v>0.9624373043858842</v>
+        <v>0.9624373043858833</v>
       </c>
       <c r="F5">
-        <v>0.994917407602481</v>
+        <v>0.9949174076024812</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,13 +553,13 @@
         <v>1.052046415000021</v>
       </c>
       <c r="J5">
-        <v>0.9704475656433432</v>
+        <v>0.970447565643342</v>
       </c>
       <c r="K5">
         <v>1.044589184074619</v>
       </c>
       <c r="L5">
-        <v>0.972774661897457</v>
+        <v>0.9727746618974562</v>
       </c>
       <c r="M5">
         <v>1.004851413521282</v>
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.950704452625406</v>
+        <v>0.9507044526254076</v>
       </c>
       <c r="D6">
         <v>1.035345712121738</v>
       </c>
       <c r="E6">
-        <v>0.9628864895915522</v>
+        <v>0.9628864895915539</v>
       </c>
       <c r="F6">
-        <v>0.9953769714021196</v>
+        <v>0.9953769714021206</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.052161531763001</v>
       </c>
       <c r="J6">
-        <v>0.9708840162938338</v>
+        <v>0.9708840162938355</v>
       </c>
       <c r="K6">
-        <v>1.044785085236177</v>
+        <v>1.044785085236178</v>
       </c>
       <c r="L6">
-        <v>0.9731783462087327</v>
+        <v>0.9731783462087346</v>
       </c>
       <c r="M6">
-        <v>1.005267562290682</v>
+        <v>1.005267562290683</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9470000876431265</v>
+        <v>0.9470000876431284</v>
       </c>
       <c r="D7">
-        <v>1.033720678358717</v>
+        <v>1.033720678358718</v>
       </c>
       <c r="E7">
-        <v>0.9597729944735476</v>
+        <v>0.9597729944735499</v>
       </c>
       <c r="F7">
-        <v>0.9921895610684223</v>
+        <v>0.9921895610684236</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.051361518546847</v>
       </c>
       <c r="J7">
-        <v>0.9678574499593183</v>
+        <v>0.9678574499593203</v>
       </c>
       <c r="K7">
-        <v>1.043425599974831</v>
+        <v>1.043425599974832</v>
       </c>
       <c r="L7">
-        <v>0.97037928504344</v>
+        <v>0.970379285043442</v>
       </c>
       <c r="M7">
-        <v>1.002380140806442</v>
+        <v>1.002380140806443</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9306902984863311</v>
+        <v>0.930690298486332</v>
       </c>
       <c r="D8">
-        <v>1.026582491227515</v>
+        <v>1.026582491227516</v>
       </c>
       <c r="E8">
-        <v>0.9460883349689885</v>
+        <v>0.9460883349689894</v>
       </c>
       <c r="F8">
-        <v>0.9781335699969524</v>
+        <v>0.9781335699969533</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.04779466182541</v>
       </c>
       <c r="J8">
-        <v>0.9545196433481287</v>
+        <v>0.9545196433481297</v>
       </c>
       <c r="K8">
         <v>1.03741403344729</v>
       </c>
       <c r="L8">
-        <v>0.9580517278977018</v>
+        <v>0.9580517278977025</v>
       </c>
       <c r="M8">
-        <v>0.9896181152520975</v>
+        <v>0.9896181152520986</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.898027781508119</v>
+        <v>0.8980277815081156</v>
       </c>
       <c r="D9">
-        <v>1.012453066914263</v>
+        <v>1.012453066914262</v>
       </c>
       <c r="E9">
-        <v>0.918805558978028</v>
+        <v>0.918805558978025</v>
       </c>
       <c r="F9">
-        <v>0.9499803060396778</v>
+        <v>0.9499803060396754</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040519662023033</v>
+        <v>1.040519662023032</v>
       </c>
       <c r="J9">
-        <v>0.9277775787602334</v>
+        <v>0.9277775787602301</v>
       </c>
       <c r="K9">
-        <v>1.025347281907344</v>
+        <v>1.025347281907343</v>
       </c>
       <c r="L9">
-        <v>0.9333693285160467</v>
+        <v>0.9333693285160438</v>
       </c>
       <c r="M9">
-        <v>0.9639406330427058</v>
+        <v>0.9639406330427033</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8725282947791744</v>
+        <v>0.8725282947791742</v>
       </c>
       <c r="D10">
-        <v>1.001668932836277</v>
+        <v>1.001668932836278</v>
       </c>
       <c r="E10">
-        <v>0.8976301655507031</v>
+        <v>0.8976301655507027</v>
       </c>
       <c r="F10">
-        <v>0.9281158636963663</v>
+        <v>0.9281158636963667</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.034809157427545</v>
       </c>
       <c r="J10">
-        <v>0.9069032588960024</v>
+        <v>0.906903258896002</v>
       </c>
       <c r="K10">
-        <v>1.016008119424836</v>
+        <v>1.016008119424837</v>
       </c>
       <c r="L10">
-        <v>0.9141313575407202</v>
+        <v>0.9141313575407199</v>
       </c>
       <c r="M10">
-        <v>0.94391677571388</v>
+        <v>0.9439167757138803</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8602350094746506</v>
+        <v>0.8602350094746505</v>
       </c>
       <c r="D11">
-        <v>0.9965707244226527</v>
+        <v>0.9965707244226534</v>
       </c>
       <c r="E11">
-        <v>0.8874640400096433</v>
+        <v>0.8874640400096431</v>
       </c>
       <c r="F11">
-        <v>0.9176423306020056</v>
+        <v>0.9176423306020057</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032068467340293</v>
+        <v>1.032068467340294</v>
       </c>
       <c r="J11">
-        <v>0.8968490827103411</v>
+        <v>0.8968490827103409</v>
       </c>
       <c r="K11">
-        <v>1.011557602924482</v>
+        <v>1.011557602924483</v>
       </c>
       <c r="L11">
-        <v>0.9048737409241975</v>
+        <v>0.904873740924197</v>
       </c>
       <c r="M11">
-        <v>0.9343045796900517</v>
+        <v>0.9343045796900518</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,13 +801,13 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8554341552554382</v>
+        <v>0.8554341552554383</v>
       </c>
       <c r="D12">
-        <v>0.9945998074757009</v>
+        <v>0.9945998074757008</v>
       </c>
       <c r="E12">
-        <v>0.8835018457072491</v>
+        <v>0.883501845707249</v>
       </c>
       <c r="F12">
         <v>0.9135671856940999</v>
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8564755169887401</v>
+        <v>0.8564755169887406</v>
       </c>
       <c r="D13">
-        <v>0.9950263263644682</v>
+        <v>0.9950263263644687</v>
       </c>
       <c r="E13">
-        <v>0.8843609047092668</v>
+        <v>0.8843609047092671</v>
       </c>
       <c r="F13">
-        <v>0.9144503587976184</v>
+        <v>0.9144503587976195</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031233374774998</v>
+        <v>1.031233374774999</v>
       </c>
       <c r="J13">
-        <v>0.8937761511602302</v>
+        <v>0.8937761511602308</v>
       </c>
       <c r="K13">
         <v>1.010205081974211</v>
       </c>
       <c r="L13">
-        <v>0.9020453340101412</v>
+        <v>0.9020453340101415</v>
       </c>
       <c r="M13">
-        <v>0.9313727824893124</v>
+        <v>0.9313727824893133</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8598432886049641</v>
+        <v>0.8598432886049633</v>
       </c>
       <c r="D14">
-        <v>0.9964094735080972</v>
+        <v>0.9964094735080971</v>
       </c>
       <c r="E14">
-        <v>0.8871405785791584</v>
+        <v>0.887140578579158</v>
       </c>
       <c r="F14">
-        <v>0.9173094870635101</v>
+        <v>0.9173094870635095</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.031981378859536</v>
       </c>
       <c r="J14">
-        <v>0.8965288548633258</v>
+        <v>0.8965288548633252</v>
       </c>
       <c r="K14">
         <v>1.011416479270893</v>
       </c>
       <c r="L14">
-        <v>0.9045789716147445</v>
+        <v>0.9045789716147442</v>
       </c>
       <c r="M14">
-        <v>0.9339989151269421</v>
+        <v>0.9339989151269414</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8618855046034337</v>
+        <v>0.861885504603434</v>
       </c>
       <c r="D15">
-        <v>0.9972509840365484</v>
+        <v>0.9972509840365488</v>
       </c>
       <c r="E15">
         <v>0.8888272567770703</v>
       </c>
       <c r="F15">
-        <v>0.919045386015831</v>
+        <v>0.9190453860158315</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032435594211662</v>
       </c>
       <c r="J15">
-        <v>0.8981984522077318</v>
+        <v>0.898198452207732</v>
       </c>
       <c r="K15">
-        <v>1.012152712568662</v>
+        <v>1.012152712568663</v>
       </c>
       <c r="L15">
-        <v>0.9061158931337449</v>
+        <v>0.9061158931337447</v>
       </c>
       <c r="M15">
-        <v>0.93559293826149</v>
+        <v>0.9355929382614906</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8733141955843823</v>
+        <v>0.8733141955843839</v>
       </c>
       <c r="D16">
-        <v>1.00199725581565</v>
+        <v>1.001997255815651</v>
       </c>
       <c r="E16">
-        <v>0.8982810501186821</v>
+        <v>0.8982810501186834</v>
       </c>
       <c r="F16">
-        <v>0.9287871495991009</v>
+        <v>0.9287871495991022</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034984792347154</v>
+        <v>1.034984792347155</v>
       </c>
       <c r="J16">
-        <v>0.9075462820814127</v>
+        <v>0.9075462820814142</v>
       </c>
       <c r="K16">
-        <v>1.016293970570556</v>
+        <v>1.016293970570557</v>
       </c>
       <c r="L16">
-        <v>0.9147236192641525</v>
+        <v>0.9147236192641539</v>
       </c>
       <c r="M16">
-        <v>0.9445324375313283</v>
+        <v>0.9445324375313299</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.880120109693355</v>
+        <v>0.8801201096933545</v>
       </c>
       <c r="D17">
         <v>1.004851930318378</v>
       </c>
       <c r="E17">
-        <v>0.9039224765569879</v>
+        <v>0.9039224765569878</v>
       </c>
       <c r="F17">
-        <v>0.9346082185908928</v>
+        <v>0.934608218590893</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>1.036507335173201</v>
       </c>
       <c r="J17">
-        <v>0.9131159733748306</v>
+        <v>0.9131159733748304</v>
       </c>
       <c r="K17">
         <v>1.018775419099718</v>
@@ -1018,7 +1018,7 @@
         <v>0.9198545598770942</v>
       </c>
       <c r="M17">
-        <v>0.9498689315812501</v>
+        <v>0.9498689315812502</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.883972942795572</v>
+        <v>0.8839729427955714</v>
       </c>
       <c r="D18">
-        <v>1.006476705902227</v>
+        <v>1.006476705902226</v>
       </c>
       <c r="E18">
-        <v>0.9071198151591783</v>
+        <v>0.9071198151591779</v>
       </c>
       <c r="F18">
-        <v>0.9379092382667698</v>
+        <v>0.937909238266769</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.03737019014704</v>
       </c>
       <c r="J18">
-        <v>0.9162697410428067</v>
+        <v>0.9162697410428061</v>
       </c>
       <c r="K18">
         <v>1.020184571681354</v>
       </c>
       <c r="L18">
-        <v>0.9227606362905857</v>
+        <v>0.9227606362905851</v>
       </c>
       <c r="M18">
-        <v>0.952893321891114</v>
+        <v>0.9528933218911133</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8852679753350062</v>
+        <v>0.8852679753350048</v>
       </c>
       <c r="D19">
-        <v>1.007024198577254</v>
+        <v>1.007024198577253</v>
       </c>
       <c r="E19">
-        <v>0.9081951147460086</v>
+        <v>0.908195114746007</v>
       </c>
       <c r="F19">
-        <v>0.9390196459534567</v>
+        <v>0.9390196459534559</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.037660320919476</v>
       </c>
       <c r="J19">
-        <v>0.9173299046224812</v>
+        <v>0.9173299046224799</v>
       </c>
       <c r="K19">
         <v>1.020658877866808</v>
       </c>
       <c r="L19">
-        <v>0.9237376586331193</v>
+        <v>0.923737658633118</v>
       </c>
       <c r="M19">
-        <v>0.9539103668346524</v>
+        <v>0.9539103668346518</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8794022781133305</v>
+        <v>0.8794022781133312</v>
       </c>
       <c r="D20">
-        <v>1.004549899130159</v>
+        <v>1.00454989913016</v>
       </c>
       <c r="E20">
-        <v>0.903327066957443</v>
+        <v>0.9033270669574437</v>
       </c>
       <c r="F20">
-        <v>0.9339936345701986</v>
+        <v>0.933993634570199</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036346637482312</v>
+        <v>1.036346637482313</v>
       </c>
       <c r="J20">
-        <v>0.9125284425290132</v>
+        <v>0.9125284425290139</v>
       </c>
       <c r="K20">
         <v>1.018513213089075</v>
       </c>
       <c r="L20">
-        <v>0.9193132324786538</v>
+        <v>0.9193132324786546</v>
       </c>
       <c r="M20">
-        <v>0.9493057011158147</v>
+        <v>0.9493057011158152</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8588585036409119</v>
+        <v>0.8588585036409113</v>
       </c>
       <c r="D21">
-        <v>0.9960044285503291</v>
+        <v>0.9960044285503281</v>
       </c>
       <c r="E21">
-        <v>0.8863275305491586</v>
+        <v>0.8863275305491585</v>
       </c>
       <c r="F21">
-        <v>0.9164729792560594</v>
+        <v>0.9164729792560584</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.031762514972135</v>
       </c>
       <c r="J21">
-        <v>0.8957238468665322</v>
+        <v>0.8957238468665317</v>
       </c>
       <c r="K21">
-        <v>1.011061895714617</v>
+        <v>1.011061895714616</v>
       </c>
       <c r="L21">
         <v>0.9038379866654187</v>
       </c>
       <c r="M21">
-        <v>0.9332306630783284</v>
+        <v>0.9332306630783277</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.844546150376725</v>
+        <v>0.8445461503767249</v>
       </c>
       <c r="D22">
-        <v>0.9901745947143175</v>
+        <v>0.9901745947143171</v>
       </c>
       <c r="E22">
         <v>0.8745330568794963</v>
       </c>
       <c r="F22">
-        <v>0.9043606036964869</v>
+        <v>0.9043606036964864</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.028595770469306</v>
       </c>
       <c r="J22">
-        <v>0.8840321287545559</v>
+        <v>0.8840321287545555</v>
       </c>
       <c r="K22">
-        <v>1.005943240386152</v>
+        <v>1.005943240386151</v>
       </c>
       <c r="L22">
-        <v>0.8930799512099046</v>
+        <v>0.8930799512099045</v>
       </c>
       <c r="M22">
-        <v>0.9220987522555619</v>
+        <v>0.9220987522555614</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8522865298226373</v>
+        <v>0.8522865298226363</v>
       </c>
       <c r="D23">
-        <v>0.9933140277058319</v>
+        <v>0.9933140277058314</v>
       </c>
       <c r="E23">
-        <v>0.880906569096008</v>
+        <v>0.8809065690960072</v>
       </c>
       <c r="F23">
-        <v>0.9109004007973889</v>
+        <v>0.910900400797388</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.030304926603812</v>
       </c>
       <c r="J23">
-        <v>0.8903533098073962</v>
+        <v>0.8903533098073955</v>
       </c>
       <c r="K23">
         <v>1.008703196037914</v>
       </c>
       <c r="L23">
-        <v>0.8988954444445043</v>
+        <v>0.8988954444445034</v>
       </c>
       <c r="M23">
-        <v>0.928110963170482</v>
+        <v>0.9281109631704813</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8797269933974726</v>
+        <v>0.8797269933974708</v>
       </c>
       <c r="D24">
         <v>1.004686497672461</v>
       </c>
       <c r="E24">
-        <v>0.9035963924042716</v>
+        <v>0.9035963924042703</v>
       </c>
       <c r="F24">
-        <v>0.9342716276916236</v>
+        <v>0.9342716276916222</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.036419327226249</v>
       </c>
       <c r="J24">
-        <v>0.9127942132091318</v>
+        <v>0.9127942132091302</v>
       </c>
       <c r="K24">
-        <v>1.018631809985536</v>
+        <v>1.018631809985535</v>
       </c>
       <c r="L24">
-        <v>0.9195581006219889</v>
+        <v>0.9195581006219873</v>
       </c>
       <c r="M24">
-        <v>0.9495604713566999</v>
+        <v>0.9495604713566985</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9070311281203357</v>
+        <v>0.9070311281203347</v>
       </c>
       <c r="D25">
-        <v>1.016318077643067</v>
+        <v>1.016318077643066</v>
       </c>
       <c r="E25">
-        <v>0.9263089118729372</v>
+        <v>0.9263089118729362</v>
       </c>
       <c r="F25">
-        <v>0.9577316101375105</v>
+        <v>0.9577316101375093</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042534907462101</v>
+        <v>1.0425349074621</v>
       </c>
       <c r="J25">
-        <v>0.9351505099077159</v>
+        <v>0.9351505099077149</v>
       </c>
       <c r="K25">
-        <v>1.028668249739251</v>
+        <v>1.02866824973925</v>
       </c>
       <c r="L25">
-        <v>0.9401701278643229</v>
+        <v>0.940170127864322</v>
       </c>
       <c r="M25">
-        <v>0.9710235560162288</v>
+        <v>0.9710235560162277</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9262561903950856</v>
+        <v>0.9262561903950879</v>
       </c>
       <c r="D2">
-        <v>1.024648938175945</v>
+        <v>1.024648938175946</v>
       </c>
       <c r="E2">
-        <v>0.9423747411518074</v>
+        <v>0.9423747411518092</v>
       </c>
       <c r="F2">
-        <v>0.9743088977639955</v>
+        <v>0.9743088977639973</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046814901226901</v>
+        <v>1.046814901226902</v>
       </c>
       <c r="J2">
-        <v>0.9508908850016281</v>
+        <v>0.9508908850016303</v>
       </c>
       <c r="K2">
         <v>1.035775231251474</v>
       </c>
       <c r="L2">
-        <v>0.9546998774377802</v>
+        <v>0.9546998774377821</v>
       </c>
       <c r="M2">
-        <v>0.9861381459692267</v>
+        <v>0.9861381459692283</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9390892448452325</v>
+        <v>0.939089244845232</v>
       </c>
       <c r="D3">
-        <v>1.030254159906193</v>
+        <v>1.030254159906192</v>
       </c>
       <c r="E3">
-        <v>0.9531305716007096</v>
+        <v>0.9531305716007094</v>
       </c>
       <c r="F3">
-        <v>0.9853753711861803</v>
+        <v>0.9853753711861796</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04963963078399</v>
+        <v>1.049639630783989</v>
       </c>
       <c r="J3">
-        <v>0.9613903330377919</v>
+        <v>0.9613903330377916</v>
       </c>
       <c r="K3">
         <v>1.040514031640349</v>
       </c>
       <c r="L3">
-        <v>0.9644004891862955</v>
+        <v>0.9644004891862954</v>
       </c>
       <c r="M3">
-        <v>0.9961988612445412</v>
+        <v>0.9961988612445408</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,31 +497,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9469567928498582</v>
+        <v>0.9469567928498583</v>
       </c>
       <c r="D4">
-        <v>1.033701691016399</v>
+        <v>1.0337016910164</v>
       </c>
       <c r="E4">
-        <v>0.9597366170221722</v>
+        <v>0.9597366170221723</v>
       </c>
       <c r="F4">
-        <v>0.9921522934204807</v>
+        <v>0.9921522934204809</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051352143125883</v>
+        <v>1.051352143125884</v>
       </c>
       <c r="J4">
-        <v>0.9678220698263759</v>
+        <v>0.967822069826376</v>
       </c>
       <c r="K4">
-        <v>1.04340969450326</v>
+        <v>1.043409694503261</v>
       </c>
       <c r="L4">
-        <v>0.970346568350486</v>
+        <v>0.9703465683504862</v>
       </c>
       <c r="M4">
         <v>1.002346365322017</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9501701653357246</v>
+        <v>0.9501701653357257</v>
       </c>
       <c r="D5">
         <v>1.035111282285982</v>
       </c>
       <c r="E5">
-        <v>0.9624373043858833</v>
+        <v>0.9624373043858842</v>
       </c>
       <c r="F5">
-        <v>0.9949174076024812</v>
+        <v>0.994917407602481</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,13 +553,13 @@
         <v>1.052046415000021</v>
       </c>
       <c r="J5">
-        <v>0.970447565643342</v>
+        <v>0.9704475656433432</v>
       </c>
       <c r="K5">
         <v>1.044589184074619</v>
       </c>
       <c r="L5">
-        <v>0.9727746618974562</v>
+        <v>0.972774661897457</v>
       </c>
       <c r="M5">
         <v>1.004851413521282</v>
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9507044526254076</v>
+        <v>0.950704452625406</v>
       </c>
       <c r="D6">
         <v>1.035345712121738</v>
       </c>
       <c r="E6">
-        <v>0.9628864895915539</v>
+        <v>0.9628864895915522</v>
       </c>
       <c r="F6">
-        <v>0.9953769714021206</v>
+        <v>0.9953769714021196</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.052161531763001</v>
       </c>
       <c r="J6">
-        <v>0.9708840162938355</v>
+        <v>0.9708840162938338</v>
       </c>
       <c r="K6">
-        <v>1.044785085236178</v>
+        <v>1.044785085236177</v>
       </c>
       <c r="L6">
-        <v>0.9731783462087346</v>
+        <v>0.9731783462087327</v>
       </c>
       <c r="M6">
-        <v>1.005267562290683</v>
+        <v>1.005267562290682</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9470000876431284</v>
+        <v>0.9470000876431265</v>
       </c>
       <c r="D7">
-        <v>1.033720678358718</v>
+        <v>1.033720678358717</v>
       </c>
       <c r="E7">
-        <v>0.9597729944735499</v>
+        <v>0.9597729944735476</v>
       </c>
       <c r="F7">
-        <v>0.9921895610684236</v>
+        <v>0.9921895610684223</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.051361518546847</v>
       </c>
       <c r="J7">
-        <v>0.9678574499593203</v>
+        <v>0.9678574499593183</v>
       </c>
       <c r="K7">
-        <v>1.043425599974832</v>
+        <v>1.043425599974831</v>
       </c>
       <c r="L7">
-        <v>0.970379285043442</v>
+        <v>0.97037928504344</v>
       </c>
       <c r="M7">
-        <v>1.002380140806443</v>
+        <v>1.002380140806442</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.930690298486332</v>
+        <v>0.9306902984863311</v>
       </c>
       <c r="D8">
-        <v>1.026582491227516</v>
+        <v>1.026582491227515</v>
       </c>
       <c r="E8">
-        <v>0.9460883349689894</v>
+        <v>0.9460883349689885</v>
       </c>
       <c r="F8">
-        <v>0.9781335699969533</v>
+        <v>0.9781335699969524</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.04779466182541</v>
       </c>
       <c r="J8">
-        <v>0.9545196433481297</v>
+        <v>0.9545196433481287</v>
       </c>
       <c r="K8">
         <v>1.03741403344729</v>
       </c>
       <c r="L8">
-        <v>0.9580517278977025</v>
+        <v>0.9580517278977018</v>
       </c>
       <c r="M8">
-        <v>0.9896181152520986</v>
+        <v>0.9896181152520975</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8980277815081156</v>
+        <v>0.898027781508119</v>
       </c>
       <c r="D9">
-        <v>1.012453066914262</v>
+        <v>1.012453066914263</v>
       </c>
       <c r="E9">
-        <v>0.918805558978025</v>
+        <v>0.918805558978028</v>
       </c>
       <c r="F9">
-        <v>0.9499803060396754</v>
+        <v>0.9499803060396778</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040519662023032</v>
+        <v>1.040519662023033</v>
       </c>
       <c r="J9">
-        <v>0.9277775787602301</v>
+        <v>0.9277775787602334</v>
       </c>
       <c r="K9">
-        <v>1.025347281907343</v>
+        <v>1.025347281907344</v>
       </c>
       <c r="L9">
-        <v>0.9333693285160438</v>
+        <v>0.9333693285160467</v>
       </c>
       <c r="M9">
-        <v>0.9639406330427033</v>
+        <v>0.9639406330427058</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8725282947791742</v>
+        <v>0.8725282947791744</v>
       </c>
       <c r="D10">
-        <v>1.001668932836278</v>
+        <v>1.001668932836277</v>
       </c>
       <c r="E10">
-        <v>0.8976301655507027</v>
+        <v>0.8976301655507031</v>
       </c>
       <c r="F10">
-        <v>0.9281158636963667</v>
+        <v>0.9281158636963663</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.034809157427545</v>
       </c>
       <c r="J10">
-        <v>0.906903258896002</v>
+        <v>0.9069032588960024</v>
       </c>
       <c r="K10">
-        <v>1.016008119424837</v>
+        <v>1.016008119424836</v>
       </c>
       <c r="L10">
-        <v>0.9141313575407199</v>
+        <v>0.9141313575407202</v>
       </c>
       <c r="M10">
-        <v>0.9439167757138803</v>
+        <v>0.94391677571388</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8602350094746505</v>
+        <v>0.8602350094746506</v>
       </c>
       <c r="D11">
-        <v>0.9965707244226534</v>
+        <v>0.9965707244226527</v>
       </c>
       <c r="E11">
-        <v>0.8874640400096431</v>
+        <v>0.8874640400096433</v>
       </c>
       <c r="F11">
-        <v>0.9176423306020057</v>
+        <v>0.9176423306020056</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032068467340294</v>
+        <v>1.032068467340293</v>
       </c>
       <c r="J11">
-        <v>0.8968490827103409</v>
+        <v>0.8968490827103411</v>
       </c>
       <c r="K11">
-        <v>1.011557602924483</v>
+        <v>1.011557602924482</v>
       </c>
       <c r="L11">
-        <v>0.904873740924197</v>
+        <v>0.9048737409241975</v>
       </c>
       <c r="M11">
-        <v>0.9343045796900518</v>
+        <v>0.9343045796900517</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,13 +801,13 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8554341552554383</v>
+        <v>0.8554341552554382</v>
       </c>
       <c r="D12">
-        <v>0.9945998074757008</v>
+        <v>0.9945998074757009</v>
       </c>
       <c r="E12">
-        <v>0.883501845707249</v>
+        <v>0.8835018457072491</v>
       </c>
       <c r="F12">
         <v>0.9135671856940999</v>
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8564755169887406</v>
+        <v>0.8564755169887401</v>
       </c>
       <c r="D13">
-        <v>0.9950263263644687</v>
+        <v>0.9950263263644682</v>
       </c>
       <c r="E13">
-        <v>0.8843609047092671</v>
+        <v>0.8843609047092668</v>
       </c>
       <c r="F13">
-        <v>0.9144503587976195</v>
+        <v>0.9144503587976184</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031233374774999</v>
+        <v>1.031233374774998</v>
       </c>
       <c r="J13">
-        <v>0.8937761511602308</v>
+        <v>0.8937761511602302</v>
       </c>
       <c r="K13">
         <v>1.010205081974211</v>
       </c>
       <c r="L13">
-        <v>0.9020453340101415</v>
+        <v>0.9020453340101412</v>
       </c>
       <c r="M13">
-        <v>0.9313727824893133</v>
+        <v>0.9313727824893124</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8598432886049633</v>
+        <v>0.8598432886049641</v>
       </c>
       <c r="D14">
-        <v>0.9964094735080971</v>
+        <v>0.9964094735080972</v>
       </c>
       <c r="E14">
-        <v>0.887140578579158</v>
+        <v>0.8871405785791584</v>
       </c>
       <c r="F14">
-        <v>0.9173094870635095</v>
+        <v>0.9173094870635101</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.031981378859536</v>
       </c>
       <c r="J14">
-        <v>0.8965288548633252</v>
+        <v>0.8965288548633258</v>
       </c>
       <c r="K14">
         <v>1.011416479270893</v>
       </c>
       <c r="L14">
-        <v>0.9045789716147442</v>
+        <v>0.9045789716147445</v>
       </c>
       <c r="M14">
-        <v>0.9339989151269414</v>
+        <v>0.9339989151269421</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.861885504603434</v>
+        <v>0.8618855046034337</v>
       </c>
       <c r="D15">
-        <v>0.9972509840365488</v>
+        <v>0.9972509840365484</v>
       </c>
       <c r="E15">
         <v>0.8888272567770703</v>
       </c>
       <c r="F15">
-        <v>0.9190453860158315</v>
+        <v>0.919045386015831</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032435594211662</v>
       </c>
       <c r="J15">
-        <v>0.898198452207732</v>
+        <v>0.8981984522077318</v>
       </c>
       <c r="K15">
-        <v>1.012152712568663</v>
+        <v>1.012152712568662</v>
       </c>
       <c r="L15">
-        <v>0.9061158931337447</v>
+        <v>0.9061158931337449</v>
       </c>
       <c r="M15">
-        <v>0.9355929382614906</v>
+        <v>0.93559293826149</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8733141955843839</v>
+        <v>0.8733141955843823</v>
       </c>
       <c r="D16">
-        <v>1.001997255815651</v>
+        <v>1.00199725581565</v>
       </c>
       <c r="E16">
-        <v>0.8982810501186834</v>
+        <v>0.8982810501186821</v>
       </c>
       <c r="F16">
-        <v>0.9287871495991022</v>
+        <v>0.9287871495991009</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034984792347155</v>
+        <v>1.034984792347154</v>
       </c>
       <c r="J16">
-        <v>0.9075462820814142</v>
+        <v>0.9075462820814127</v>
       </c>
       <c r="K16">
-        <v>1.016293970570557</v>
+        <v>1.016293970570556</v>
       </c>
       <c r="L16">
-        <v>0.9147236192641539</v>
+        <v>0.9147236192641525</v>
       </c>
       <c r="M16">
-        <v>0.9445324375313299</v>
+        <v>0.9445324375313283</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8801201096933545</v>
+        <v>0.880120109693355</v>
       </c>
       <c r="D17">
         <v>1.004851930318378</v>
       </c>
       <c r="E17">
-        <v>0.9039224765569878</v>
+        <v>0.9039224765569879</v>
       </c>
       <c r="F17">
-        <v>0.934608218590893</v>
+        <v>0.9346082185908928</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>1.036507335173201</v>
       </c>
       <c r="J17">
-        <v>0.9131159733748304</v>
+        <v>0.9131159733748306</v>
       </c>
       <c r="K17">
         <v>1.018775419099718</v>
@@ -1018,7 +1018,7 @@
         <v>0.9198545598770942</v>
       </c>
       <c r="M17">
-        <v>0.9498689315812502</v>
+        <v>0.9498689315812501</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8839729427955714</v>
+        <v>0.883972942795572</v>
       </c>
       <c r="D18">
-        <v>1.006476705902226</v>
+        <v>1.006476705902227</v>
       </c>
       <c r="E18">
-        <v>0.9071198151591779</v>
+        <v>0.9071198151591783</v>
       </c>
       <c r="F18">
-        <v>0.937909238266769</v>
+        <v>0.9379092382667698</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.03737019014704</v>
       </c>
       <c r="J18">
-        <v>0.9162697410428061</v>
+        <v>0.9162697410428067</v>
       </c>
       <c r="K18">
         <v>1.020184571681354</v>
       </c>
       <c r="L18">
-        <v>0.9227606362905851</v>
+        <v>0.9227606362905857</v>
       </c>
       <c r="M18">
-        <v>0.9528933218911133</v>
+        <v>0.952893321891114</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8852679753350048</v>
+        <v>0.8852679753350062</v>
       </c>
       <c r="D19">
-        <v>1.007024198577253</v>
+        <v>1.007024198577254</v>
       </c>
       <c r="E19">
-        <v>0.908195114746007</v>
+        <v>0.9081951147460086</v>
       </c>
       <c r="F19">
-        <v>0.9390196459534559</v>
+        <v>0.9390196459534567</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.037660320919476</v>
       </c>
       <c r="J19">
-        <v>0.9173299046224799</v>
+        <v>0.9173299046224812</v>
       </c>
       <c r="K19">
         <v>1.020658877866808</v>
       </c>
       <c r="L19">
-        <v>0.923737658633118</v>
+        <v>0.9237376586331193</v>
       </c>
       <c r="M19">
-        <v>0.9539103668346518</v>
+        <v>0.9539103668346524</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8794022781133312</v>
+        <v>0.8794022781133305</v>
       </c>
       <c r="D20">
-        <v>1.00454989913016</v>
+        <v>1.004549899130159</v>
       </c>
       <c r="E20">
-        <v>0.9033270669574437</v>
+        <v>0.903327066957443</v>
       </c>
       <c r="F20">
-        <v>0.933993634570199</v>
+        <v>0.9339936345701986</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036346637482313</v>
+        <v>1.036346637482312</v>
       </c>
       <c r="J20">
-        <v>0.9125284425290139</v>
+        <v>0.9125284425290132</v>
       </c>
       <c r="K20">
         <v>1.018513213089075</v>
       </c>
       <c r="L20">
-        <v>0.9193132324786546</v>
+        <v>0.9193132324786538</v>
       </c>
       <c r="M20">
-        <v>0.9493057011158152</v>
+        <v>0.9493057011158147</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8588585036409113</v>
+        <v>0.8588585036409119</v>
       </c>
       <c r="D21">
-        <v>0.9960044285503281</v>
+        <v>0.9960044285503291</v>
       </c>
       <c r="E21">
-        <v>0.8863275305491585</v>
+        <v>0.8863275305491586</v>
       </c>
       <c r="F21">
-        <v>0.9164729792560584</v>
+        <v>0.9164729792560594</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.031762514972135</v>
       </c>
       <c r="J21">
-        <v>0.8957238468665317</v>
+        <v>0.8957238468665322</v>
       </c>
       <c r="K21">
-        <v>1.011061895714616</v>
+        <v>1.011061895714617</v>
       </c>
       <c r="L21">
         <v>0.9038379866654187</v>
       </c>
       <c r="M21">
-        <v>0.9332306630783277</v>
+        <v>0.9332306630783284</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8445461503767249</v>
+        <v>0.844546150376725</v>
       </c>
       <c r="D22">
-        <v>0.9901745947143171</v>
+        <v>0.9901745947143175</v>
       </c>
       <c r="E22">
         <v>0.8745330568794963</v>
       </c>
       <c r="F22">
-        <v>0.9043606036964864</v>
+        <v>0.9043606036964869</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.028595770469306</v>
       </c>
       <c r="J22">
-        <v>0.8840321287545555</v>
+        <v>0.8840321287545559</v>
       </c>
       <c r="K22">
-        <v>1.005943240386151</v>
+        <v>1.005943240386152</v>
       </c>
       <c r="L22">
-        <v>0.8930799512099045</v>
+        <v>0.8930799512099046</v>
       </c>
       <c r="M22">
-        <v>0.9220987522555614</v>
+        <v>0.9220987522555619</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8522865298226363</v>
+        <v>0.8522865298226373</v>
       </c>
       <c r="D23">
-        <v>0.9933140277058314</v>
+        <v>0.9933140277058319</v>
       </c>
       <c r="E23">
-        <v>0.8809065690960072</v>
+        <v>0.880906569096008</v>
       </c>
       <c r="F23">
-        <v>0.910900400797388</v>
+        <v>0.9109004007973889</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.030304926603812</v>
       </c>
       <c r="J23">
-        <v>0.8903533098073955</v>
+        <v>0.8903533098073962</v>
       </c>
       <c r="K23">
         <v>1.008703196037914</v>
       </c>
       <c r="L23">
-        <v>0.8988954444445034</v>
+        <v>0.8988954444445043</v>
       </c>
       <c r="M23">
-        <v>0.9281109631704813</v>
+        <v>0.928110963170482</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8797269933974708</v>
+        <v>0.8797269933974726</v>
       </c>
       <c r="D24">
         <v>1.004686497672461</v>
       </c>
       <c r="E24">
-        <v>0.9035963924042703</v>
+        <v>0.9035963924042716</v>
       </c>
       <c r="F24">
-        <v>0.9342716276916222</v>
+        <v>0.9342716276916236</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.036419327226249</v>
       </c>
       <c r="J24">
-        <v>0.9127942132091302</v>
+        <v>0.9127942132091318</v>
       </c>
       <c r="K24">
-        <v>1.018631809985535</v>
+        <v>1.018631809985536</v>
       </c>
       <c r="L24">
-        <v>0.9195581006219873</v>
+        <v>0.9195581006219889</v>
       </c>
       <c r="M24">
-        <v>0.9495604713566985</v>
+        <v>0.9495604713566999</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9070311281203347</v>
+        <v>0.9070311281203357</v>
       </c>
       <c r="D25">
-        <v>1.016318077643066</v>
+        <v>1.016318077643067</v>
       </c>
       <c r="E25">
-        <v>0.9263089118729362</v>
+        <v>0.9263089118729372</v>
       </c>
       <c r="F25">
-        <v>0.9577316101375093</v>
+        <v>0.9577316101375105</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0425349074621</v>
+        <v>1.042534907462101</v>
       </c>
       <c r="J25">
-        <v>0.9351505099077149</v>
+        <v>0.9351505099077159</v>
       </c>
       <c r="K25">
-        <v>1.02866824973925</v>
+        <v>1.028668249739251</v>
       </c>
       <c r="L25">
-        <v>0.940170127864322</v>
+        <v>0.9401701278643229</v>
       </c>
       <c r="M25">
-        <v>0.9710235560162277</v>
+        <v>0.9710235560162288</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9262561903950879</v>
+        <v>0.9263456795808133</v>
       </c>
       <c r="D2">
-        <v>1.024648938175946</v>
+        <v>1.024665174617231</v>
       </c>
       <c r="E2">
-        <v>0.9423747411518092</v>
+        <v>0.9424532854548499</v>
       </c>
       <c r="F2">
-        <v>0.9743088977639973</v>
+        <v>0.9743573477484322</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046814901226902</v>
+        <v>1.046825238968864</v>
       </c>
       <c r="J2">
-        <v>0.9508908850016303</v>
+        <v>0.9509770623508512</v>
       </c>
       <c r="K2">
-        <v>1.035775231251474</v>
+        <v>1.035791254934843</v>
       </c>
       <c r="L2">
-        <v>0.9546998774377821</v>
+        <v>0.9547771491435788</v>
       </c>
       <c r="M2">
-        <v>0.9861381459692283</v>
+        <v>0.9861858750070401</v>
+      </c>
+      <c r="N2">
+        <v>0.9685927853302473</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.939089244845232</v>
+        <v>0.9391629220447937</v>
       </c>
       <c r="D3">
-        <v>1.030254159906192</v>
+        <v>1.030267426037273</v>
       </c>
       <c r="E3">
-        <v>0.9531305716007094</v>
+        <v>0.9531954263569554</v>
       </c>
       <c r="F3">
-        <v>0.9853753711861796</v>
+        <v>0.9854150679224598</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049639630783989</v>
+        <v>1.049648090586255</v>
       </c>
       <c r="J3">
-        <v>0.9613903330377916</v>
+        <v>0.9614616232349041</v>
       </c>
       <c r="K3">
-        <v>1.040514031640349</v>
+        <v>1.040527140168105</v>
       </c>
       <c r="L3">
-        <v>0.9644004891862954</v>
+        <v>0.9644644076325192</v>
       </c>
       <c r="M3">
-        <v>0.9961988612445408</v>
+        <v>0.996238030986814</v>
+      </c>
+      <c r="N3">
+        <v>0.9757997034224962</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9469567928498583</v>
+        <v>0.9470211840222469</v>
       </c>
       <c r="D4">
-        <v>1.0337016910164</v>
+        <v>1.033713233819828</v>
       </c>
       <c r="E4">
-        <v>0.9597366170221723</v>
+        <v>0.9597934035575661</v>
       </c>
       <c r="F4">
-        <v>0.9921522934204809</v>
+        <v>0.99218688984631</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051352143125884</v>
+        <v>1.051359511238995</v>
       </c>
       <c r="J4">
-        <v>0.967822069826376</v>
+        <v>0.9678845501568223</v>
       </c>
       <c r="K4">
-        <v>1.043409694503261</v>
+        <v>1.043421108954813</v>
       </c>
       <c r="L4">
-        <v>0.9703465683504862</v>
+        <v>0.9704025954979939</v>
       </c>
       <c r="M4">
-        <v>1.002346365322017</v>
+        <v>1.002380535959901</v>
+      </c>
+      <c r="N4">
+        <v>0.9802122857074334</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9501701653357257</v>
+        <v>0.9502308453606926</v>
       </c>
       <c r="D5">
-        <v>1.035111282285982</v>
+        <v>1.03512214076373</v>
       </c>
       <c r="E5">
-        <v>0.9624373043858842</v>
+        <v>0.9624908607830792</v>
       </c>
       <c r="F5">
-        <v>0.994917407602481</v>
+        <v>0.99494997406775</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052046415000021</v>
+        <v>1.052053349127565</v>
       </c>
       <c r="J5">
-        <v>0.9704475656433432</v>
+        <v>0.9705065110856904</v>
       </c>
       <c r="K5">
-        <v>1.044589184074619</v>
+        <v>1.044599925206591</v>
       </c>
       <c r="L5">
-        <v>0.972774661897457</v>
+        <v>0.9728275251804418</v>
       </c>
       <c r="M5">
-        <v>1.004851413521282</v>
+        <v>1.004883591952892</v>
+      </c>
+      <c r="N5">
+        <v>0.9820129653450402</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.950704452625406</v>
+        <v>0.9507645199924171</v>
       </c>
       <c r="D6">
-        <v>1.035345712121738</v>
+        <v>1.035356457868671</v>
       </c>
       <c r="E6">
-        <v>0.9628864895915522</v>
+        <v>0.9629395124340053</v>
       </c>
       <c r="F6">
-        <v>0.9953769714021196</v>
+        <v>0.9954092032084749</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052161531763001</v>
+        <v>1.052168394371453</v>
       </c>
       <c r="J6">
-        <v>0.9708840162938338</v>
+        <v>0.97094237740151</v>
       </c>
       <c r="K6">
-        <v>1.044785085236177</v>
+        <v>1.044795715415813</v>
       </c>
       <c r="L6">
-        <v>0.9731783462087327</v>
+        <v>0.9732306866298812</v>
       </c>
       <c r="M6">
-        <v>1.005267562290682</v>
+        <v>1.005299412146612</v>
+      </c>
+      <c r="N6">
+        <v>0.9823122670228948</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9470000876431265</v>
+        <v>0.9470644285087014</v>
       </c>
       <c r="D7">
-        <v>1.033720678358717</v>
+        <v>1.033732211868895</v>
       </c>
       <c r="E7">
-        <v>0.9597729944735476</v>
+        <v>0.9598297372438477</v>
       </c>
       <c r="F7">
-        <v>0.9921895610684223</v>
+        <v>0.9922241299449924</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051361518546847</v>
+        <v>1.051368880768256</v>
       </c>
       <c r="J7">
-        <v>0.9678574499593183</v>
+        <v>0.9679198824260316</v>
       </c>
       <c r="K7">
-        <v>1.043425599974831</v>
+        <v>1.043437005284982</v>
       </c>
       <c r="L7">
-        <v>0.97037928504344</v>
+        <v>0.9704352693413733</v>
       </c>
       <c r="M7">
-        <v>1.002380140806442</v>
+        <v>1.002414284417206</v>
+      </c>
+      <c r="N7">
+        <v>0.9802365533014591</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9306902984863311</v>
+        <v>0.9307742253191303</v>
       </c>
       <c r="D8">
-        <v>1.026582491227515</v>
+        <v>1.026597677669064</v>
       </c>
       <c r="E8">
-        <v>0.9460883349689885</v>
+        <v>0.9461620707298156</v>
       </c>
       <c r="F8">
-        <v>0.9781335699969524</v>
+        <v>0.9781789309716268</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04779466182541</v>
+        <v>1.047804336216787</v>
       </c>
       <c r="J8">
-        <v>0.9545196433481287</v>
+        <v>0.9546005999053288</v>
       </c>
       <c r="K8">
-        <v>1.03741403344729</v>
+        <v>1.037429027273853</v>
       </c>
       <c r="L8">
-        <v>0.9580517278977018</v>
+        <v>0.9581243142511499</v>
       </c>
       <c r="M8">
-        <v>0.9896181152520975</v>
+        <v>0.9896628265614122</v>
+      </c>
+      <c r="N8">
+        <v>0.9710840443647977</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.898027781508119</v>
+        <v>0.8981555471669049</v>
       </c>
       <c r="D9">
-        <v>1.012453066914263</v>
+        <v>1.012476671356363</v>
       </c>
       <c r="E9">
-        <v>0.918805558978028</v>
+        <v>0.9189169729238299</v>
       </c>
       <c r="F9">
-        <v>0.9499803060396778</v>
+        <v>0.9500502886989983</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040519662023033</v>
+        <v>1.040534641802101</v>
       </c>
       <c r="J9">
-        <v>0.9277775787602334</v>
+        <v>0.9278992213549129</v>
       </c>
       <c r="K9">
-        <v>1.025347281907344</v>
+        <v>1.025370515355345</v>
       </c>
       <c r="L9">
-        <v>0.9333693285160467</v>
+        <v>0.9334784898209569</v>
       </c>
       <c r="M9">
-        <v>0.9639406330427058</v>
+        <v>0.9640093191480956</v>
+      </c>
+      <c r="N9">
+        <v>0.9527171833297653</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8725282947791744</v>
+        <v>0.8726959932650016</v>
       </c>
       <c r="D10">
-        <v>1.001668932836277</v>
+        <v>1.001700459900195</v>
       </c>
       <c r="E10">
-        <v>0.8976301655507031</v>
+        <v>0.8977754557542074</v>
       </c>
       <c r="F10">
-        <v>0.9281158636963663</v>
+        <v>0.9282087743186338</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034809157427545</v>
+        <v>1.034829109653988</v>
       </c>
       <c r="J10">
-        <v>0.9069032588960024</v>
+        <v>0.9070611014572524</v>
       </c>
       <c r="K10">
-        <v>1.016008119424836</v>
+        <v>1.016039079743209</v>
       </c>
       <c r="L10">
-        <v>0.9141313575407202</v>
+        <v>0.9142731588005111</v>
       </c>
       <c r="M10">
-        <v>0.94391677571388</v>
+        <v>0.9440076455435357</v>
+      </c>
+      <c r="N10">
+        <v>0.9383745882748965</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8602350094746506</v>
+        <v>0.8604243225047525</v>
       </c>
       <c r="D11">
-        <v>0.9965707244226527</v>
+        <v>0.9966066234198649</v>
       </c>
       <c r="E11">
-        <v>0.8874640400096433</v>
+        <v>0.8876274927371106</v>
       </c>
       <c r="F11">
-        <v>0.9176423306020056</v>
+        <v>0.9177478189469908</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032068467340293</v>
+        <v>1.03209115743628</v>
       </c>
       <c r="J11">
-        <v>0.8968490827103411</v>
+        <v>0.897026210871233</v>
       </c>
       <c r="K11">
-        <v>1.011557602924482</v>
+        <v>1.011592818843686</v>
       </c>
       <c r="L11">
-        <v>0.9048737409241975</v>
+        <v>0.9050329598032648</v>
       </c>
       <c r="M11">
-        <v>0.9343045796900517</v>
+        <v>0.934407570838569</v>
+      </c>
+      <c r="N11">
+        <v>0.9314669954934868</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8554341552554382</v>
+        <v>0.8556324078886623</v>
       </c>
       <c r="D12">
-        <v>0.9945998074757009</v>
+        <v>0.9946375293993737</v>
       </c>
       <c r="E12">
-        <v>0.8835018457072491</v>
+        <v>0.8836727758284441</v>
       </c>
       <c r="F12">
-        <v>0.9135671856940999</v>
+        <v>0.9136779059529434</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031002357299256</v>
+        <v>1.031026187966871</v>
       </c>
       <c r="J12">
-        <v>0.8929251326974348</v>
+        <v>0.8931101787381037</v>
       </c>
       <c r="K12">
-        <v>1.009831203142906</v>
+        <v>1.009868192084753</v>
       </c>
       <c r="L12">
-        <v>0.9012621219831527</v>
+        <v>0.9014284966331809</v>
       </c>
       <c r="M12">
-        <v>0.930561411883418</v>
+        <v>0.9306694362784776</v>
+      </c>
+      <c r="N12">
+        <v>0.9287714283516066</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8564755169887401</v>
+        <v>0.8566718050141259</v>
       </c>
       <c r="D13">
-        <v>0.9950263263644682</v>
+        <v>0.9950636469823428</v>
       </c>
       <c r="E13">
-        <v>0.8843609047092668</v>
+        <v>0.8845301932638702</v>
       </c>
       <c r="F13">
-        <v>0.9144503587976184</v>
+        <v>0.9145599278587254</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031233374774998</v>
+        <v>1.031256954399668</v>
       </c>
       <c r="J13">
-        <v>0.8937761511602302</v>
+        <v>0.8939594599681983</v>
       </c>
       <c r="K13">
-        <v>1.010205081974211</v>
+        <v>1.010241680660834</v>
       </c>
       <c r="L13">
-        <v>0.9020453340101412</v>
+        <v>0.9022101384160769</v>
       </c>
       <c r="M13">
-        <v>0.9313727824893124</v>
+        <v>0.9314796998217517</v>
+      </c>
+      <c r="N13">
+        <v>0.9293560176212345</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8598432886049641</v>
+        <v>0.8600333199697999</v>
       </c>
       <c r="D14">
-        <v>0.9964094735080972</v>
+        <v>0.9964455186828163</v>
       </c>
       <c r="E14">
-        <v>0.8871405785791584</v>
+        <v>0.8873046328821053</v>
       </c>
       <c r="F14">
-        <v>0.9173094870635101</v>
+        <v>0.9174153951993803</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031981378859536</v>
+        <v>1.03200416043658</v>
       </c>
       <c r="J14">
-        <v>0.8965288548633258</v>
+        <v>0.8967066204908187</v>
       </c>
       <c r="K14">
-        <v>1.011416479270893</v>
+        <v>1.011451837394176</v>
       </c>
       <c r="L14">
-        <v>0.9045789716147445</v>
+        <v>0.9047387665053678</v>
       </c>
       <c r="M14">
-        <v>0.9339989151269421</v>
+        <v>0.9341023103093576</v>
+      </c>
+      <c r="N14">
+        <v>0.9312470057547076</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8618855046034337</v>
+        <v>0.8620718119852732</v>
       </c>
       <c r="D15">
-        <v>0.9972509840365484</v>
+        <v>0.9972862719885626</v>
       </c>
       <c r="E15">
-        <v>0.8888272567770703</v>
+        <v>0.8889881909945062</v>
       </c>
       <c r="F15">
-        <v>0.919045386015831</v>
+        <v>0.9191491190733011</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032435594211662</v>
+        <v>1.032457901862173</v>
       </c>
       <c r="J15">
-        <v>0.8981984522077318</v>
+        <v>0.8983729107202808</v>
       </c>
       <c r="K15">
-        <v>1.012152712568662</v>
+        <v>1.012187333996851</v>
       </c>
       <c r="L15">
-        <v>0.9061158931337449</v>
+        <v>0.9062726999239905</v>
       </c>
       <c r="M15">
-        <v>0.93559293826149</v>
+        <v>0.9356942396534532</v>
+      </c>
+      <c r="N15">
+        <v>0.9323939987517921</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8733141955843823</v>
+        <v>0.8734805700233939</v>
       </c>
       <c r="D16">
-        <v>1.00199725581565</v>
+        <v>1.00202851682566</v>
       </c>
       <c r="E16">
-        <v>0.8982810501186821</v>
+        <v>0.8984252238327755</v>
       </c>
       <c r="F16">
-        <v>0.9287871495991009</v>
+        <v>0.9288792932916196</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034984792347154</v>
+        <v>1.035004577838115</v>
       </c>
       <c r="J16">
-        <v>0.9075462820814127</v>
+        <v>0.9077029365134063</v>
       </c>
       <c r="K16">
-        <v>1.016293970570556</v>
+        <v>1.016324671745969</v>
       </c>
       <c r="L16">
-        <v>0.9147236192641525</v>
+        <v>0.9148643480632059</v>
       </c>
       <c r="M16">
-        <v>0.9445324375313283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9446225672337571</v>
+      </c>
+      <c r="N16">
+        <v>0.9388163986762651</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.880120109693355</v>
+        <v>0.8802752844937412</v>
       </c>
       <c r="D17">
-        <v>1.004851930318378</v>
+        <v>1.00488094960672</v>
       </c>
       <c r="E17">
-        <v>0.9039224765569879</v>
+        <v>0.9040571879606145</v>
       </c>
       <c r="F17">
-        <v>0.9346082185908928</v>
+        <v>0.9346938926070605</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036507335173201</v>
+        <v>1.03652571515944</v>
       </c>
       <c r="J17">
-        <v>0.9131159733748306</v>
+        <v>0.9132625454784467</v>
       </c>
       <c r="K17">
-        <v>1.018775419099718</v>
+        <v>1.018803935931239</v>
       </c>
       <c r="L17">
-        <v>0.9198545598770942</v>
+        <v>0.9199861908863486</v>
       </c>
       <c r="M17">
-        <v>0.9498689315812501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9499528127101463</v>
+      </c>
+      <c r="N17">
+        <v>0.9426433199438435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.883972942795572</v>
+        <v>0.8841219795359625</v>
       </c>
       <c r="D18">
-        <v>1.006476705902227</v>
+        <v>1.006504503479049</v>
       </c>
       <c r="E18">
-        <v>0.9071198151591783</v>
+        <v>0.9072493266548316</v>
       </c>
       <c r="F18">
-        <v>0.9379092382667698</v>
+        <v>0.9379913802742473</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03737019014704</v>
+        <v>1.037387803652758</v>
       </c>
       <c r="J18">
-        <v>0.9162697410428067</v>
+        <v>0.916410762379448</v>
       </c>
       <c r="K18">
-        <v>1.020184571681354</v>
+        <v>1.020211897391424</v>
       </c>
       <c r="L18">
-        <v>0.9227606362905857</v>
+        <v>0.9228872609573069</v>
       </c>
       <c r="M18">
-        <v>0.952893321891114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9529737878172269</v>
+      </c>
+      <c r="N18">
+        <v>0.944810297840703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8852679753350062</v>
+        <v>0.8854149801349016</v>
       </c>
       <c r="D19">
-        <v>1.007024198577254</v>
+        <v>1.007051592834912</v>
       </c>
       <c r="E19">
-        <v>0.9081951147460086</v>
+        <v>0.9083229026673745</v>
       </c>
       <c r="F19">
-        <v>0.9390196459534567</v>
+        <v>0.9391006209478698</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037660320919476</v>
+        <v>1.037677681307806</v>
       </c>
       <c r="J19">
-        <v>0.9173299046224812</v>
+        <v>0.9174690844461544</v>
       </c>
       <c r="K19">
-        <v>1.020658877866808</v>
+        <v>1.020685810244452</v>
       </c>
       <c r="L19">
-        <v>0.9237376586331193</v>
+        <v>0.9238626227981539</v>
       </c>
       <c r="M19">
-        <v>0.9539103668346524</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9539897037144907</v>
+      </c>
+      <c r="N19">
+        <v>0.9455387440477988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8794022781133305</v>
+        <v>0.87955861224827</v>
       </c>
       <c r="D20">
-        <v>1.004549899130159</v>
+        <v>1.004579149729226</v>
       </c>
       <c r="E20">
-        <v>0.903327066957443</v>
+        <v>0.9034627593833792</v>
       </c>
       <c r="F20">
-        <v>0.9339936345701986</v>
+        <v>0.9340799768128824</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036346637482312</v>
+        <v>1.036365162548087</v>
       </c>
       <c r="J20">
-        <v>0.9125284425290132</v>
+        <v>0.912676061027944</v>
       </c>
       <c r="K20">
-        <v>1.018513213089075</v>
+        <v>1.018541955383885</v>
       </c>
       <c r="L20">
-        <v>0.9193132324786538</v>
+        <v>0.9194458074469178</v>
       </c>
       <c r="M20">
-        <v>0.9493057011158147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9493902280569083</v>
+      </c>
+      <c r="N20">
+        <v>0.9422396241846638</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8588585036409119</v>
+        <v>0.8590503494630961</v>
       </c>
       <c r="D21">
-        <v>0.9960044285503291</v>
+        <v>0.9960408431967858</v>
       </c>
       <c r="E21">
-        <v>0.8863275305491586</v>
+        <v>0.8864931038100402</v>
       </c>
       <c r="F21">
-        <v>0.9164729792560594</v>
+        <v>0.9165799482364605</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031762514972135</v>
+        <v>1.031785527756378</v>
       </c>
       <c r="J21">
-        <v>0.8957238468665322</v>
+        <v>0.895903221719046</v>
       </c>
       <c r="K21">
-        <v>1.011061895714617</v>
+        <v>1.011097613244163</v>
       </c>
       <c r="L21">
-        <v>0.9038379866654187</v>
+        <v>0.903999235720972</v>
       </c>
       <c r="M21">
-        <v>0.9332306630783284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9333350791418404</v>
+      </c>
+      <c r="N21">
+        <v>0.9306939886484163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.844546150376725</v>
+        <v>0.8447658529924834</v>
       </c>
       <c r="D22">
-        <v>0.9901745947143175</v>
+        <v>0.9902167217324122</v>
       </c>
       <c r="E22">
-        <v>0.8745330568794963</v>
+        <v>0.8747218489712184</v>
       </c>
       <c r="F22">
-        <v>0.9043606036964869</v>
+        <v>0.9044839412071862</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028595770469306</v>
+        <v>1.028622355232332</v>
       </c>
       <c r="J22">
-        <v>0.8840321287545559</v>
+        <v>0.8842360420277525</v>
       </c>
       <c r="K22">
-        <v>1.005943240386152</v>
+        <v>1.005984510936964</v>
       </c>
       <c r="L22">
-        <v>0.8930799512099046</v>
+        <v>0.8932633869976833</v>
       </c>
       <c r="M22">
-        <v>0.9220987522555619</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9222188954333038</v>
+      </c>
+      <c r="N22">
+        <v>0.9226633604583704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8522865298226373</v>
+        <v>0.8524908097028837</v>
       </c>
       <c r="D23">
-        <v>0.9933140277058319</v>
+        <v>0.9933529831454697</v>
       </c>
       <c r="E23">
-        <v>0.880906569096008</v>
+        <v>0.8810825294879532</v>
       </c>
       <c r="F23">
-        <v>0.9109004007973889</v>
+        <v>0.9110146576210265</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030304926603812</v>
+        <v>1.030329528758505</v>
       </c>
       <c r="J23">
-        <v>0.8903533098073962</v>
+        <v>0.8905436757347238</v>
       </c>
       <c r="K23">
-        <v>1.008703196037914</v>
+        <v>1.008741384311026</v>
       </c>
       <c r="L23">
-        <v>0.8988954444445043</v>
+        <v>0.8990666283666208</v>
       </c>
       <c r="M23">
-        <v>0.928110963170482</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9282223870967194</v>
+      </c>
+      <c r="N23">
+        <v>0.9270048426409796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8797269933974726</v>
+        <v>0.8798828024776695</v>
       </c>
       <c r="D24">
-        <v>1.004686497672461</v>
+        <v>1.004715643490789</v>
       </c>
       <c r="E24">
-        <v>0.9035963924042716</v>
+        <v>0.9037316405757585</v>
       </c>
       <c r="F24">
-        <v>0.9342716276916236</v>
+        <v>0.9343576672557573</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036419327226249</v>
+        <v>1.036437786574461</v>
       </c>
       <c r="J24">
-        <v>0.9127942132091318</v>
+        <v>0.9129413578814273</v>
       </c>
       <c r="K24">
-        <v>1.018631809985536</v>
+        <v>1.018660450150571</v>
       </c>
       <c r="L24">
-        <v>0.9195581006219889</v>
+        <v>0.9196902481410821</v>
       </c>
       <c r="M24">
-        <v>0.9495604713566999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9496447057842791</v>
+      </c>
+      <c r="N24">
+        <v>0.9424222366353799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9070311281203357</v>
+        <v>0.9071460979272844</v>
       </c>
       <c r="D25">
-        <v>1.016318077643067</v>
+        <v>1.016339192272897</v>
       </c>
       <c r="E25">
-        <v>0.9263089118729372</v>
+        <v>0.9264093807420155</v>
       </c>
       <c r="F25">
-        <v>0.9577316101375105</v>
+        <v>0.9577943424349745</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042534907462101</v>
+        <v>1.042548320846744</v>
       </c>
       <c r="J25">
-        <v>0.9351505099077159</v>
+        <v>0.9352603839278048</v>
       </c>
       <c r="K25">
-        <v>1.028668249739251</v>
+        <v>1.02868904985042</v>
       </c>
       <c r="L25">
-        <v>0.9401701278643229</v>
+        <v>0.9402686961484737</v>
       </c>
       <c r="M25">
-        <v>0.9710235560162288</v>
+        <v>0.9710852001696851</v>
+      </c>
+      <c r="N25">
+        <v>0.9577824266516692</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9263456795808133</v>
+        <v>0.9034852472057212</v>
       </c>
       <c r="D2">
-        <v>1.024665174617231</v>
+        <v>1.03701617855195</v>
       </c>
       <c r="E2">
-        <v>0.9424532854548499</v>
+        <v>0.9238298131577831</v>
       </c>
       <c r="F2">
-        <v>0.9743573477484322</v>
+        <v>0.9225564796466097</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046825238968864</v>
+        <v>1.04966493641165</v>
       </c>
       <c r="J2">
-        <v>0.9509770623508512</v>
+        <v>0.9289929142334662</v>
       </c>
       <c r="K2">
-        <v>1.035791254934843</v>
+        <v>1.047982825807516</v>
       </c>
       <c r="L2">
-        <v>0.9547771491435788</v>
+        <v>0.9364632423266416</v>
       </c>
       <c r="M2">
-        <v>0.9861858750070401</v>
+        <v>0.9352116643891757</v>
       </c>
       <c r="N2">
-        <v>0.9685927853302473</v>
+        <v>0.930312190728654</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9391629220447937</v>
+        <v>0.9255769968235836</v>
       </c>
       <c r="D3">
-        <v>1.030267426037273</v>
+        <v>1.038724435454634</v>
       </c>
       <c r="E3">
-        <v>0.9531954263569554</v>
+        <v>0.9437366921686865</v>
       </c>
       <c r="F3">
-        <v>0.9854150679224598</v>
+        <v>0.943897597265892</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049648090586255</v>
+        <v>1.049990288268154</v>
       </c>
       <c r="J3">
-        <v>0.9614616232349041</v>
+        <v>0.9483248159288017</v>
       </c>
       <c r="K3">
-        <v>1.040527140168105</v>
+        <v>1.04888469248286</v>
       </c>
       <c r="L3">
-        <v>0.9644644076325192</v>
+        <v>0.9551439565480255</v>
       </c>
       <c r="M3">
-        <v>0.996238030986814</v>
+        <v>0.9553024798308203</v>
       </c>
       <c r="N3">
-        <v>0.9757997034224962</v>
+        <v>0.9496715459417973</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9470211840222469</v>
+        <v>0.9386128447705662</v>
       </c>
       <c r="D4">
-        <v>1.033713233819828</v>
+        <v>1.039807736879433</v>
       </c>
       <c r="E4">
-        <v>0.9597934035575661</v>
+        <v>0.9554996270001651</v>
       </c>
       <c r="F4">
-        <v>0.99218688984631</v>
+        <v>0.9565122468108379</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051359511238995</v>
+        <v>1.050183150691575</v>
       </c>
       <c r="J4">
-        <v>0.9678845501568223</v>
+        <v>0.9597287906329864</v>
       </c>
       <c r="K4">
-        <v>1.043421108954813</v>
+        <v>1.049448332132398</v>
       </c>
       <c r="L4">
-        <v>0.9704025954979939</v>
+        <v>0.9661665584108193</v>
       </c>
       <c r="M4">
-        <v>1.002380535959901</v>
+        <v>0.967165502546649</v>
       </c>
       <c r="N4">
-        <v>0.9802122857074334</v>
+        <v>0.9610917155981162</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9502308453606926</v>
+        <v>0.9438426993042859</v>
       </c>
       <c r="D5">
-        <v>1.03512214076373</v>
+        <v>1.040257915130859</v>
       </c>
       <c r="E5">
-        <v>0.9624908607830792</v>
+        <v>0.9602217955498317</v>
       </c>
       <c r="F5">
-        <v>0.99494997406775</v>
+        <v>0.9615775129417994</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052053349127565</v>
+        <v>1.050260008368905</v>
       </c>
       <c r="J5">
-        <v>0.9705065110856904</v>
+        <v>0.9643026543612054</v>
       </c>
       <c r="K5">
-        <v>1.044599925206591</v>
+        <v>1.049680534409773</v>
       </c>
       <c r="L5">
-        <v>0.9728275251804418</v>
+        <v>0.9705879104912174</v>
       </c>
       <c r="M5">
-        <v>1.004883591952892</v>
+        <v>0.9719260108997626</v>
       </c>
       <c r="N5">
-        <v>0.9820129653450402</v>
+        <v>0.9656720747374588</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9507645199924171</v>
+        <v>0.9447073359050084</v>
       </c>
       <c r="D6">
-        <v>1.035356457868671</v>
+        <v>1.040333195749658</v>
       </c>
       <c r="E6">
-        <v>0.9629395124340053</v>
+        <v>0.9610026521477698</v>
       </c>
       <c r="F6">
-        <v>0.9954092032084749</v>
+        <v>0.9624151776652778</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052168394371453</v>
+        <v>1.05027266572413</v>
       </c>
       <c r="J6">
-        <v>0.97094237740151</v>
+        <v>0.9650587495341419</v>
       </c>
       <c r="K6">
-        <v>1.044795715415813</v>
+        <v>1.04971924407449</v>
       </c>
       <c r="L6">
-        <v>0.9732306866298812</v>
+        <v>0.9713188155113485</v>
       </c>
       <c r="M6">
-        <v>1.005299412146612</v>
+        <v>0.972713104354483</v>
       </c>
       <c r="N6">
-        <v>0.9823122670228948</v>
+        <v>0.9664292436522662</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9470644285087014</v>
+        <v>0.9386836541000129</v>
       </c>
       <c r="D7">
-        <v>1.033732211868895</v>
+        <v>1.039813772728468</v>
       </c>
       <c r="E7">
-        <v>0.9598297372438477</v>
+        <v>0.9555635516102201</v>
       </c>
       <c r="F7">
-        <v>0.9922241299449924</v>
+        <v>0.956580811065339</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051368880768256</v>
+        <v>1.050184194246957</v>
       </c>
       <c r="J7">
-        <v>0.9679198824260316</v>
+        <v>0.9597907239650662</v>
       </c>
       <c r="K7">
-        <v>1.043437005284982</v>
+        <v>1.049451453476574</v>
       </c>
       <c r="L7">
-        <v>0.9704352693413733</v>
+        <v>0.9662264250800535</v>
       </c>
       <c r="M7">
-        <v>1.002414284417206</v>
+        <v>0.967229953271732</v>
       </c>
       <c r="N7">
-        <v>0.9802365533014591</v>
+        <v>0.9611537368826312</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9307742253191303</v>
+        <v>0.9112482425627473</v>
       </c>
       <c r="D8">
-        <v>1.026597677669064</v>
+        <v>1.037598082249529</v>
       </c>
       <c r="E8">
-        <v>0.9461620707298156</v>
+        <v>0.9308207592654835</v>
       </c>
       <c r="F8">
-        <v>0.9781789309716268</v>
+        <v>0.9300503029217989</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047804336216787</v>
+        <v>1.049778551927297</v>
       </c>
       <c r="J8">
-        <v>0.9546005999053288</v>
+        <v>0.9357864648915165</v>
       </c>
       <c r="K8">
-        <v>1.037429027273853</v>
+        <v>1.048291754076944</v>
       </c>
       <c r="L8">
-        <v>0.9581243142511499</v>
+        <v>0.943027183778854</v>
       </c>
       <c r="M8">
-        <v>0.9896628265614122</v>
+        <v>0.9422692633736243</v>
       </c>
       <c r="N8">
-        <v>0.9710840443647977</v>
+        <v>0.9371153890078702</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8981555471669049</v>
+        <v>0.8495197395573748</v>
       </c>
       <c r="D9">
-        <v>1.012476671356363</v>
+        <v>1.03352302800109</v>
       </c>
       <c r="E9">
-        <v>0.9189169729238299</v>
+        <v>0.8753869510487259</v>
       </c>
       <c r="F9">
-        <v>0.9500502886989983</v>
+        <v>0.8706365732064137</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040534641802101</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J9">
-        <v>0.9278992213549129</v>
+        <v>0.8817902757253031</v>
       </c>
       <c r="K9">
-        <v>1.025370515355345</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L9">
-        <v>0.9334784898209569</v>
+        <v>0.8908869758688537</v>
       </c>
       <c r="M9">
-        <v>0.9640093191480956</v>
+        <v>0.8862466231366735</v>
       </c>
       <c r="N9">
-        <v>0.9527171833297653</v>
+        <v>0.8830425190595914</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8726959932650016</v>
+        <v>0.7876417042333703</v>
       </c>
       <c r="D10">
-        <v>1.001700459900195</v>
+        <v>1.030688880812372</v>
       </c>
       <c r="E10">
-        <v>0.8977754557542074</v>
+        <v>0.820277826641537</v>
       </c>
       <c r="F10">
-        <v>0.9282087743186338</v>
+        <v>0.8115382627000025</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034829109653988</v>
+        <v>1.04826943707582</v>
       </c>
       <c r="J10">
-        <v>0.9070611014572524</v>
+        <v>0.8278293337804959</v>
       </c>
       <c r="K10">
-        <v>1.016039079743209</v>
+        <v>1.044525297024521</v>
       </c>
       <c r="L10">
-        <v>0.9142731588005111</v>
+        <v>0.8388796147448967</v>
       </c>
       <c r="M10">
-        <v>0.9440076455435357</v>
+        <v>0.8304123212365231</v>
       </c>
       <c r="N10">
-        <v>0.9383745882748965</v>
+        <v>0.8290049463878161</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8604243225047525</v>
+        <v>0.74500493197426</v>
       </c>
       <c r="D11">
-        <v>0.9966066234198649</v>
+        <v>1.029433179004557</v>
       </c>
       <c r="E11">
-        <v>0.8876274927371106</v>
+        <v>0.7826695060966029</v>
       </c>
       <c r="F11">
-        <v>0.9177478189469908</v>
+        <v>0.771150653534118</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03209115743628</v>
+        <v>1.047962298172288</v>
       </c>
       <c r="J11">
-        <v>0.897026210871233</v>
+        <v>0.7908373758455409</v>
       </c>
       <c r="K11">
-        <v>1.011592818843686</v>
+        <v>1.04382058515441</v>
       </c>
       <c r="L11">
-        <v>0.9050329598032648</v>
+        <v>0.8033092763772255</v>
       </c>
       <c r="M11">
-        <v>0.934407570838569</v>
+        <v>0.7922214419209046</v>
       </c>
       <c r="N11">
-        <v>0.9314669954934868</v>
+        <v>0.7919604556295564</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8556324078886623</v>
+        <v>0.7209664974041766</v>
       </c>
       <c r="D12">
-        <v>0.9946375293993737</v>
+        <v>1.028962417322696</v>
       </c>
       <c r="E12">
-        <v>0.8836727758284441</v>
+        <v>0.7616301247526271</v>
       </c>
       <c r="F12">
-        <v>0.9136779059529434</v>
+        <v>0.74852594461551</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031026187966871</v>
+        <v>1.047844905527682</v>
       </c>
       <c r="J12">
-        <v>0.8931101787381037</v>
+        <v>0.7700773852985966</v>
       </c>
       <c r="K12">
-        <v>1.009868192084753</v>
+        <v>1.043555011370238</v>
       </c>
       <c r="L12">
-        <v>0.9014284966331809</v>
+        <v>0.7833847529151533</v>
       </c>
       <c r="M12">
-        <v>0.9306694362784776</v>
+        <v>0.7708212580781572</v>
       </c>
       <c r="N12">
-        <v>0.9287714283516066</v>
+        <v>0.7711709835148316</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8566718050141259</v>
+        <v>0.7269206326088898</v>
       </c>
       <c r="D13">
-        <v>0.9950636469823428</v>
+        <v>1.029063594547694</v>
       </c>
       <c r="E13">
-        <v>0.8845301932638702</v>
+        <v>0.7668291811342182</v>
       </c>
       <c r="F13">
-        <v>0.9145599278587254</v>
+        <v>0.754119122844283</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031256954399668</v>
+        <v>1.047870236572852</v>
       </c>
       <c r="J13">
-        <v>0.8939594599681983</v>
+        <v>0.7752120707434432</v>
       </c>
       <c r="K13">
-        <v>1.010241680660834</v>
+        <v>1.043612150892343</v>
       </c>
       <c r="L13">
-        <v>0.9022101384160769</v>
+        <v>0.7883099749873695</v>
       </c>
       <c r="M13">
-        <v>0.9314796998217517</v>
+        <v>0.7761119646516098</v>
       </c>
       <c r="N13">
-        <v>0.9293560176212345</v>
+        <v>0.7763129608019663</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8600333199697999</v>
+        <v>0.7433031296986341</v>
       </c>
       <c r="D14">
-        <v>0.9964455186828163</v>
+        <v>1.029394354529478</v>
       </c>
       <c r="E14">
-        <v>0.8873046328821053</v>
+        <v>0.7811758249858813</v>
       </c>
       <c r="F14">
-        <v>0.9174153951993803</v>
+        <v>0.7695452307753075</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03200416043658</v>
+        <v>1.047952662022529</v>
       </c>
       <c r="J14">
-        <v>0.8967066204908187</v>
+        <v>0.7893651522980197</v>
       </c>
       <c r="K14">
-        <v>1.011451837394176</v>
+        <v>1.043798710702484</v>
       </c>
       <c r="L14">
-        <v>0.9047387665053678</v>
+        <v>0.8018953327687908</v>
       </c>
       <c r="M14">
-        <v>0.9341023103093576</v>
+        <v>0.7907030121722697</v>
       </c>
       <c r="N14">
-        <v>0.9312470057547076</v>
+        <v>0.7904861413557313</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8620718119852732</v>
+        <v>0.7518350756968358</v>
       </c>
       <c r="D15">
-        <v>0.9972862719885626</v>
+        <v>1.029597570092012</v>
       </c>
       <c r="E15">
-        <v>0.8889881909945062</v>
+        <v>0.7886704516760562</v>
       </c>
       <c r="F15">
-        <v>0.9191491190733011</v>
+        <v>0.7775993757691786</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032457901862173</v>
+        <v>1.048003008315739</v>
       </c>
       <c r="J15">
-        <v>0.8983729107202808</v>
+        <v>0.7967497039779678</v>
       </c>
       <c r="K15">
-        <v>1.012187333996851</v>
+        <v>1.043913150207113</v>
       </c>
       <c r="L15">
-        <v>0.9062726999239905</v>
+        <v>0.8089889603479287</v>
       </c>
       <c r="M15">
-        <v>0.9356942396534532</v>
+        <v>0.7983205287508148</v>
       </c>
       <c r="N15">
-        <v>0.9323939987517921</v>
+        <v>0.797881179946085</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8734805700233939</v>
+        <v>0.7899194784997166</v>
       </c>
       <c r="D16">
-        <v>1.00202851682566</v>
+        <v>1.030771612411838</v>
       </c>
       <c r="E16">
-        <v>0.8984252238327755</v>
+        <v>0.8222962284916547</v>
       </c>
       <c r="F16">
-        <v>0.9288792932916196</v>
+        <v>0.813704211065893</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035004577838115</v>
+        <v>1.048289357867212</v>
       </c>
       <c r="J16">
-        <v>0.9077029365134063</v>
+        <v>0.8298106848669626</v>
       </c>
       <c r="K16">
-        <v>1.016324671745969</v>
+        <v>1.044571533557892</v>
       </c>
       <c r="L16">
-        <v>0.9148643480632059</v>
+        <v>0.8407869415054353</v>
       </c>
       <c r="M16">
-        <v>0.9446225672337571</v>
+        <v>0.8324598810953132</v>
       </c>
       <c r="N16">
-        <v>0.9388163986762651</v>
+        <v>0.8309891112200896</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8802752844937412</v>
+        <v>0.8083370133045016</v>
       </c>
       <c r="D17">
-        <v>1.00488094960672</v>
+        <v>1.03150038928846</v>
       </c>
       <c r="E17">
-        <v>0.9040571879606145</v>
+        <v>0.8386473365705367</v>
       </c>
       <c r="F17">
-        <v>0.9346938926070605</v>
+        <v>0.8312457579808388</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03652571515944</v>
+        <v>1.048463099425805</v>
       </c>
       <c r="J17">
-        <v>0.9132625454784467</v>
+        <v>0.8458473866903509</v>
       </c>
       <c r="K17">
-        <v>1.018803935931239</v>
+        <v>1.044977760623805</v>
       </c>
       <c r="L17">
-        <v>0.9199861908863486</v>
+        <v>0.8562314911033432</v>
       </c>
       <c r="M17">
-        <v>0.9499528127101463</v>
+        <v>0.8490397128150629</v>
       </c>
       <c r="N17">
-        <v>0.9426433199438435</v>
+        <v>0.8470485869995025</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8841219795359625</v>
+        <v>0.8179326152344878</v>
       </c>
       <c r="D18">
-        <v>1.006504503479049</v>
+        <v>1.031922726886212</v>
       </c>
       <c r="E18">
-        <v>0.9072493266548316</v>
+        <v>0.847186891585506</v>
       </c>
       <c r="F18">
-        <v>0.9379913802742473</v>
+        <v>0.8404040239068096</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037387803652758</v>
+        <v>1.048562326292331</v>
       </c>
       <c r="J18">
-        <v>0.916410762379448</v>
+        <v>0.8542128016830498</v>
       </c>
       <c r="K18">
-        <v>1.020211897391424</v>
+        <v>1.045212280040765</v>
       </c>
       <c r="L18">
-        <v>0.9228872609573069</v>
+        <v>0.8642926547138886</v>
       </c>
       <c r="M18">
-        <v>0.9529737878172269</v>
+        <v>0.8576935411348444</v>
       </c>
       <c r="N18">
-        <v>0.944810297840703</v>
+        <v>0.8554258818410173</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8854149801349016</v>
+        <v>0.8210496696911926</v>
       </c>
       <c r="D19">
-        <v>1.007051592834912</v>
+        <v>1.032066269069261</v>
       </c>
       <c r="E19">
-        <v>0.9083229026673745</v>
+        <v>0.8499637617784418</v>
       </c>
       <c r="F19">
-        <v>0.9391006209478698</v>
+        <v>0.8433817029435597</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037677681307806</v>
+        <v>1.048595802006744</v>
       </c>
       <c r="J19">
-        <v>0.9174690844461544</v>
+        <v>0.8569315946458587</v>
       </c>
       <c r="K19">
-        <v>1.020685810244452</v>
+        <v>1.04529183454428</v>
       </c>
       <c r="L19">
-        <v>0.9238626227981539</v>
+        <v>0.8669132061602801</v>
       </c>
       <c r="M19">
-        <v>0.9539897037144907</v>
+        <v>0.8605068205125493</v>
       </c>
       <c r="N19">
-        <v>0.9455387440477988</v>
+        <v>0.8581485358016833</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.87955861224827</v>
+        <v>0.8064903838957048</v>
       </c>
       <c r="D20">
-        <v>1.004579149729226</v>
+        <v>1.03142248282258</v>
       </c>
       <c r="E20">
-        <v>0.9034627593833792</v>
+        <v>0.8370055069344334</v>
       </c>
       <c r="F20">
-        <v>0.9340799768128824</v>
+        <v>0.8294847550332514</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036365162548087</v>
+        <v>1.048444677328425</v>
       </c>
       <c r="J20">
-        <v>0.912676061027944</v>
+        <v>0.8442382617452301</v>
       </c>
       <c r="K20">
-        <v>1.018541955383885</v>
+        <v>1.044934427455083</v>
       </c>
       <c r="L20">
-        <v>0.9194458074469178</v>
+        <v>0.8546812425814442</v>
       </c>
       <c r="M20">
-        <v>0.9493902280569083</v>
+        <v>0.8473755101394045</v>
       </c>
       <c r="N20">
-        <v>0.9422396241846638</v>
+        <v>0.8454371769123904</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8590503494630961</v>
+        <v>0.7388645370926012</v>
       </c>
       <c r="D21">
-        <v>0.9960408431967858</v>
+        <v>1.029297074179585</v>
       </c>
       <c r="E21">
-        <v>0.8864931038100402</v>
+        <v>0.7772829627089961</v>
       </c>
       <c r="F21">
-        <v>0.9165799482364605</v>
+        <v>0.7653605900820082</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031785527756378</v>
+        <v>1.047928481211587</v>
       </c>
       <c r="J21">
-        <v>0.895903221719046</v>
+        <v>0.785527072856929</v>
       </c>
       <c r="K21">
-        <v>1.011097613244163</v>
+        <v>1.043743878990856</v>
       </c>
       <c r="L21">
-        <v>0.903999235720972</v>
+        <v>0.7982098603088155</v>
       </c>
       <c r="M21">
-        <v>0.9333350791418404</v>
+        <v>0.7867450402507485</v>
       </c>
       <c r="N21">
-        <v>0.9306939886484163</v>
+        <v>0.7866426114016004</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8447658529924834</v>
+        <v>0.7388645370926012</v>
       </c>
       <c r="D22">
-        <v>0.9902167217324122</v>
+        <v>1.029297074179585</v>
       </c>
       <c r="E22">
-        <v>0.8747218489712184</v>
+        <v>0.7772829627089961</v>
       </c>
       <c r="F22">
-        <v>0.9044839412071862</v>
+        <v>0.7653605900820082</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028622355232332</v>
+        <v>1.047928481211587</v>
       </c>
       <c r="J22">
-        <v>0.8842360420277525</v>
+        <v>0.785527072856929</v>
       </c>
       <c r="K22">
-        <v>1.005984510936964</v>
+        <v>1.043743878990856</v>
       </c>
       <c r="L22">
-        <v>0.8932633869976833</v>
+        <v>0.7982098603088155</v>
       </c>
       <c r="M22">
-        <v>0.9222188954333038</v>
+        <v>0.7867450402507485</v>
       </c>
       <c r="N22">
-        <v>0.9226633604583704</v>
+        <v>0.7866426114016004</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8524908097028837</v>
+        <v>0.6974973441483819</v>
       </c>
       <c r="D23">
-        <v>0.9933529831454697</v>
+        <v>1.028659752490994</v>
       </c>
       <c r="E23">
-        <v>0.8810825294879532</v>
+        <v>0.7412226133423409</v>
       </c>
       <c r="F23">
-        <v>0.9110146576210265</v>
+        <v>0.7265546656868792</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030329528758505</v>
+        <v>1.047768804063363</v>
       </c>
       <c r="J23">
-        <v>0.8905436757347238</v>
+        <v>0.7498909514715426</v>
       </c>
       <c r="K23">
-        <v>1.008741384311026</v>
+        <v>1.043383882872786</v>
       </c>
       <c r="L23">
-        <v>0.8990666283666208</v>
+        <v>0.7640414911347715</v>
       </c>
       <c r="M23">
-        <v>0.9282223870967194</v>
+        <v>0.7500372095257082</v>
       </c>
       <c r="N23">
-        <v>0.9270048426409796</v>
+        <v>0.7509558826363266</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.8798828024776695</v>
+        <v>0.8073281821673757</v>
       </c>
       <c r="D24">
-        <v>1.004715643490789</v>
+        <v>1.031457693882517</v>
       </c>
       <c r="E24">
-        <v>0.9037316405757585</v>
+        <v>0.8377503255348099</v>
       </c>
       <c r="F24">
-        <v>0.9343576672557573</v>
+        <v>0.8302836459988231</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036437786574461</v>
+        <v>1.048453008012139</v>
       </c>
       <c r="J24">
-        <v>0.9129413578814273</v>
+        <v>0.8449682749473366</v>
       </c>
       <c r="K24">
-        <v>1.018660450150571</v>
+        <v>1.044954015343837</v>
       </c>
       <c r="L24">
-        <v>0.9196902481410821</v>
+        <v>0.8553845308596614</v>
       </c>
       <c r="M24">
-        <v>0.9496447057842791</v>
+        <v>0.8481304945122232</v>
       </c>
       <c r="N24">
-        <v>0.9424222366353799</v>
+        <v>0.8461682268169776</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9071460979272844</v>
+        <v>0.8677787876020313</v>
       </c>
       <c r="D25">
-        <v>1.016339192272897</v>
+        <v>1.0345970248035</v>
       </c>
       <c r="E25">
-        <v>0.9264093807420155</v>
+        <v>0.8917438780402199</v>
       </c>
       <c r="F25">
-        <v>0.9577943424349745</v>
+        <v>0.8881677644072291</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042548320846744</v>
+        <v>1.049164116523449</v>
       </c>
       <c r="J25">
-        <v>0.9352603839278048</v>
+        <v>0.8977528231647912</v>
       </c>
       <c r="K25">
-        <v>1.02868904985042</v>
+        <v>1.046680998318036</v>
       </c>
       <c r="L25">
-        <v>0.9402686961484737</v>
+        <v>0.906292584641431</v>
       </c>
       <c r="M25">
-        <v>0.9710852001696851</v>
+        <v>0.9027916433409355</v>
       </c>
       <c r="N25">
-        <v>0.9577824266516692</v>
+        <v>0.8990277351473734</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9034852472057212</v>
+        <v>0.9948509244969437</v>
       </c>
       <c r="D2">
-        <v>1.03701617855195</v>
+        <v>1.031023823324067</v>
       </c>
       <c r="E2">
-        <v>0.9238298131577831</v>
+        <v>1.00198014972721</v>
       </c>
       <c r="F2">
-        <v>0.9225564796466097</v>
+        <v>1.003375516858941</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04966493641165</v>
+        <v>1.043838189833488</v>
       </c>
       <c r="J2">
-        <v>0.9289929142334662</v>
+        <v>1.017186741861841</v>
       </c>
       <c r="K2">
-        <v>1.047982825807516</v>
+        <v>1.042067226189098</v>
       </c>
       <c r="L2">
-        <v>0.9364632423266416</v>
+        <v>1.013411966680707</v>
       </c>
       <c r="M2">
-        <v>0.9352116643891757</v>
+        <v>1.014788024833835</v>
       </c>
       <c r="N2">
-        <v>0.930312190728654</v>
+        <v>1.01863126370823</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9255769968235836</v>
+        <v>0.9992196999756651</v>
       </c>
       <c r="D3">
-        <v>1.038724435454634</v>
+        <v>1.033600669902627</v>
       </c>
       <c r="E3">
-        <v>0.9437366921686865</v>
+        <v>1.005453038726411</v>
       </c>
       <c r="F3">
-        <v>0.943897597265892</v>
+        <v>1.008513837528707</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049990288268154</v>
+        <v>1.044998399904547</v>
       </c>
       <c r="J3">
-        <v>0.9483248159288017</v>
+        <v>1.019731659382847</v>
       </c>
       <c r="K3">
-        <v>1.04888469248286</v>
+        <v>1.043820943434158</v>
       </c>
       <c r="L3">
-        <v>0.9551439565480255</v>
+        <v>1.016016619153826</v>
       </c>
       <c r="M3">
-        <v>0.9553024798308203</v>
+        <v>1.019038929002065</v>
       </c>
       <c r="N3">
-        <v>0.9496715459417973</v>
+        <v>1.021179795304027</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9386128447705662</v>
+        <v>1.00198925022116</v>
       </c>
       <c r="D4">
-        <v>1.039807736879433</v>
+        <v>1.035237573161484</v>
       </c>
       <c r="E4">
-        <v>0.9554996270001651</v>
+        <v>1.007660690615065</v>
       </c>
       <c r="F4">
-        <v>0.9565122468108379</v>
+        <v>1.011772736962713</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050183150691575</v>
+        <v>1.045725124656748</v>
       </c>
       <c r="J4">
-        <v>0.9597287906329864</v>
+        <v>1.021342207292838</v>
       </c>
       <c r="K4">
-        <v>1.049448332132398</v>
+        <v>1.044928529106846</v>
       </c>
       <c r="L4">
-        <v>0.9661665584108193</v>
+        <v>1.01766752882465</v>
       </c>
       <c r="M4">
-        <v>0.967165502546649</v>
+        <v>1.021731121914704</v>
       </c>
       <c r="N4">
-        <v>0.9610917155981162</v>
+        <v>1.022792630376782</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9438426993042859</v>
+        <v>1.003140329495043</v>
       </c>
       <c r="D5">
-        <v>1.040257915130859</v>
+        <v>1.035918616587533</v>
       </c>
       <c r="E5">
-        <v>0.9602217955498317</v>
+        <v>1.008579641177278</v>
       </c>
       <c r="F5">
-        <v>0.9615775129417994</v>
+        <v>1.013127598189272</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050260008368905</v>
+        <v>1.046025018409141</v>
       </c>
       <c r="J5">
-        <v>0.9643026543612054</v>
+        <v>1.022010886946387</v>
       </c>
       <c r="K5">
-        <v>1.049680534409773</v>
+        <v>1.045387801871625</v>
       </c>
       <c r="L5">
-        <v>0.9705879104912174</v>
+        <v>1.018353577673615</v>
       </c>
       <c r="M5">
-        <v>0.9719260108997626</v>
+        <v>1.022849431656494</v>
       </c>
       <c r="N5">
-        <v>0.9656720747374588</v>
+        <v>1.023462259632138</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9447073359050084</v>
+        <v>1.003332838112242</v>
       </c>
       <c r="D6">
-        <v>1.040333195749658</v>
+        <v>1.036032555115564</v>
       </c>
       <c r="E6">
-        <v>0.9610026521477698</v>
+        <v>1.00873340968305</v>
       </c>
       <c r="F6">
-        <v>0.9624151776652778</v>
+        <v>1.013354212203345</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05027266572413</v>
+        <v>1.046075045807235</v>
       </c>
       <c r="J6">
-        <v>0.9650587495341419</v>
+        <v>1.022122676471053</v>
       </c>
       <c r="K6">
-        <v>1.04971924407449</v>
+        <v>1.045464547345549</v>
       </c>
       <c r="L6">
-        <v>0.9713188155113485</v>
+        <v>1.018468306859784</v>
       </c>
       <c r="M6">
-        <v>0.972713104354483</v>
+        <v>1.0230364238658</v>
       </c>
       <c r="N6">
-        <v>0.9664292436522662</v>
+        <v>1.023574207910751</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9386836541000129</v>
+        <v>1.002004682393433</v>
       </c>
       <c r="D7">
-        <v>1.039813772728468</v>
+        <v>1.035246700993322</v>
       </c>
       <c r="E7">
-        <v>0.9555635516102201</v>
+        <v>1.007673005203646</v>
       </c>
       <c r="F7">
-        <v>0.956580811065339</v>
+        <v>1.011790899553252</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050184194246957</v>
+        <v>1.045729153776543</v>
       </c>
       <c r="J7">
-        <v>0.9597907239650662</v>
+        <v>1.021351174863195</v>
       </c>
       <c r="K7">
-        <v>1.049451453476574</v>
+        <v>1.044934690710807</v>
       </c>
       <c r="L7">
-        <v>0.9662264250800535</v>
+        <v>1.017676726917222</v>
       </c>
       <c r="M7">
-        <v>0.967229953271732</v>
+        <v>1.021746117181008</v>
       </c>
       <c r="N7">
-        <v>0.9611537368826312</v>
+        <v>1.022801610682118</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9112482425627473</v>
+        <v>0.9963395466721376</v>
       </c>
       <c r="D8">
-        <v>1.037598082249529</v>
+        <v>1.031901109841797</v>
       </c>
       <c r="E8">
-        <v>0.9308207592654835</v>
+        <v>1.00316221312328</v>
       </c>
       <c r="F8">
-        <v>0.9300503029217989</v>
+        <v>1.00512606398992</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049778551927297</v>
+        <v>1.044235337635062</v>
       </c>
       <c r="J8">
-        <v>0.9357864648915165</v>
+        <v>1.018054466372713</v>
       </c>
       <c r="K8">
-        <v>1.048291754076944</v>
+        <v>1.042665626425264</v>
       </c>
       <c r="L8">
-        <v>0.943027183778854</v>
+        <v>1.014299519926837</v>
       </c>
       <c r="M8">
-        <v>0.9422692633736243</v>
+        <v>1.016237044319328</v>
       </c>
       <c r="N8">
-        <v>0.9371153890078702</v>
+        <v>1.019500220487442</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8495197395573748</v>
+        <v>0.9858944810111595</v>
       </c>
       <c r="D9">
-        <v>1.03352302800109</v>
+        <v>1.025763318519854</v>
       </c>
       <c r="E9">
-        <v>0.8753869510487259</v>
+        <v>0.9948956199289127</v>
       </c>
       <c r="F9">
-        <v>0.8706365732064137</v>
+        <v>0.9928478624077568</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048928137280377</v>
+        <v>1.041413138152711</v>
       </c>
       <c r="J9">
-        <v>0.8817902757253031</v>
+        <v>1.011955366669123</v>
       </c>
       <c r="K9">
-        <v>1.046094662550544</v>
+        <v>1.038451788993088</v>
       </c>
       <c r="L9">
-        <v>0.8908869758688537</v>
+        <v>1.008072058589752</v>
       </c>
       <c r="M9">
-        <v>0.8862466231366735</v>
+        <v>1.006058053754735</v>
       </c>
       <c r="N9">
-        <v>0.8830425190595914</v>
+        <v>1.013392459362696</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7876417042333703</v>
+        <v>0.9785856097267329</v>
       </c>
       <c r="D10">
-        <v>1.030688880812372</v>
+        <v>1.021495234808886</v>
       </c>
       <c r="E10">
-        <v>0.820277826641537</v>
+        <v>0.9891481963168998</v>
       </c>
       <c r="F10">
-        <v>0.8115382627000025</v>
+        <v>0.9842601947001333</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04826943707582</v>
+        <v>1.039394999128219</v>
       </c>
       <c r="J10">
-        <v>0.8278293337804959</v>
+        <v>1.007675392981008</v>
       </c>
       <c r="K10">
-        <v>1.044525297024521</v>
+        <v>1.035486937023158</v>
       </c>
       <c r="L10">
-        <v>0.8388796147448967</v>
+        <v>1.003716187207701</v>
       </c>
       <c r="M10">
-        <v>0.8304123212365231</v>
+        <v>0.9989195728731306</v>
       </c>
       <c r="N10">
-        <v>0.8290049463878161</v>
+        <v>1.009106407621023</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.74500493197426</v>
+        <v>0.9753304328993623</v>
       </c>
       <c r="D11">
-        <v>1.029433179004557</v>
+        <v>1.019602125912968</v>
       </c>
       <c r="E11">
-        <v>0.7826695060966029</v>
+        <v>0.9865979823743194</v>
       </c>
       <c r="F11">
-        <v>0.771150653534118</v>
+        <v>0.9804356990576959</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047962298172288</v>
+        <v>1.038486521660495</v>
       </c>
       <c r="J11">
-        <v>0.7908373758455409</v>
+        <v>1.005766767057238</v>
       </c>
       <c r="K11">
-        <v>1.04382058515441</v>
+        <v>1.034163606551419</v>
       </c>
       <c r="L11">
-        <v>0.8033092763772255</v>
+        <v>1.001777145516684</v>
       </c>
       <c r="M11">
-        <v>0.7922214419209046</v>
+        <v>0.9957362475140458</v>
       </c>
       <c r="N11">
-        <v>0.7919604556295564</v>
+        <v>1.007195071229519</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7209664974041766</v>
+        <v>0.9741069595493803</v>
       </c>
       <c r="D12">
-        <v>1.028962417322696</v>
+        <v>1.018891888373554</v>
       </c>
       <c r="E12">
-        <v>0.7616301247526271</v>
+        <v>0.9856409717764695</v>
       </c>
       <c r="F12">
-        <v>0.74852594461551</v>
+        <v>0.9789982121495152</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047844905527682</v>
+        <v>1.038143671312738</v>
       </c>
       <c r="J12">
-        <v>0.7700773852985966</v>
+        <v>1.005049074158509</v>
       </c>
       <c r="K12">
-        <v>1.043555011370238</v>
+        <v>1.0336658841758</v>
       </c>
       <c r="L12">
-        <v>0.7833847529151533</v>
+        <v>1.001048537296872</v>
       </c>
       <c r="M12">
-        <v>0.7708212580781572</v>
+        <v>0.9945391458486411</v>
       </c>
       <c r="N12">
-        <v>0.7711709835148316</v>
+        <v>1.006476359124554</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7269206326088898</v>
+        <v>0.9743700614472488</v>
       </c>
       <c r="D13">
-        <v>1.029063594547694</v>
+        <v>1.019044560779407</v>
       </c>
       <c r="E13">
-        <v>0.7668291811342182</v>
+        <v>0.9858467033382154</v>
       </c>
       <c r="F13">
-        <v>0.754119122844283</v>
+        <v>0.9793073391869874</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047870236572852</v>
+        <v>1.038217461695533</v>
       </c>
       <c r="J13">
-        <v>0.7752120707434432</v>
+        <v>1.005203424590091</v>
       </c>
       <c r="K13">
-        <v>1.043612150892343</v>
+        <v>1.033772930934592</v>
       </c>
       <c r="L13">
-        <v>0.7883099749873695</v>
+        <v>1.001205211545508</v>
       </c>
       <c r="M13">
-        <v>0.7761119646516098</v>
+        <v>0.9947966057662396</v>
       </c>
       <c r="N13">
-        <v>0.7763129608019663</v>
+        <v>1.006630928751453</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7433031296986341</v>
+        <v>0.975229597750771</v>
       </c>
       <c r="D14">
-        <v>1.029394354529478</v>
+        <v>1.019543563082476</v>
       </c>
       <c r="E14">
-        <v>0.7811758249858813</v>
+        <v>0.98651907745213</v>
       </c>
       <c r="F14">
-        <v>0.7695452307753075</v>
+        <v>0.9803172265864045</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047952662022529</v>
+        <v>1.038458292946784</v>
       </c>
       <c r="J14">
-        <v>0.7893651522980197</v>
+        <v>1.005707623288227</v>
       </c>
       <c r="K14">
-        <v>1.043798710702484</v>
+        <v>1.034122592148024</v>
       </c>
       <c r="L14">
-        <v>0.8018953327687908</v>
+        <v>1.001717091592599</v>
       </c>
       <c r="M14">
-        <v>0.7907030121722697</v>
+        <v>0.9956375988996641</v>
       </c>
       <c r="N14">
-        <v>0.7904861413557313</v>
+        <v>1.007135843469574</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7518350756968358</v>
+        <v>0.975757259993621</v>
       </c>
       <c r="D15">
-        <v>1.029597570092012</v>
+        <v>1.019850071280126</v>
       </c>
       <c r="E15">
-        <v>0.7886704516760562</v>
+        <v>0.9869320420887471</v>
       </c>
       <c r="F15">
-        <v>0.7775993757691786</v>
+        <v>0.9809371817959388</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048003008315739</v>
+        <v>1.038605955021919</v>
       </c>
       <c r="J15">
-        <v>0.7967497039779678</v>
+        <v>1.006017104798925</v>
       </c>
       <c r="K15">
-        <v>1.043913150207113</v>
+        <v>1.034337203804242</v>
       </c>
       <c r="L15">
-        <v>0.8089889603479287</v>
+        <v>1.00203135697446</v>
       </c>
       <c r="M15">
-        <v>0.7983205287508148</v>
+        <v>0.9961537931703576</v>
       </c>
       <c r="N15">
-        <v>0.797881179946085</v>
+        <v>1.007445764479515</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7899194784997166</v>
+        <v>0.9787996757626523</v>
       </c>
       <c r="D16">
-        <v>1.030771612411838</v>
+        <v>1.0216199016292</v>
       </c>
       <c r="E16">
-        <v>0.8222962284916547</v>
+        <v>0.9893161069729621</v>
       </c>
       <c r="F16">
-        <v>0.813704211065893</v>
+        <v>0.9845116993201838</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048289357867212</v>
+        <v>1.039454545709108</v>
       </c>
       <c r="J16">
-        <v>0.8298106848669626</v>
+        <v>1.007800859990349</v>
       </c>
       <c r="K16">
-        <v>1.044571533557892</v>
+        <v>1.035573909177489</v>
       </c>
       <c r="L16">
-        <v>0.8407869415054353</v>
+        <v>1.003843725611863</v>
       </c>
       <c r="M16">
-        <v>0.8324598810953132</v>
+        <v>0.9991288274809458</v>
       </c>
       <c r="N16">
-        <v>0.8309891112200896</v>
+        <v>1.00923205280791</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8083370133045016</v>
+        <v>0.9806833730256221</v>
       </c>
       <c r="D17">
-        <v>1.03150038928846</v>
+        <v>1.022717821463372</v>
       </c>
       <c r="E17">
-        <v>0.8386473365705367</v>
+        <v>0.9907947480543565</v>
       </c>
       <c r="F17">
-        <v>0.8312457579808388</v>
+        <v>0.9867248593995924</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048463099425805</v>
+        <v>1.039977440263163</v>
       </c>
       <c r="J17">
-        <v>0.8458473866903509</v>
+        <v>1.008904647537386</v>
       </c>
       <c r="K17">
-        <v>1.044977760623805</v>
+        <v>1.036338914415899</v>
       </c>
       <c r="L17">
-        <v>0.8562314911033432</v>
+        <v>1.00496612701181</v>
       </c>
       <c r="M17">
-        <v>0.8490397128150629</v>
+        <v>1.000969723660518</v>
       </c>
       <c r="N17">
-        <v>0.8470485869995025</v>
+        <v>1.010337407859869</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8179326152344878</v>
+        <v>0.9817734360041372</v>
       </c>
       <c r="D18">
-        <v>1.031922726886212</v>
+        <v>1.023353898324454</v>
       </c>
       <c r="E18">
-        <v>0.847186891585506</v>
+        <v>0.9916513121780374</v>
       </c>
       <c r="F18">
-        <v>0.8404040239068096</v>
+        <v>0.9880056025749673</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048562326292331</v>
+        <v>1.040279110807925</v>
       </c>
       <c r="J18">
-        <v>0.8542128016830498</v>
+        <v>1.009543156144128</v>
       </c>
       <c r="K18">
-        <v>1.045212280040765</v>
+        <v>1.036781331982774</v>
       </c>
       <c r="L18">
-        <v>0.8642926547138886</v>
+        <v>1.00561572794463</v>
       </c>
       <c r="M18">
-        <v>0.8576935411348444</v>
+        <v>1.002034637453793</v>
       </c>
       <c r="N18">
-        <v>0.8554258818410173</v>
+        <v>1.010976823222071</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8210496696911926</v>
+        <v>0.9821436721034609</v>
       </c>
       <c r="D19">
-        <v>1.032066269069261</v>
+        <v>1.023570059695442</v>
       </c>
       <c r="E19">
-        <v>0.8499637617784418</v>
+        <v>0.9919423919629552</v>
       </c>
       <c r="F19">
-        <v>0.8433817029435597</v>
+        <v>0.9884406087934619</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048595802006744</v>
+        <v>1.040381414579552</v>
       </c>
       <c r="J19">
-        <v>0.8569315946458587</v>
+        <v>1.009759982504518</v>
       </c>
       <c r="K19">
-        <v>1.04529183454428</v>
+        <v>1.036931547904244</v>
       </c>
       <c r="L19">
-        <v>0.8669132061602801</v>
+        <v>1.005836375971286</v>
       </c>
       <c r="M19">
-        <v>0.8605068205125493</v>
+        <v>1.002396267882606</v>
       </c>
       <c r="N19">
-        <v>0.8581485358016833</v>
+        <v>1.011193957500763</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8064903838957048</v>
+        <v>0.9804821719073201</v>
       </c>
       <c r="D20">
-        <v>1.03142248282258</v>
+        <v>1.022600474066485</v>
       </c>
       <c r="E20">
-        <v>0.8370055069344334</v>
+        <v>0.990636717867719</v>
       </c>
       <c r="F20">
-        <v>0.8294847550332514</v>
+        <v>0.9864884655397299</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048444677328425</v>
+        <v>1.039921683958397</v>
       </c>
       <c r="J20">
-        <v>0.8442382617452301</v>
+        <v>1.008786774003869</v>
       </c>
       <c r="K20">
-        <v>1.044934427455083</v>
+        <v>1.036257231019683</v>
       </c>
       <c r="L20">
-        <v>0.8546812425814442</v>
+        <v>1.004846231961117</v>
       </c>
       <c r="M20">
-        <v>0.8473755101394045</v>
+        <v>1.000773133914411</v>
       </c>
       <c r="N20">
-        <v>0.8454371769123904</v>
+        <v>1.010219366932415</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7388645370926012</v>
+        <v>0.9749768885384902</v>
       </c>
       <c r="D21">
-        <v>1.029297074179585</v>
+        <v>1.019396816468151</v>
       </c>
       <c r="E21">
-        <v>0.7772829627089961</v>
+        <v>0.9863213533203055</v>
       </c>
       <c r="F21">
-        <v>0.7653605900820082</v>
+        <v>0.9800203146306506</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047928481211587</v>
+        <v>1.038387524941735</v>
       </c>
       <c r="J21">
-        <v>0.785527072856929</v>
+        <v>1.005559394295477</v>
       </c>
       <c r="K21">
-        <v>1.043743878990856</v>
+        <v>1.034019798200151</v>
       </c>
       <c r="L21">
-        <v>0.7982098603088155</v>
+        <v>1.001566589952297</v>
       </c>
       <c r="M21">
-        <v>0.7867450402507485</v>
+        <v>0.9953903591838978</v>
       </c>
       <c r="N21">
-        <v>0.7866426114016004</v>
+        <v>1.006987403974651</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7388645370926012</v>
+        <v>0.9714320139572338</v>
       </c>
       <c r="D22">
-        <v>1.029297074179585</v>
+        <v>1.017341586776385</v>
       </c>
       <c r="E22">
-        <v>0.7772829627089961</v>
+        <v>0.9835514412598597</v>
       </c>
       <c r="F22">
-        <v>0.7653605900820082</v>
+        <v>0.9758552199707023</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047928481211587</v>
+        <v>1.037391577044268</v>
       </c>
       <c r="J22">
-        <v>0.785527072856929</v>
+        <v>1.003479387353377</v>
       </c>
       <c r="K22">
-        <v>1.043743878990856</v>
+        <v>1.032577157461443</v>
       </c>
       <c r="L22">
-        <v>0.7982098603088155</v>
+        <v>0.9994559446390614</v>
       </c>
       <c r="M22">
-        <v>0.7867450402507485</v>
+        <v>0.9919206590766335</v>
       </c>
       <c r="N22">
-        <v>0.7866426114016004</v>
+        <v>1.004904443184113</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.6974973441483819</v>
+        <v>0.9733194066133516</v>
       </c>
       <c r="D23">
-        <v>1.028659752490994</v>
+        <v>1.01843508828722</v>
       </c>
       <c r="E23">
-        <v>0.7412226133423409</v>
+        <v>0.9850253726495207</v>
       </c>
       <c r="F23">
-        <v>0.7265546656868792</v>
+        <v>0.9780728802813987</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047768804063363</v>
+        <v>1.037922591711894</v>
       </c>
       <c r="J23">
-        <v>0.7498909514715426</v>
+        <v>1.004587006344891</v>
       </c>
       <c r="K23">
-        <v>1.043383882872786</v>
+        <v>1.033345413811468</v>
       </c>
       <c r="L23">
-        <v>0.7640414911347715</v>
+        <v>1.000579589835636</v>
       </c>
       <c r="M23">
-        <v>0.7500372095257082</v>
+        <v>0.9937683860657633</v>
       </c>
       <c r="N23">
-        <v>0.7509558826363266</v>
+        <v>1.006013635121641</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8073281821673757</v>
+        <v>0.9805731127552241</v>
       </c>
       <c r="D24">
-        <v>1.031457693882517</v>
+        <v>1.022653511636999</v>
       </c>
       <c r="E24">
-        <v>0.8377503255348099</v>
+        <v>0.9907081431100252</v>
       </c>
       <c r="F24">
-        <v>0.8302836459988231</v>
+        <v>0.986595313062078</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048453008012139</v>
+        <v>1.03994688809307</v>
       </c>
       <c r="J24">
-        <v>0.8449682749473366</v>
+        <v>1.008840052364518</v>
       </c>
       <c r="K24">
-        <v>1.044954015343837</v>
+        <v>1.036294151947156</v>
       </c>
       <c r="L24">
-        <v>0.8553845308596614</v>
+        <v>1.004900423032726</v>
       </c>
       <c r="M24">
-        <v>0.8481304945122232</v>
+        <v>1.000861991648322</v>
       </c>
       <c r="N24">
-        <v>0.8461682268169776</v>
+        <v>1.010272720954447</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8677787876020313</v>
+        <v>0.9886529976115963</v>
       </c>
       <c r="D25">
-        <v>1.0345970248035</v>
+        <v>1.027380126481459</v>
       </c>
       <c r="E25">
-        <v>0.8917438780402199</v>
+        <v>0.9970726512839868</v>
       </c>
       <c r="F25">
-        <v>0.8881677644072291</v>
+        <v>0.9960896102096592</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049164116523449</v>
+        <v>1.042166138115382</v>
       </c>
       <c r="J25">
-        <v>0.8977528231647912</v>
+        <v>1.013568362257384</v>
       </c>
       <c r="K25">
-        <v>1.046680998318036</v>
+        <v>1.03956776600066</v>
       </c>
       <c r="L25">
-        <v>0.906292584641431</v>
+        <v>1.00971658118311</v>
       </c>
       <c r="M25">
-        <v>0.9027916433409355</v>
+        <v>1.008748934768771</v>
       </c>
       <c r="N25">
-        <v>0.8990277351473734</v>
+        <v>1.015007745589706</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9948509244969437</v>
+        <v>1.025342063389558</v>
       </c>
       <c r="D2">
-        <v>1.031023823324067</v>
+        <v>1.036117485227592</v>
       </c>
       <c r="E2">
-        <v>1.00198014972721</v>
+        <v>1.025706743149442</v>
       </c>
       <c r="F2">
-        <v>1.003375516858941</v>
+        <v>1.036787602862162</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043838189833488</v>
+        <v>1.035345182879844</v>
       </c>
       <c r="J2">
-        <v>1.017186741861841</v>
+        <v>1.030511621666424</v>
       </c>
       <c r="K2">
-        <v>1.042067226189098</v>
+        <v>1.038912144240914</v>
       </c>
       <c r="L2">
-        <v>1.013411966680707</v>
+        <v>1.028531528041338</v>
       </c>
       <c r="M2">
-        <v>1.014788024833835</v>
+        <v>1.039580345248184</v>
       </c>
       <c r="N2">
-        <v>1.01863126370823</v>
+        <v>1.031975066370532</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9992196999756651</v>
+        <v>1.026262266472544</v>
       </c>
       <c r="D3">
-        <v>1.033600669902627</v>
+        <v>1.036660778790953</v>
       </c>
       <c r="E3">
-        <v>1.005453038726411</v>
+        <v>1.026487348017936</v>
       </c>
       <c r="F3">
-        <v>1.008513837528707</v>
+        <v>1.037940891707088</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044998399904547</v>
+        <v>1.035536924204052</v>
       </c>
       <c r="J3">
-        <v>1.019731659382847</v>
+        <v>1.03107126868816</v>
       </c>
       <c r="K3">
-        <v>1.043820943434158</v>
+        <v>1.03926568017579</v>
       </c>
       <c r="L3">
-        <v>1.016016619153826</v>
+        <v>1.029119565296921</v>
       </c>
       <c r="M3">
-        <v>1.019038929002065</v>
+        <v>1.040542396958487</v>
       </c>
       <c r="N3">
-        <v>1.021179795304027</v>
+        <v>1.032535508155225</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.00198925022116</v>
+        <v>1.026858106480504</v>
       </c>
       <c r="D4">
-        <v>1.035237573161484</v>
+        <v>1.03701248814117</v>
       </c>
       <c r="E4">
-        <v>1.007660690615065</v>
+        <v>1.026993180400372</v>
       </c>
       <c r="F4">
-        <v>1.011772736962713</v>
+        <v>1.038687842016855</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045725124656748</v>
+        <v>1.035659947541675</v>
       </c>
       <c r="J4">
-        <v>1.021342207292838</v>
+        <v>1.031433197402722</v>
       </c>
       <c r="K4">
-        <v>1.044928529106846</v>
+        <v>1.039493895054016</v>
       </c>
       <c r="L4">
-        <v>1.01766752882465</v>
+        <v>1.029500137862673</v>
       </c>
       <c r="M4">
-        <v>1.021731121914704</v>
+        <v>1.041165028387525</v>
       </c>
       <c r="N4">
-        <v>1.022792630376782</v>
+        <v>1.032897950850075</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003140329495043</v>
+        <v>1.027108694258136</v>
       </c>
       <c r="D5">
-        <v>1.035918616587533</v>
+        <v>1.037160383935686</v>
       </c>
       <c r="E5">
-        <v>1.008579641177278</v>
+        <v>1.027206005600531</v>
       </c>
       <c r="F5">
-        <v>1.013127598189272</v>
+        <v>1.03900202618744</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046025018409141</v>
+        <v>1.035711415576034</v>
       </c>
       <c r="J5">
-        <v>1.022010886946387</v>
+        <v>1.031585303503786</v>
       </c>
       <c r="K5">
-        <v>1.045387801871625</v>
+        <v>1.039589704686809</v>
       </c>
       <c r="L5">
-        <v>1.018353577673615</v>
+        <v>1.029660147194376</v>
       </c>
       <c r="M5">
-        <v>1.022849431656494</v>
+        <v>1.041426810974706</v>
       </c>
       <c r="N5">
-        <v>1.023462259632138</v>
+        <v>1.03305027295925</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003332838112242</v>
+        <v>1.027150774691877</v>
       </c>
       <c r="D6">
-        <v>1.036032555115564</v>
+        <v>1.03718521842363</v>
       </c>
       <c r="E6">
-        <v>1.00873340968305</v>
+        <v>1.027241750013136</v>
       </c>
       <c r="F6">
-        <v>1.013354212203345</v>
+        <v>1.039054788836144</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046075045807235</v>
+        <v>1.035720042552591</v>
       </c>
       <c r="J6">
-        <v>1.022122676471053</v>
+        <v>1.031610839907488</v>
       </c>
       <c r="K6">
-        <v>1.045464547345549</v>
+        <v>1.039605783779911</v>
       </c>
       <c r="L6">
-        <v>1.018468306859784</v>
+        <v>1.02968701441443</v>
       </c>
       <c r="M6">
-        <v>1.0230364238658</v>
+        <v>1.041470767075707</v>
       </c>
       <c r="N6">
-        <v>1.023574207910751</v>
+        <v>1.033075845627574</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002004682393433</v>
+        <v>1.026861454467945</v>
       </c>
       <c r="D7">
-        <v>1.035246700993322</v>
+        <v>1.037014464187954</v>
       </c>
       <c r="E7">
-        <v>1.007673005203646</v>
+        <v>1.026996023501822</v>
       </c>
       <c r="F7">
-        <v>1.011790899553252</v>
+        <v>1.038692039508065</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045729153776543</v>
+        <v>1.035660636246901</v>
       </c>
       <c r="J7">
-        <v>1.021351174863195</v>
+        <v>1.031435230044331</v>
       </c>
       <c r="K7">
-        <v>1.044934690710807</v>
+        <v>1.039495175786645</v>
       </c>
       <c r="L7">
-        <v>1.017676726917222</v>
+        <v>1.029502275850979</v>
       </c>
       <c r="M7">
-        <v>1.021746117181008</v>
+        <v>1.04116852622831</v>
       </c>
       <c r="N7">
-        <v>1.022801610682118</v>
+        <v>1.032899986378268</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9963395466721376</v>
+        <v>1.025652965548273</v>
       </c>
       <c r="D8">
-        <v>1.031901109841797</v>
+        <v>1.036301059297478</v>
       </c>
       <c r="E8">
-        <v>1.00316221312328</v>
+        <v>1.025970400577292</v>
       </c>
       <c r="F8">
-        <v>1.00512606398992</v>
+        <v>1.037177218137879</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044235337635062</v>
+        <v>1.035410199043222</v>
       </c>
       <c r="J8">
-        <v>1.018054466372713</v>
+        <v>1.030700798013791</v>
       </c>
       <c r="K8">
-        <v>1.042665626425264</v>
+        <v>1.039031735883882</v>
       </c>
       <c r="L8">
-        <v>1.014299519926837</v>
+        <v>1.028730242308725</v>
       </c>
       <c r="M8">
-        <v>1.016237044319328</v>
+        <v>1.039905450168608</v>
       </c>
       <c r="N8">
-        <v>1.019500220487442</v>
+        <v>1.032164511370004</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9858944810111595</v>
+        <v>1.023526607468274</v>
       </c>
       <c r="D9">
-        <v>1.025763318519854</v>
+        <v>1.03504526153456</v>
       </c>
       <c r="E9">
-        <v>0.9948956199289127</v>
+        <v>1.02416875765437</v>
       </c>
       <c r="F9">
-        <v>0.9928478624077568</v>
+        <v>1.034513243100008</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041413138152711</v>
+        <v>1.034960908211235</v>
       </c>
       <c r="J9">
-        <v>1.011955366669123</v>
+        <v>1.029405134608417</v>
       </c>
       <c r="K9">
-        <v>1.038451788993088</v>
+        <v>1.038210956940572</v>
       </c>
       <c r="L9">
-        <v>1.008072058589752</v>
+        <v>1.027370419736124</v>
       </c>
       <c r="M9">
-        <v>1.006058053754735</v>
+        <v>1.037680678509825</v>
       </c>
       <c r="N9">
-        <v>1.013392459362696</v>
+        <v>1.030867007973981</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9785856097267329</v>
+        <v>1.022111202979481</v>
       </c>
       <c r="D10">
-        <v>1.021495234808886</v>
+        <v>1.034209041852925</v>
       </c>
       <c r="E10">
-        <v>0.9891481963168998</v>
+        <v>1.02297152314542</v>
       </c>
       <c r="F10">
-        <v>0.9842601947001333</v>
+        <v>1.032740854699541</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039394999128219</v>
+        <v>1.034656041408472</v>
       </c>
       <c r="J10">
-        <v>1.007675392981008</v>
+        <v>1.02854039519251</v>
       </c>
       <c r="K10">
-        <v>1.035486937023158</v>
+        <v>1.037661051537309</v>
       </c>
       <c r="L10">
-        <v>1.003716187207701</v>
+        <v>1.026464326018784</v>
       </c>
       <c r="M10">
-        <v>0.9989195728731306</v>
+        <v>1.036198138373625</v>
       </c>
       <c r="N10">
-        <v>1.009106407621023</v>
+        <v>1.030001040528916</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9753304328993623</v>
+        <v>1.021498840779987</v>
       </c>
       <c r="D11">
-        <v>1.019602125912968</v>
+        <v>1.033847201918378</v>
       </c>
       <c r="E11">
-        <v>0.9865979823743194</v>
+        <v>1.02245403797543</v>
       </c>
       <c r="F11">
-        <v>0.9804356990576959</v>
+        <v>1.031974244619712</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038486521660495</v>
+        <v>1.034522770742796</v>
       </c>
       <c r="J11">
-        <v>1.005766767057238</v>
+        <v>1.028165734061803</v>
       </c>
       <c r="K11">
-        <v>1.034163606551419</v>
+        <v>1.03742230464495</v>
       </c>
       <c r="L11">
-        <v>1.001777145516684</v>
+        <v>1.026072095953978</v>
       </c>
       <c r="M11">
-        <v>0.9957362475140458</v>
+        <v>1.035556336762173</v>
       </c>
       <c r="N11">
-        <v>1.007195071229519</v>
+        <v>1.029625847336429</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9741069595493803</v>
+        <v>1.02127146061091</v>
       </c>
       <c r="D12">
-        <v>1.018891888373554</v>
+        <v>1.033712837453733</v>
       </c>
       <c r="E12">
-        <v>0.9856409717764695</v>
+        <v>1.022261961128385</v>
       </c>
       <c r="F12">
-        <v>0.9789982121495152</v>
+        <v>1.03168961854747</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038143671312738</v>
+        <v>1.034473079079149</v>
       </c>
       <c r="J12">
-        <v>1.005049074158509</v>
+        <v>1.028026535394797</v>
       </c>
       <c r="K12">
-        <v>1.0336658841758</v>
+        <v>1.03733352918472</v>
       </c>
       <c r="L12">
-        <v>1.001048537296872</v>
+        <v>1.025926422274124</v>
       </c>
       <c r="M12">
-        <v>0.9945391458486411</v>
+        <v>1.035317965425566</v>
       </c>
       <c r="N12">
-        <v>1.006476359124554</v>
+        <v>1.02948645099135</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9743700614472488</v>
+        <v>1.021320230869193</v>
       </c>
       <c r="D13">
-        <v>1.019044560779407</v>
+        <v>1.033741657296615</v>
       </c>
       <c r="E13">
-        <v>0.9858467033382154</v>
+        <v>1.022303155901535</v>
       </c>
       <c r="F13">
-        <v>0.9793073391869874</v>
+        <v>1.031750666057465</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038217461695533</v>
+        <v>1.034483746654566</v>
       </c>
       <c r="J13">
-        <v>1.005203424590091</v>
+        <v>1.028056395456269</v>
       </c>
       <c r="K13">
-        <v>1.033772930934592</v>
+        <v>1.037352576069745</v>
       </c>
       <c r="L13">
-        <v>1.001205211545508</v>
+        <v>1.025957668943738</v>
       </c>
       <c r="M13">
-        <v>0.9947966057662396</v>
+        <v>1.035369095872781</v>
       </c>
       <c r="N13">
-        <v>1.006630928751453</v>
+        <v>1.029516353457534</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.975229597750771</v>
+        <v>1.02148004386052</v>
       </c>
       <c r="D14">
-        <v>1.019543563082476</v>
+        <v>1.033836094504847</v>
       </c>
       <c r="E14">
-        <v>0.98651907745213</v>
+        <v>1.022438157976792</v>
       </c>
       <c r="F14">
-        <v>0.9803172265864045</v>
+        <v>1.031950714748244</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038458292946784</v>
+        <v>1.034518667067141</v>
       </c>
       <c r="J14">
-        <v>1.005707623288227</v>
+        <v>1.028154228522461</v>
       </c>
       <c r="K14">
-        <v>1.034122592148024</v>
+        <v>1.037414968353994</v>
       </c>
       <c r="L14">
-        <v>1.001717091592599</v>
+        <v>1.026060054149552</v>
       </c>
       <c r="M14">
-        <v>0.9956375988996641</v>
+        <v>1.035536632456343</v>
       </c>
       <c r="N14">
-        <v>1.007135843469574</v>
+        <v>1.029614325457901</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.975757259993621</v>
+        <v>1.021578520331066</v>
       </c>
       <c r="D15">
-        <v>1.019850071280126</v>
+        <v>1.033894285602008</v>
       </c>
       <c r="E15">
-        <v>0.9869320420887471</v>
+        <v>1.022521355822122</v>
       </c>
       <c r="F15">
-        <v>0.9809371817959388</v>
+        <v>1.032073988183067</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038605955021919</v>
+        <v>1.034540157655762</v>
       </c>
       <c r="J15">
-        <v>1.006017104798925</v>
+        <v>1.02821450237263</v>
       </c>
       <c r="K15">
-        <v>1.034337203804242</v>
+        <v>1.03745339784397</v>
       </c>
       <c r="L15">
-        <v>1.00203135697446</v>
+        <v>1.026123139467973</v>
       </c>
       <c r="M15">
-        <v>0.9961537931703576</v>
+        <v>1.035639860241093</v>
       </c>
       <c r="N15">
-        <v>1.007445764479515</v>
+        <v>1.029674684903851</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C16">
-        <v>0.9787996757626523</v>
+        <v>1.022151854400231</v>
       </c>
       <c r="D16">
-        <v>1.0216199016292</v>
+        <v>1.034233061357134</v>
       </c>
       <c r="E16">
-        <v>0.9893161069729621</v>
+        <v>1.02300588652655</v>
       </c>
       <c r="F16">
-        <v>0.9845116993201838</v>
+        <v>1.032791749903281</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039454545709108</v>
+        <v>1.034664859611192</v>
       </c>
       <c r="J16">
-        <v>1.007800859990349</v>
+        <v>1.028565255573842</v>
       </c>
       <c r="K16">
-        <v>1.035573909177489</v>
+        <v>1.037676883109637</v>
       </c>
       <c r="L16">
-        <v>1.003843725611863</v>
+        <v>1.026490359519407</v>
       </c>
       <c r="M16">
-        <v>0.9991288274809458</v>
+        <v>1.036240735761813</v>
       </c>
       <c r="N16">
-        <v>1.00923205280791</v>
+        <v>1.030025936214841</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9806833730256221</v>
+        <v>1.02251163069997</v>
       </c>
       <c r="D17">
-        <v>1.022717821463372</v>
+        <v>1.034445634178007</v>
       </c>
       <c r="E17">
-        <v>0.9907947480543565</v>
+        <v>1.023310068387452</v>
       </c>
       <c r="F17">
-        <v>0.9867248593995924</v>
+        <v>1.033242209289984</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039977440263163</v>
+        <v>1.034742744509515</v>
       </c>
       <c r="J17">
-        <v>1.008904647537386</v>
+        <v>1.028785214512196</v>
       </c>
       <c r="K17">
-        <v>1.036338914415899</v>
+        <v>1.037816900455159</v>
       </c>
       <c r="L17">
-        <v>1.00496612701181</v>
+        <v>1.026720738194255</v>
       </c>
       <c r="M17">
-        <v>1.000969723660518</v>
+        <v>1.036617688818145</v>
       </c>
       <c r="N17">
-        <v>1.010337407859869</v>
+        <v>1.030246207520117</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9817734360041372</v>
+        <v>1.022721531991886</v>
       </c>
       <c r="D18">
-        <v>1.023353898324454</v>
+        <v>1.034569648195295</v>
       </c>
       <c r="E18">
-        <v>0.9916513121780374</v>
+        <v>1.023487581717288</v>
       </c>
       <c r="F18">
-        <v>0.9880056025749673</v>
+        <v>1.033505036237299</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040279110807925</v>
+        <v>1.034788051719804</v>
       </c>
       <c r="J18">
-        <v>1.009543156144128</v>
+        <v>1.028913491251406</v>
       </c>
       <c r="K18">
-        <v>1.036781331982774</v>
+        <v>1.037898508940144</v>
       </c>
       <c r="L18">
-        <v>1.00561572794463</v>
+        <v>1.026855125169028</v>
       </c>
       <c r="M18">
-        <v>1.002034637453793</v>
+        <v>1.036837573435086</v>
       </c>
       <c r="N18">
-        <v>1.010976823222071</v>
+        <v>1.03037466642701</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9821436721034609</v>
+        <v>1.022793111344488</v>
       </c>
       <c r="D19">
-        <v>1.023570059695442</v>
+        <v>1.034611937772328</v>
       </c>
       <c r="E19">
-        <v>0.9919423919629552</v>
+        <v>1.023548124268977</v>
       </c>
       <c r="F19">
-        <v>0.9884406087934619</v>
+        <v>1.033594667277338</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040381414579552</v>
+        <v>1.03480347964454</v>
       </c>
       <c r="J19">
-        <v>1.009759982504518</v>
+        <v>1.02895722662149</v>
       </c>
       <c r="K19">
-        <v>1.036931547904244</v>
+        <v>1.037926324901173</v>
       </c>
       <c r="L19">
-        <v>1.005836375971286</v>
+        <v>1.026900949493679</v>
       </c>
       <c r="M19">
-        <v>1.002396267882606</v>
+        <v>1.036912550825297</v>
       </c>
       <c r="N19">
-        <v>1.011193957500763</v>
+        <v>1.030418463906335</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9804821719073201</v>
+        <v>1.022473024945197</v>
       </c>
       <c r="D20">
-        <v>1.022600474066485</v>
+        <v>1.034422824643521</v>
       </c>
       <c r="E20">
-        <v>0.990636717867719</v>
+        <v>1.023277423317982</v>
       </c>
       <c r="F20">
-        <v>0.9864884655397299</v>
+        <v>1.033193870819856</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039921683958397</v>
+        <v>1.034734400784865</v>
       </c>
       <c r="J20">
-        <v>1.008786774003869</v>
+        <v>1.02876161722765</v>
       </c>
       <c r="K20">
-        <v>1.036257231019683</v>
+        <v>1.037801884248295</v>
       </c>
       <c r="L20">
-        <v>1.004846231961117</v>
+        <v>1.026696019599816</v>
       </c>
       <c r="M20">
-        <v>1.000773133914411</v>
+        <v>1.036577243845017</v>
       </c>
       <c r="N20">
-        <v>1.010219366932415</v>
+        <v>1.03022257672472</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9749768885384902</v>
+        <v>1.021432980747458</v>
       </c>
       <c r="D21">
-        <v>1.019396816468151</v>
+        <v>1.033808284011191</v>
       </c>
       <c r="E21">
-        <v>0.9863213533203055</v>
+        <v>1.022398399351218</v>
       </c>
       <c r="F21">
-        <v>0.9800203146306506</v>
+        <v>1.031891801888014</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038387524941735</v>
+        <v>1.03450838908947</v>
       </c>
       <c r="J21">
-        <v>1.005559394295477</v>
+        <v>1.028125420023841</v>
       </c>
       <c r="K21">
-        <v>1.034019798200151</v>
+        <v>1.037396597974269</v>
       </c>
       <c r="L21">
-        <v>1.001566589952297</v>
+        <v>1.026029903753944</v>
       </c>
       <c r="M21">
-        <v>0.9953903591838978</v>
+        <v>1.035487296490078</v>
       </c>
       <c r="N21">
-        <v>1.006987403974651</v>
+        <v>1.029585476047909</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9714320139572338</v>
+        <v>1.020779517729312</v>
       </c>
       <c r="D22">
-        <v>1.017341586776385</v>
+        <v>1.033422124358856</v>
       </c>
       <c r="E22">
-        <v>0.9835514412598597</v>
+        <v>1.021846533749329</v>
       </c>
       <c r="F22">
-        <v>0.9758552199707023</v>
+        <v>1.031073874505032</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037391577044268</v>
+        <v>1.034365193290464</v>
       </c>
       <c r="J22">
-        <v>1.003479387353377</v>
+        <v>1.027725227929362</v>
       </c>
       <c r="K22">
-        <v>1.032577157461443</v>
+        <v>1.037141233716449</v>
       </c>
       <c r="L22">
-        <v>0.9994559446390614</v>
+        <v>1.025611195011554</v>
       </c>
       <c r="M22">
-        <v>0.9919206590766335</v>
+        <v>1.034802132746414</v>
       </c>
       <c r="N22">
-        <v>1.004904443184113</v>
+        <v>1.029184715634753</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9733194066133516</v>
+        <v>1.021125887565419</v>
       </c>
       <c r="D23">
-        <v>1.01843508828722</v>
+        <v>1.033626812889909</v>
       </c>
       <c r="E23">
-        <v>0.9850253726495207</v>
+        <v>1.022139010819177</v>
       </c>
       <c r="F23">
-        <v>0.9780728802813987</v>
+        <v>1.031507403620856</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037922591711894</v>
+        <v>1.034441207556943</v>
       </c>
       <c r="J23">
-        <v>1.004587006344891</v>
+        <v>1.027937395074068</v>
       </c>
       <c r="K23">
-        <v>1.033345413811468</v>
+        <v>1.037276658421386</v>
       </c>
       <c r="L23">
-        <v>1.000579589835636</v>
+        <v>1.025833150234327</v>
       </c>
       <c r="M23">
-        <v>0.9937683860657633</v>
+        <v>1.035165338703413</v>
       </c>
       <c r="N23">
-        <v>1.006013635121641</v>
+        <v>1.02939718408114</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9805731127552241</v>
+        <v>1.022490469069959</v>
       </c>
       <c r="D24">
-        <v>1.022653511636999</v>
+        <v>1.034433131216723</v>
       </c>
       <c r="E24">
-        <v>0.9907081431100252</v>
+        <v>1.023292173944193</v>
       </c>
       <c r="F24">
-        <v>0.986595313062078</v>
+        <v>1.033215712641498</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03994688809307</v>
+        <v>1.03473817133106</v>
       </c>
       <c r="J24">
-        <v>1.008840052364518</v>
+        <v>1.028772279891548</v>
       </c>
       <c r="K24">
-        <v>1.036294151947156</v>
+        <v>1.037808669615225</v>
       </c>
       <c r="L24">
-        <v>1.004900423032726</v>
+        <v>1.026707188834746</v>
       </c>
       <c r="M24">
-        <v>1.000861991648322</v>
+        <v>1.036595519143215</v>
       </c>
       <c r="N24">
-        <v>1.010272720954447</v>
+        <v>1.030233254530824</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9886529976115963</v>
+        <v>1.024075943416604</v>
       </c>
       <c r="D25">
-        <v>1.027380126481459</v>
+        <v>1.035369749854091</v>
       </c>
       <c r="E25">
-        <v>0.9970726512839868</v>
+        <v>1.024633850289389</v>
       </c>
       <c r="F25">
-        <v>0.9960896102096592</v>
+        <v>1.035201311535023</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042166138115382</v>
+        <v>1.03507800410292</v>
       </c>
       <c r="J25">
-        <v>1.013568362257384</v>
+        <v>1.029740267826428</v>
       </c>
       <c r="K25">
-        <v>1.03956776600066</v>
+        <v>1.038423631905797</v>
       </c>
       <c r="L25">
-        <v>1.00971658118311</v>
+        <v>1.027721890122163</v>
       </c>
       <c r="M25">
-        <v>1.008748934768771</v>
+        <v>1.038255723515735</v>
       </c>
       <c r="N25">
-        <v>1.015007745589706</v>
+        <v>1.031202617119601</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025342063389558</v>
+        <v>0.9948509244969423</v>
       </c>
       <c r="D2">
-        <v>1.036117485227592</v>
+        <v>1.031023823324066</v>
       </c>
       <c r="E2">
-        <v>1.025706743149442</v>
+        <v>1.001980149727209</v>
       </c>
       <c r="F2">
-        <v>1.036787602862162</v>
+        <v>1.003375516858939</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035345182879844</v>
+        <v>1.043838189833487</v>
       </c>
       <c r="J2">
-        <v>1.030511621666424</v>
+        <v>1.01718674186184</v>
       </c>
       <c r="K2">
-        <v>1.038912144240914</v>
+        <v>1.042067226189098</v>
       </c>
       <c r="L2">
-        <v>1.028531528041338</v>
+        <v>1.013411966680706</v>
       </c>
       <c r="M2">
-        <v>1.039580345248184</v>
+        <v>1.014788024833833</v>
       </c>
       <c r="N2">
-        <v>1.031975066370532</v>
+        <v>1.018631263708229</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026262266472544</v>
+        <v>0.9992196999756646</v>
       </c>
       <c r="D3">
-        <v>1.036660778790953</v>
+        <v>1.033600669902627</v>
       </c>
       <c r="E3">
-        <v>1.026487348017936</v>
+        <v>1.00545303872641</v>
       </c>
       <c r="F3">
-        <v>1.037940891707088</v>
+        <v>1.008513837528706</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035536924204052</v>
+        <v>1.044998399904547</v>
       </c>
       <c r="J3">
-        <v>1.03107126868816</v>
+        <v>1.019731659382847</v>
       </c>
       <c r="K3">
-        <v>1.03926568017579</v>
+        <v>1.043820943434158</v>
       </c>
       <c r="L3">
-        <v>1.029119565296921</v>
+        <v>1.016016619153826</v>
       </c>
       <c r="M3">
-        <v>1.040542396958487</v>
+        <v>1.019038929002065</v>
       </c>
       <c r="N3">
-        <v>1.032535508155225</v>
+        <v>1.021179795304027</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026858106480504</v>
+        <v>1.00198925022116</v>
       </c>
       <c r="D4">
-        <v>1.03701248814117</v>
+        <v>1.035237573161485</v>
       </c>
       <c r="E4">
-        <v>1.026993180400372</v>
+        <v>1.007660690615064</v>
       </c>
       <c r="F4">
-        <v>1.038687842016855</v>
+        <v>1.011772736962713</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035659947541675</v>
+        <v>1.045725124656748</v>
       </c>
       <c r="J4">
-        <v>1.031433197402722</v>
+        <v>1.021342207292837</v>
       </c>
       <c r="K4">
-        <v>1.039493895054016</v>
+        <v>1.044928529106846</v>
       </c>
       <c r="L4">
-        <v>1.029500137862673</v>
+        <v>1.017667528824649</v>
       </c>
       <c r="M4">
-        <v>1.041165028387525</v>
+        <v>1.021731121914704</v>
       </c>
       <c r="N4">
-        <v>1.032897950850075</v>
+        <v>1.022792630376782</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027108694258136</v>
+        <v>1.003140329495043</v>
       </c>
       <c r="D5">
-        <v>1.037160383935686</v>
+        <v>1.035918616587533</v>
       </c>
       <c r="E5">
-        <v>1.027206005600531</v>
+        <v>1.008579641177278</v>
       </c>
       <c r="F5">
-        <v>1.03900202618744</v>
+        <v>1.013127598189272</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035711415576034</v>
+        <v>1.046025018409141</v>
       </c>
       <c r="J5">
-        <v>1.031585303503786</v>
+        <v>1.022010886946387</v>
       </c>
       <c r="K5">
-        <v>1.039589704686809</v>
+        <v>1.045387801871625</v>
       </c>
       <c r="L5">
-        <v>1.029660147194376</v>
+        <v>1.018353577673615</v>
       </c>
       <c r="M5">
-        <v>1.041426810974706</v>
+        <v>1.022849431656493</v>
       </c>
       <c r="N5">
-        <v>1.03305027295925</v>
+        <v>1.023462259632138</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027150774691877</v>
+        <v>1.003332838112241</v>
       </c>
       <c r="D6">
-        <v>1.03718521842363</v>
+        <v>1.036032555115563</v>
       </c>
       <c r="E6">
-        <v>1.027241750013136</v>
+        <v>1.008733409683049</v>
       </c>
       <c r="F6">
-        <v>1.039054788836144</v>
+        <v>1.013354212203345</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035720042552591</v>
+        <v>1.046075045807234</v>
       </c>
       <c r="J6">
-        <v>1.031610839907488</v>
+        <v>1.022122676471052</v>
       </c>
       <c r="K6">
-        <v>1.039605783779911</v>
+        <v>1.045464547345549</v>
       </c>
       <c r="L6">
-        <v>1.02968701441443</v>
+        <v>1.018468306859784</v>
       </c>
       <c r="M6">
-        <v>1.041470767075707</v>
+        <v>1.023036423865799</v>
       </c>
       <c r="N6">
-        <v>1.033075845627574</v>
+        <v>1.023574207910751</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026861454467945</v>
+        <v>1.002004682393432</v>
       </c>
       <c r="D7">
-        <v>1.037014464187954</v>
+        <v>1.035246700993322</v>
       </c>
       <c r="E7">
-        <v>1.026996023501822</v>
+        <v>1.007673005203645</v>
       </c>
       <c r="F7">
-        <v>1.038692039508065</v>
+        <v>1.011790899553251</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035660636246901</v>
+        <v>1.045729153776543</v>
       </c>
       <c r="J7">
-        <v>1.031435230044331</v>
+        <v>1.021351174863194</v>
       </c>
       <c r="K7">
-        <v>1.039495175786645</v>
+        <v>1.044934690710807</v>
       </c>
       <c r="L7">
-        <v>1.029502275850979</v>
+        <v>1.017676726917222</v>
       </c>
       <c r="M7">
-        <v>1.04116852622831</v>
+        <v>1.021746117181008</v>
       </c>
       <c r="N7">
-        <v>1.032899986378268</v>
+        <v>1.022801610682117</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025652965548273</v>
+        <v>0.9963395466721366</v>
       </c>
       <c r="D8">
-        <v>1.036301059297478</v>
+        <v>1.031901109841797</v>
       </c>
       <c r="E8">
-        <v>1.025970400577292</v>
+        <v>1.00316221312328</v>
       </c>
       <c r="F8">
-        <v>1.037177218137879</v>
+        <v>1.005126063989919</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035410199043222</v>
+        <v>1.044235337635062</v>
       </c>
       <c r="J8">
-        <v>1.030700798013791</v>
+        <v>1.018054466372712</v>
       </c>
       <c r="K8">
-        <v>1.039031735883882</v>
+        <v>1.042665626425264</v>
       </c>
       <c r="L8">
-        <v>1.028730242308725</v>
+        <v>1.014299519926836</v>
       </c>
       <c r="M8">
-        <v>1.039905450168608</v>
+        <v>1.016237044319327</v>
       </c>
       <c r="N8">
-        <v>1.032164511370004</v>
+        <v>1.019500220487441</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023526607468274</v>
+        <v>0.9858944810111584</v>
       </c>
       <c r="D9">
-        <v>1.03504526153456</v>
+        <v>1.025763318519854</v>
       </c>
       <c r="E9">
-        <v>1.02416875765437</v>
+        <v>0.9948956199289113</v>
       </c>
       <c r="F9">
-        <v>1.034513243100008</v>
+        <v>0.9928478624077555</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034960908211235</v>
+        <v>1.041413138152711</v>
       </c>
       <c r="J9">
-        <v>1.029405134608417</v>
+        <v>1.011955366669122</v>
       </c>
       <c r="K9">
-        <v>1.038210956940572</v>
+        <v>1.038451788993088</v>
       </c>
       <c r="L9">
-        <v>1.027370419736124</v>
+        <v>1.00807205858975</v>
       </c>
       <c r="M9">
-        <v>1.037680678509825</v>
+        <v>1.006058053754734</v>
       </c>
       <c r="N9">
-        <v>1.030867007973981</v>
+        <v>1.013392459362695</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022111202979481</v>
+        <v>0.9785856097267318</v>
       </c>
       <c r="D10">
-        <v>1.034209041852925</v>
+        <v>1.021495234808886</v>
       </c>
       <c r="E10">
-        <v>1.02297152314542</v>
+        <v>0.9891481963168988</v>
       </c>
       <c r="F10">
-        <v>1.032740854699541</v>
+        <v>0.9842601947001326</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034656041408472</v>
+        <v>1.039394999128219</v>
       </c>
       <c r="J10">
-        <v>1.02854039519251</v>
+        <v>1.007675392981007</v>
       </c>
       <c r="K10">
-        <v>1.037661051537309</v>
+        <v>1.035486937023158</v>
       </c>
       <c r="L10">
-        <v>1.026464326018784</v>
+        <v>1.0037161872077</v>
       </c>
       <c r="M10">
-        <v>1.036198138373625</v>
+        <v>0.9989195728731299</v>
       </c>
       <c r="N10">
-        <v>1.030001040528916</v>
+        <v>1.009106407621023</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021498840779987</v>
+        <v>0.9753304328993623</v>
       </c>
       <c r="D11">
-        <v>1.033847201918378</v>
+        <v>1.019602125912968</v>
       </c>
       <c r="E11">
-        <v>1.02245403797543</v>
+        <v>0.9865979823743192</v>
       </c>
       <c r="F11">
-        <v>1.031974244619712</v>
+        <v>0.9804356990576961</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034522770742796</v>
+        <v>1.038486521660495</v>
       </c>
       <c r="J11">
-        <v>1.028165734061803</v>
+        <v>1.005766767057238</v>
       </c>
       <c r="K11">
-        <v>1.03742230464495</v>
+        <v>1.034163606551419</v>
       </c>
       <c r="L11">
-        <v>1.026072095953978</v>
+        <v>1.001777145516684</v>
       </c>
       <c r="M11">
-        <v>1.035556336762173</v>
+        <v>0.995736247514046</v>
       </c>
       <c r="N11">
-        <v>1.029625847336429</v>
+        <v>1.007195071229519</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02127146061091</v>
+        <v>0.9741069595493801</v>
       </c>
       <c r="D12">
-        <v>1.033712837453733</v>
+        <v>1.018891888373554</v>
       </c>
       <c r="E12">
-        <v>1.022261961128385</v>
+        <v>0.9856409717764694</v>
       </c>
       <c r="F12">
-        <v>1.03168961854747</v>
+        <v>0.9789982121495151</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034473079079149</v>
+        <v>1.038143671312737</v>
       </c>
       <c r="J12">
-        <v>1.028026535394797</v>
+        <v>1.005049074158509</v>
       </c>
       <c r="K12">
-        <v>1.03733352918472</v>
+        <v>1.0336658841758</v>
       </c>
       <c r="L12">
-        <v>1.025926422274124</v>
+        <v>1.001048537296872</v>
       </c>
       <c r="M12">
-        <v>1.035317965425566</v>
+        <v>0.9945391458486409</v>
       </c>
       <c r="N12">
-        <v>1.02948645099135</v>
+        <v>1.006476359124554</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021320230869193</v>
+        <v>0.9743700614472486</v>
       </c>
       <c r="D13">
-        <v>1.033741657296615</v>
+        <v>1.019044560779407</v>
       </c>
       <c r="E13">
-        <v>1.022303155901535</v>
+        <v>0.9858467033382152</v>
       </c>
       <c r="F13">
-        <v>1.031750666057465</v>
+        <v>0.9793073391869875</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034483746654566</v>
+        <v>1.038217461695533</v>
       </c>
       <c r="J13">
-        <v>1.028056395456269</v>
+        <v>1.005203424590091</v>
       </c>
       <c r="K13">
-        <v>1.037352576069745</v>
+        <v>1.033772930934592</v>
       </c>
       <c r="L13">
-        <v>1.025957668943738</v>
+        <v>1.001205211545507</v>
       </c>
       <c r="M13">
-        <v>1.035369095872781</v>
+        <v>0.9947966057662395</v>
       </c>
       <c r="N13">
-        <v>1.029516353457534</v>
+        <v>1.006630928751453</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02148004386052</v>
+        <v>0.9752295977507697</v>
       </c>
       <c r="D14">
-        <v>1.033836094504847</v>
+        <v>1.019543563082476</v>
       </c>
       <c r="E14">
-        <v>1.022438157976792</v>
+        <v>0.9865190774521289</v>
       </c>
       <c r="F14">
-        <v>1.031950714748244</v>
+        <v>0.9803172265864034</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034518667067141</v>
+        <v>1.038458292946784</v>
       </c>
       <c r="J14">
-        <v>1.028154228522461</v>
+        <v>1.005707623288226</v>
       </c>
       <c r="K14">
-        <v>1.037414968353994</v>
+        <v>1.034122592148024</v>
       </c>
       <c r="L14">
-        <v>1.026060054149552</v>
+        <v>1.001717091592598</v>
       </c>
       <c r="M14">
-        <v>1.035536632456343</v>
+        <v>0.9956375988996633</v>
       </c>
       <c r="N14">
-        <v>1.029614325457901</v>
+        <v>1.007135843469573</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021578520331066</v>
+        <v>0.9757572599936205</v>
       </c>
       <c r="D15">
-        <v>1.033894285602008</v>
+        <v>1.019850071280126</v>
       </c>
       <c r="E15">
-        <v>1.022521355822122</v>
+        <v>0.9869320420887467</v>
       </c>
       <c r="F15">
-        <v>1.032073988183067</v>
+        <v>0.9809371817959381</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034540157655762</v>
+        <v>1.038605955021919</v>
       </c>
       <c r="J15">
-        <v>1.02821450237263</v>
+        <v>1.006017104798925</v>
       </c>
       <c r="K15">
-        <v>1.03745339784397</v>
+        <v>1.034337203804242</v>
       </c>
       <c r="L15">
-        <v>1.026123139467973</v>
+        <v>1.00203135697446</v>
       </c>
       <c r="M15">
-        <v>1.035639860241093</v>
+        <v>0.9961537931703569</v>
       </c>
       <c r="N15">
-        <v>1.029674684903851</v>
+        <v>1.007445764479514</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022151854400231</v>
+        <v>0.9787996757626515</v>
       </c>
       <c r="D16">
-        <v>1.034233061357134</v>
+        <v>1.0216199016292</v>
       </c>
       <c r="E16">
-        <v>1.02300588652655</v>
+        <v>0.989316106972961</v>
       </c>
       <c r="F16">
-        <v>1.032791749903281</v>
+        <v>0.9845116993201837</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034664859611192</v>
+        <v>1.039454545709108</v>
       </c>
       <c r="J16">
-        <v>1.028565255573842</v>
+        <v>1.007800859990348</v>
       </c>
       <c r="K16">
-        <v>1.037676883109637</v>
+        <v>1.03557390917749</v>
       </c>
       <c r="L16">
-        <v>1.026490359519407</v>
+        <v>1.003843725611862</v>
       </c>
       <c r="M16">
-        <v>1.036240735761813</v>
+        <v>0.9991288274809456</v>
       </c>
       <c r="N16">
-        <v>1.030025936214841</v>
+        <v>1.009232052807909</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02251163069997</v>
+        <v>0.9806833730256221</v>
       </c>
       <c r="D17">
-        <v>1.034445634178007</v>
+        <v>1.022717821463372</v>
       </c>
       <c r="E17">
-        <v>1.023310068387452</v>
+        <v>0.9907947480543562</v>
       </c>
       <c r="F17">
-        <v>1.033242209289984</v>
+        <v>0.9867248593995924</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034742744509515</v>
+        <v>1.039977440263163</v>
       </c>
       <c r="J17">
-        <v>1.028785214512196</v>
+        <v>1.008904647537386</v>
       </c>
       <c r="K17">
-        <v>1.037816900455159</v>
+        <v>1.036338914415899</v>
       </c>
       <c r="L17">
-        <v>1.026720738194255</v>
+        <v>1.00496612701181</v>
       </c>
       <c r="M17">
-        <v>1.036617688818145</v>
+        <v>1.000969723660518</v>
       </c>
       <c r="N17">
-        <v>1.030246207520117</v>
+        <v>1.010337407859869</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022721531991886</v>
+        <v>0.9817734360041369</v>
       </c>
       <c r="D18">
-        <v>1.034569648195295</v>
+        <v>1.023353898324454</v>
       </c>
       <c r="E18">
-        <v>1.023487581717288</v>
+        <v>0.991651312178037</v>
       </c>
       <c r="F18">
-        <v>1.033505036237299</v>
+        <v>0.9880056025749673</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034788051719804</v>
+        <v>1.040279110807925</v>
       </c>
       <c r="J18">
-        <v>1.028913491251406</v>
+        <v>1.009543156144128</v>
       </c>
       <c r="K18">
-        <v>1.037898508940144</v>
+        <v>1.036781331982774</v>
       </c>
       <c r="L18">
-        <v>1.026855125169028</v>
+        <v>1.005615727944629</v>
       </c>
       <c r="M18">
-        <v>1.036837573435086</v>
+        <v>1.002034637453793</v>
       </c>
       <c r="N18">
-        <v>1.03037466642701</v>
+        <v>1.010976823222071</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022793111344488</v>
+        <v>0.9821436721034608</v>
       </c>
       <c r="D19">
-        <v>1.034611937772328</v>
+        <v>1.023570059695442</v>
       </c>
       <c r="E19">
-        <v>1.023548124268977</v>
+        <v>0.991942391962955</v>
       </c>
       <c r="F19">
-        <v>1.033594667277338</v>
+        <v>0.988440608793462</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03480347964454</v>
+        <v>1.040381414579552</v>
       </c>
       <c r="J19">
-        <v>1.02895722662149</v>
+        <v>1.009759982504518</v>
       </c>
       <c r="K19">
-        <v>1.037926324901173</v>
+        <v>1.036931547904244</v>
       </c>
       <c r="L19">
-        <v>1.026900949493679</v>
+        <v>1.005836375971286</v>
       </c>
       <c r="M19">
-        <v>1.036912550825297</v>
+        <v>1.002396267882606</v>
       </c>
       <c r="N19">
-        <v>1.030418463906335</v>
+        <v>1.011193957500763</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022473024945197</v>
+        <v>0.9804821719073192</v>
       </c>
       <c r="D20">
-        <v>1.034422824643521</v>
+        <v>1.022600474066484</v>
       </c>
       <c r="E20">
-        <v>1.023277423317982</v>
+        <v>0.9906367178677181</v>
       </c>
       <c r="F20">
-        <v>1.033193870819856</v>
+        <v>0.9864884655397291</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034734400784865</v>
+        <v>1.039921683958397</v>
       </c>
       <c r="J20">
-        <v>1.02876161722765</v>
+        <v>1.008786774003869</v>
       </c>
       <c r="K20">
-        <v>1.037801884248295</v>
+        <v>1.036257231019682</v>
       </c>
       <c r="L20">
-        <v>1.026696019599816</v>
+        <v>1.004846231961116</v>
       </c>
       <c r="M20">
-        <v>1.036577243845017</v>
+        <v>1.00077313391441</v>
       </c>
       <c r="N20">
-        <v>1.03022257672472</v>
+        <v>1.010219366932414</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021432980747458</v>
+        <v>0.9749768885384891</v>
       </c>
       <c r="D21">
-        <v>1.033808284011191</v>
+        <v>1.01939681646815</v>
       </c>
       <c r="E21">
-        <v>1.022398399351218</v>
+        <v>0.9863213533203045</v>
       </c>
       <c r="F21">
-        <v>1.031891801888014</v>
+        <v>0.98002031463065</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03450838908947</v>
+        <v>1.038387524941734</v>
       </c>
       <c r="J21">
-        <v>1.028125420023841</v>
+        <v>1.005559394295476</v>
       </c>
       <c r="K21">
-        <v>1.037396597974269</v>
+        <v>1.03401979820015</v>
       </c>
       <c r="L21">
-        <v>1.026029903753944</v>
+        <v>1.001566589952296</v>
       </c>
       <c r="M21">
-        <v>1.035487296490078</v>
+        <v>0.9953903591838972</v>
       </c>
       <c r="N21">
-        <v>1.029585476047909</v>
+        <v>1.00698740397465</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020779517729312</v>
+        <v>0.9714320139572338</v>
       </c>
       <c r="D22">
-        <v>1.033422124358856</v>
+        <v>1.017341586776385</v>
       </c>
       <c r="E22">
-        <v>1.021846533749329</v>
+        <v>0.9835514412598598</v>
       </c>
       <c r="F22">
-        <v>1.031073874505032</v>
+        <v>0.9758552199707021</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034365193290464</v>
+        <v>1.037391577044268</v>
       </c>
       <c r="J22">
-        <v>1.027725227929362</v>
+        <v>1.003479387353377</v>
       </c>
       <c r="K22">
-        <v>1.037141233716449</v>
+        <v>1.032577157461443</v>
       </c>
       <c r="L22">
-        <v>1.025611195011554</v>
+        <v>0.9994559446390617</v>
       </c>
       <c r="M22">
-        <v>1.034802132746414</v>
+        <v>0.9919206590766333</v>
       </c>
       <c r="N22">
-        <v>1.029184715634753</v>
+        <v>1.004904443184113</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021125887565419</v>
+        <v>0.9733194066133516</v>
       </c>
       <c r="D23">
-        <v>1.033626812889909</v>
+        <v>1.01843508828722</v>
       </c>
       <c r="E23">
-        <v>1.022139010819177</v>
+        <v>0.9850253726495206</v>
       </c>
       <c r="F23">
-        <v>1.031507403620856</v>
+        <v>0.9780728802813987</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034441207556943</v>
+        <v>1.037922591711894</v>
       </c>
       <c r="J23">
-        <v>1.027937395074068</v>
+        <v>1.004587006344891</v>
       </c>
       <c r="K23">
-        <v>1.037276658421386</v>
+        <v>1.033345413811468</v>
       </c>
       <c r="L23">
-        <v>1.025833150234327</v>
+        <v>1.000579589835636</v>
       </c>
       <c r="M23">
-        <v>1.035165338703413</v>
+        <v>0.9937683860657633</v>
       </c>
       <c r="N23">
-        <v>1.02939718408114</v>
+        <v>1.006013635121642</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022490469069959</v>
+        <v>0.980573112755223</v>
       </c>
       <c r="D24">
-        <v>1.034433131216723</v>
+        <v>1.022653511636999</v>
       </c>
       <c r="E24">
-        <v>1.023292173944193</v>
+        <v>0.9907081431100244</v>
       </c>
       <c r="F24">
-        <v>1.033215712641498</v>
+        <v>0.9865953130620777</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03473817133106</v>
+        <v>1.03994688809307</v>
       </c>
       <c r="J24">
-        <v>1.028772279891548</v>
+        <v>1.008840052364517</v>
       </c>
       <c r="K24">
-        <v>1.037808669615225</v>
+        <v>1.036294151947156</v>
       </c>
       <c r="L24">
-        <v>1.026707188834746</v>
+        <v>1.004900423032725</v>
       </c>
       <c r="M24">
-        <v>1.036595519143215</v>
+        <v>1.000861991648321</v>
       </c>
       <c r="N24">
-        <v>1.030233254530824</v>
+        <v>1.010272720954446</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024075943416604</v>
+        <v>0.9886529976115955</v>
       </c>
       <c r="D25">
-        <v>1.035369749854091</v>
+        <v>1.027380126481459</v>
       </c>
       <c r="E25">
-        <v>1.024633850289389</v>
+        <v>0.9970726512839864</v>
       </c>
       <c r="F25">
-        <v>1.035201311535023</v>
+        <v>0.9960896102096591</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03507800410292</v>
+        <v>1.042166138115382</v>
       </c>
       <c r="J25">
-        <v>1.029740267826428</v>
+        <v>1.013568362257383</v>
       </c>
       <c r="K25">
-        <v>1.038423631905797</v>
+        <v>1.03956776600066</v>
       </c>
       <c r="L25">
-        <v>1.027721890122163</v>
+        <v>1.009716581183109</v>
       </c>
       <c r="M25">
-        <v>1.038255723515735</v>
+        <v>1.008748934768771</v>
       </c>
       <c r="N25">
-        <v>1.031202617119601</v>
+        <v>1.015007745589705</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9948509244969423</v>
+        <v>0.982443675679601</v>
       </c>
       <c r="D2">
-        <v>1.031023823324066</v>
+        <v>1.035712547953849</v>
       </c>
       <c r="E2">
-        <v>1.001980149727209</v>
+        <v>1.001064508380054</v>
       </c>
       <c r="F2">
-        <v>1.003375516858939</v>
+        <v>1.01255977898438</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043838189833487</v>
+        <v>1.049337402236512</v>
       </c>
       <c r="J2">
-        <v>1.01718674186184</v>
+        <v>1.005162480544678</v>
       </c>
       <c r="K2">
-        <v>1.042067226189098</v>
+        <v>1.04669579886789</v>
       </c>
       <c r="L2">
-        <v>1.013411966680706</v>
+        <v>1.012509032805683</v>
       </c>
       <c r="M2">
-        <v>1.014788024833833</v>
+        <v>1.023846865917091</v>
       </c>
       <c r="N2">
-        <v>1.018631263708229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005282443235366</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.027445464688568</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044088245069363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9992196999756646</v>
+        <v>0.9867577525584021</v>
       </c>
       <c r="D3">
-        <v>1.033600669902627</v>
+        <v>1.037067054470458</v>
       </c>
       <c r="E3">
-        <v>1.00545303872641</v>
+        <v>1.00447869972766</v>
       </c>
       <c r="F3">
-        <v>1.008513837528706</v>
+        <v>1.015853764933327</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044998399904547</v>
+        <v>1.049487680647808</v>
       </c>
       <c r="J3">
-        <v>1.019731659382847</v>
+        <v>1.007616041777431</v>
       </c>
       <c r="K3">
-        <v>1.043820943434158</v>
+        <v>1.047246644725429</v>
       </c>
       <c r="L3">
-        <v>1.016016619153826</v>
+        <v>1.015054593709363</v>
       </c>
       <c r="M3">
-        <v>1.019038929002065</v>
+        <v>1.026287734243848</v>
       </c>
       <c r="N3">
-        <v>1.021179795304027</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.006161375679397</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.029377281441808</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.044475084162921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00198925022116</v>
+        <v>0.9894953505484556</v>
       </c>
       <c r="D4">
-        <v>1.035237573161485</v>
+        <v>1.037931855449037</v>
       </c>
       <c r="E4">
-        <v>1.007660690615064</v>
+        <v>1.006651777770502</v>
       </c>
       <c r="F4">
-        <v>1.011772736962713</v>
+        <v>1.017953155787109</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045725124656748</v>
+        <v>1.049572111496014</v>
       </c>
       <c r="J4">
-        <v>1.021342207292837</v>
+        <v>1.009171637592022</v>
       </c>
       <c r="K4">
-        <v>1.044928529106846</v>
+        <v>1.047593055951435</v>
       </c>
       <c r="L4">
-        <v>1.017667528824649</v>
+        <v>1.016670579186148</v>
       </c>
       <c r="M4">
-        <v>1.021731121914704</v>
+        <v>1.027839625171543</v>
       </c>
       <c r="N4">
-        <v>1.022792630376782</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.006717588571084</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.030605517315504</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044720909765007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003140329495043</v>
+        <v>0.9906337808742791</v>
       </c>
       <c r="D5">
-        <v>1.035918616587533</v>
+        <v>1.03829759670333</v>
       </c>
       <c r="E5">
-        <v>1.008579641177278</v>
+        <v>1.007556967820503</v>
       </c>
       <c r="F5">
-        <v>1.013127598189272</v>
+        <v>1.018828322145197</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046025018409141</v>
+        <v>1.049605985669269</v>
       </c>
       <c r="J5">
-        <v>1.022010886946387</v>
+        <v>1.009818170123907</v>
       </c>
       <c r="K5">
-        <v>1.045387801871625</v>
+        <v>1.047741193554237</v>
       </c>
       <c r="L5">
-        <v>1.018353577673615</v>
+        <v>1.017342700444569</v>
       </c>
       <c r="M5">
-        <v>1.022849431656493</v>
+        <v>1.028485655345561</v>
       </c>
       <c r="N5">
-        <v>1.023462259632138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.006948499797658</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.031116813842431</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044832776710201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003332838112241</v>
+        <v>0.9908242105352414</v>
       </c>
       <c r="D6">
-        <v>1.036032555115563</v>
+        <v>1.038364854199821</v>
       </c>
       <c r="E6">
-        <v>1.008733409683049</v>
+        <v>1.007708470137861</v>
       </c>
       <c r="F6">
-        <v>1.013354212203345</v>
+        <v>1.018974838599603</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046075045807234</v>
+        <v>1.049613236967681</v>
       </c>
       <c r="J6">
-        <v>1.022122676471052</v>
+        <v>1.009926295884084</v>
       </c>
       <c r="K6">
-        <v>1.045464547345549</v>
+        <v>1.047771872553018</v>
       </c>
       <c r="L6">
-        <v>1.018468306859784</v>
+        <v>1.017455134312104</v>
       </c>
       <c r="M6">
-        <v>1.023036423865799</v>
+        <v>1.028593757960977</v>
       </c>
       <c r="N6">
-        <v>1.023574207910751</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.006987101668072</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.0312023709423</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044863157169408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002004682393432</v>
+        <v>0.9895106106756525</v>
       </c>
       <c r="D7">
-        <v>1.035246700993322</v>
+        <v>1.037952736353756</v>
       </c>
       <c r="E7">
-        <v>1.007673005203645</v>
+        <v>1.006663905500218</v>
       </c>
       <c r="F7">
-        <v>1.011790899553251</v>
+        <v>1.017964878621596</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045729153776543</v>
+        <v>1.049577143280328</v>
       </c>
       <c r="J7">
-        <v>1.021351174863194</v>
+        <v>1.009180305532678</v>
       </c>
       <c r="K7">
-        <v>1.044934690710807</v>
+        <v>1.047610851837878</v>
       </c>
       <c r="L7">
-        <v>1.017676726917222</v>
+        <v>1.016679588261295</v>
       </c>
       <c r="M7">
-        <v>1.021746117181008</v>
+        <v>1.027848282284381</v>
       </c>
       <c r="N7">
-        <v>1.022801610682117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.006720685396765</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.030612368935614</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044753470748898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9963395466721366</v>
+        <v>0.9839130744127353</v>
       </c>
       <c r="D8">
-        <v>1.031901109841797</v>
+        <v>1.036191905895273</v>
       </c>
       <c r="E8">
-        <v>1.00316221312328</v>
+        <v>1.002226003122952</v>
       </c>
       <c r="F8">
-        <v>1.005126063989919</v>
+        <v>1.01367978621707</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044235337635062</v>
+        <v>1.049396007884478</v>
       </c>
       <c r="J8">
-        <v>1.018054466372712</v>
+        <v>1.005998443109332</v>
       </c>
       <c r="K8">
-        <v>1.042665626425264</v>
+        <v>1.046902974072363</v>
       </c>
       <c r="L8">
-        <v>1.014299519926836</v>
+        <v>1.013375905974746</v>
       </c>
       <c r="M8">
-        <v>1.016237044319327</v>
+        <v>1.024677590376612</v>
       </c>
       <c r="N8">
-        <v>1.019500220487441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.005582120514174</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.028102939282428</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044257468988285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9858944810111584</v>
+        <v>0.973615478840802</v>
       </c>
       <c r="D9">
-        <v>1.025763318519854</v>
+        <v>1.032974464665604</v>
       </c>
       <c r="E9">
-        <v>0.9948956199289113</v>
+        <v>0.9941159893716013</v>
       </c>
       <c r="F9">
-        <v>0.9928478624077555</v>
+        <v>1.005871624346686</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041413138152711</v>
+        <v>1.048972022628652</v>
       </c>
       <c r="J9">
-        <v>1.011955366669122</v>
+        <v>1.000135625505606</v>
       </c>
       <c r="K9">
-        <v>1.038451788993088</v>
+        <v>1.045554285442305</v>
       </c>
       <c r="L9">
-        <v>1.00807205858975</v>
+        <v>1.007305257404069</v>
       </c>
       <c r="M9">
-        <v>1.006058053754734</v>
+        <v>1.018870151469942</v>
       </c>
       <c r="N9">
-        <v>1.013392459362695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.003476393975341</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.023506644467297</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043300737566056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9785856097267318</v>
+        <v>0.9665414099769383</v>
       </c>
       <c r="D10">
-        <v>1.021495234808886</v>
+        <v>1.030771624519167</v>
       </c>
       <c r="E10">
-        <v>0.9891481963168988</v>
+        <v>0.9886303028925049</v>
       </c>
       <c r="F10">
-        <v>0.9842601947001326</v>
+        <v>1.000655595339066</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039394999128219</v>
+        <v>1.048623684632349</v>
       </c>
       <c r="J10">
-        <v>1.007675392981007</v>
+        <v>0.9961484161322225</v>
       </c>
       <c r="K10">
-        <v>1.035486937023158</v>
+        <v>1.044606659347698</v>
       </c>
       <c r="L10">
-        <v>1.0037161872077</v>
+        <v>1.003207920612115</v>
       </c>
       <c r="M10">
-        <v>0.9989195728731299</v>
+        <v>1.015013022889952</v>
       </c>
       <c r="N10">
-        <v>1.009106407621023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.002046068162552</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.020506489779928</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.04264738644989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9753304328993623</v>
+        <v>0.964338613722688</v>
       </c>
       <c r="D11">
-        <v>1.019602125912968</v>
+        <v>1.029819229223579</v>
       </c>
       <c r="E11">
-        <v>0.9865979823743192</v>
+        <v>0.9873060770302334</v>
       </c>
       <c r="F11">
-        <v>0.9804356990576961</v>
+        <v>0.9997983913454157</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038486521660495</v>
+        <v>1.048460176555388</v>
       </c>
       <c r="J11">
-        <v>1.005766767057238</v>
+        <v>0.9952740649532945</v>
       </c>
       <c r="K11">
-        <v>1.034163606551419</v>
+        <v>1.044199887574685</v>
       </c>
       <c r="L11">
-        <v>1.001777145516684</v>
+        <v>1.002471419347515</v>
       </c>
       <c r="M11">
-        <v>0.995736247514046</v>
+        <v>1.014724110712069</v>
       </c>
       <c r="N11">
-        <v>1.007195071229519</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00178862685202</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.020723180018376</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042392311289767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9741069595493801</v>
+        <v>0.9638898528521271</v>
       </c>
       <c r="D12">
-        <v>1.018891888373554</v>
+        <v>1.029453713433801</v>
       </c>
       <c r="E12">
-        <v>0.9856409717764694</v>
+        <v>0.987242268809127</v>
       </c>
       <c r="F12">
-        <v>0.9789982121495151</v>
+        <v>1.00002425465805</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038143671312737</v>
+        <v>1.048395032061213</v>
       </c>
       <c r="J12">
-        <v>1.005049074158509</v>
+        <v>0.9953051770943961</v>
       </c>
       <c r="K12">
-        <v>1.0336658841758</v>
+        <v>1.044037575519721</v>
       </c>
       <c r="L12">
-        <v>1.001048537296872</v>
+        <v>1.002618037472157</v>
       </c>
       <c r="M12">
-        <v>0.9945391458486409</v>
+        <v>1.015150990001665</v>
       </c>
       <c r="N12">
-        <v>1.006476359124554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.001849283632902</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.021393222710459</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042277553525375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9743700614472486</v>
+        <v>0.9647587465897118</v>
       </c>
       <c r="D13">
-        <v>1.019044560779407</v>
+        <v>1.029530397618539</v>
       </c>
       <c r="E13">
-        <v>0.9858467033382152</v>
+        <v>0.9881428146525584</v>
       </c>
       <c r="F13">
-        <v>0.9793073391869875</v>
+        <v>1.001109294242273</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038217461695533</v>
+        <v>1.048408748996192</v>
       </c>
       <c r="J13">
-        <v>1.005203424590091</v>
+        <v>0.9960348735542638</v>
       </c>
       <c r="K13">
-        <v>1.033772930934592</v>
+        <v>1.044070686826146</v>
       </c>
       <c r="L13">
-        <v>1.001205211545507</v>
+        <v>1.003455949817795</v>
       </c>
       <c r="M13">
-        <v>0.9947966057662395</v>
+        <v>1.016171310145546</v>
       </c>
       <c r="N13">
-        <v>1.006630928751453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.002158058504274</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.022480964801716</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042298495319382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9752295977507697</v>
+        <v>0.9659570393589041</v>
       </c>
       <c r="D14">
-        <v>1.019543563082476</v>
+        <v>1.029788280008105</v>
       </c>
       <c r="E14">
-        <v>0.9865190774521289</v>
+        <v>0.9892023537758798</v>
       </c>
       <c r="F14">
-        <v>0.9803172265864034</v>
+        <v>1.002250604653396</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038458292946784</v>
+        <v>1.048454682153709</v>
       </c>
       <c r="J14">
-        <v>1.005707623288226</v>
+        <v>0.9968557678571472</v>
       </c>
       <c r="K14">
-        <v>1.034122592148024</v>
+        <v>1.044185741164019</v>
       </c>
       <c r="L14">
-        <v>1.001717091592598</v>
+        <v>1.00434805212245</v>
       </c>
       <c r="M14">
-        <v>0.9956375988996633</v>
+        <v>1.017147115633187</v>
       </c>
       <c r="N14">
-        <v>1.007135843469573</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00248416413275</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.023427892250999</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042381251826715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9757572599936205</v>
+        <v>0.9665396320925538</v>
       </c>
       <c r="D15">
-        <v>1.019850071280126</v>
+        <v>1.029950514496379</v>
       </c>
       <c r="E15">
-        <v>0.9869320420887467</v>
+        <v>0.9896793291144856</v>
       </c>
       <c r="F15">
-        <v>0.9809371817959381</v>
+        <v>1.002733164484664</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038605955021919</v>
+        <v>1.048483410644902</v>
       </c>
       <c r="J15">
-        <v>1.006017104798925</v>
+        <v>0.9972138578776103</v>
       </c>
       <c r="K15">
-        <v>1.034337203804242</v>
+        <v>1.044259961764017</v>
       </c>
       <c r="L15">
-        <v>1.00203135697446</v>
+        <v>1.004725511998099</v>
       </c>
       <c r="M15">
-        <v>0.9961537931703569</v>
+        <v>1.017532078652167</v>
       </c>
       <c r="N15">
-        <v>1.007445764479514</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.002619441093667</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.023770132787405</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042439543227685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9787996757626515</v>
+        <v>0.9693547404443953</v>
       </c>
       <c r="D16">
-        <v>1.0216199016292</v>
+        <v>1.03086657889601</v>
       </c>
       <c r="E16">
-        <v>0.989316106972961</v>
+        <v>0.991820305933608</v>
       </c>
       <c r="F16">
-        <v>0.9845116993201837</v>
+        <v>1.004756848445073</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039454545709108</v>
+        <v>1.048641046745407</v>
       </c>
       <c r="J16">
-        <v>1.007800859990348</v>
+        <v>0.9987584158868716</v>
       </c>
       <c r="K16">
-        <v>1.03557390917749</v>
+        <v>1.044664919573699</v>
       </c>
       <c r="L16">
-        <v>1.003843725611862</v>
+        <v>1.00630171746749</v>
       </c>
       <c r="M16">
-        <v>0.9991288274809456</v>
+        <v>1.019004317476654</v>
       </c>
       <c r="N16">
-        <v>1.009232052807909</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.003163286687631</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.024894605698953</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042729002092301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9806833730256221</v>
+        <v>0.9708889826706089</v>
       </c>
       <c r="D17">
-        <v>1.022717821463372</v>
+        <v>1.0314369962365</v>
       </c>
       <c r="E17">
-        <v>0.9907947480543562</v>
+        <v>0.9929099928177801</v>
       </c>
       <c r="F17">
-        <v>0.9867248593995924</v>
+        <v>1.005707855188475</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039977440263163</v>
+        <v>1.048735667631504</v>
       </c>
       <c r="J17">
-        <v>1.008904647537386</v>
+        <v>0.9995137216117084</v>
       </c>
       <c r="K17">
-        <v>1.036338914415899</v>
+        <v>1.044915393702988</v>
       </c>
       <c r="L17">
-        <v>1.00496612701181</v>
+        <v>1.007043488149307</v>
       </c>
       <c r="M17">
-        <v>1.000969723660518</v>
+        <v>1.019616539751049</v>
       </c>
       <c r="N17">
-        <v>1.010337407859869</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00340957157534</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.025247898884325</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.0429086635717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9817734360041369</v>
+        <v>0.971448866607531</v>
       </c>
       <c r="D18">
-        <v>1.023353898324454</v>
+        <v>1.031758202652127</v>
       </c>
       <c r="E18">
-        <v>0.991651312178037</v>
+        <v>0.9931611960251236</v>
       </c>
       <c r="F18">
-        <v>0.9880056025749673</v>
+        <v>1.005762462935156</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040279110807925</v>
+        <v>1.048787130829848</v>
       </c>
       <c r="J18">
-        <v>1.009543156144128</v>
+        <v>0.9996356526285949</v>
       </c>
       <c r="K18">
-        <v>1.036781331982774</v>
+        <v>1.045050375521231</v>
       </c>
       <c r="L18">
-        <v>1.005615727944629</v>
+        <v>1.007099029603104</v>
       </c>
       <c r="M18">
-        <v>1.002034637453793</v>
+        <v>1.019482464612633</v>
       </c>
       <c r="N18">
-        <v>1.010976823222071</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.003414189836681</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.024900871816382</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042992565384677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9821436721034608</v>
+        <v>0.9711319135655189</v>
       </c>
       <c r="D19">
-        <v>1.023570059695442</v>
+        <v>1.031875197977585</v>
       </c>
       <c r="E19">
-        <v>0.991942391962955</v>
+        <v>0.9926524764975069</v>
       </c>
       <c r="F19">
-        <v>0.988440608793462</v>
+        <v>1.004996322794613</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040381414579552</v>
+        <v>1.048806112497042</v>
       </c>
       <c r="J19">
-        <v>1.009759982504518</v>
+        <v>0.9991903996662083</v>
       </c>
       <c r="K19">
-        <v>1.036931547904244</v>
+        <v>1.045103788708061</v>
       </c>
       <c r="L19">
-        <v>1.005836375971286</v>
+        <v>1.006534022898833</v>
       </c>
       <c r="M19">
-        <v>1.002396267882606</v>
+        <v>1.018665283265525</v>
       </c>
       <c r="N19">
-        <v>1.011193957500763</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.003207180784527</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.023923839282369</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043036666995797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9804821719073192</v>
+        <v>0.968380264455115</v>
       </c>
       <c r="D20">
-        <v>1.022600474066484</v>
+        <v>1.031375180286342</v>
       </c>
       <c r="E20">
-        <v>0.9906367178677181</v>
+        <v>0.9900552526581777</v>
       </c>
       <c r="F20">
-        <v>0.9864884655397291</v>
+        <v>1.002012029235278</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039921683958397</v>
+        <v>1.04872550805592</v>
       </c>
       <c r="J20">
-        <v>1.008786774003869</v>
+        <v>0.9971869431265707</v>
       </c>
       <c r="K20">
-        <v>1.036257231019682</v>
+        <v>1.044887892900419</v>
       </c>
       <c r="L20">
-        <v>1.004846231961116</v>
+        <v>1.004275251875069</v>
       </c>
       <c r="M20">
-        <v>1.00077313391441</v>
+        <v>1.01601959155856</v>
       </c>
       <c r="N20">
-        <v>1.010219366932414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.002419156617134</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.021292318441417</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.042887895673752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9749768885384891</v>
+        <v>0.9628831261710843</v>
       </c>
       <c r="D21">
-        <v>1.01939681646815</v>
+        <v>1.029722686715711</v>
       </c>
       <c r="E21">
-        <v>0.9863213533203045</v>
+        <v>0.9857357682904542</v>
       </c>
       <c r="F21">
-        <v>0.98002031463065</v>
+        <v>0.9978312429215028</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038387524941734</v>
+        <v>1.04844328541862</v>
       </c>
       <c r="J21">
-        <v>1.005559394295476</v>
+        <v>0.9940190477249833</v>
       </c>
       <c r="K21">
-        <v>1.03401979820015</v>
+        <v>1.044162016094864</v>
       </c>
       <c r="L21">
-        <v>1.001566589952296</v>
+        <v>1.000992515613279</v>
       </c>
       <c r="M21">
-        <v>0.9953903591838972</v>
+        <v>1.012853819889905</v>
       </c>
       <c r="N21">
-        <v>1.00698740397465</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.001271505648323</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.018744988729427</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042377859614901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9714320139572338</v>
+        <v>0.9594052511874149</v>
       </c>
       <c r="D22">
-        <v>1.017341586776385</v>
+        <v>1.028657052344519</v>
       </c>
       <c r="E22">
-        <v>0.9835514412598598</v>
+        <v>0.9830355660632423</v>
       </c>
       <c r="F22">
-        <v>0.9758552199707021</v>
+        <v>0.995246147842874</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037391577044268</v>
+        <v>1.048249397389832</v>
       </c>
       <c r="J22">
-        <v>1.003479387353377</v>
+        <v>0.9920366951023181</v>
       </c>
       <c r="K22">
-        <v>1.032577157461443</v>
+        <v>1.043681410035747</v>
       </c>
       <c r="L22">
-        <v>0.9994559446390617</v>
+        <v>0.998950752852556</v>
       </c>
       <c r="M22">
-        <v>0.9919206590766333</v>
+        <v>1.010912371398761</v>
       </c>
       <c r="N22">
-        <v>1.004904443184113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.000555618799109</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.017208412359255</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.042024679342392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9733194066133516</v>
+        <v>0.9612565499816459</v>
       </c>
       <c r="D23">
-        <v>1.01843508828722</v>
+        <v>1.029211037751435</v>
       </c>
       <c r="E23">
-        <v>0.9850253726495206</v>
+        <v>0.9844719700149462</v>
       </c>
       <c r="F23">
-        <v>0.9780728802813987</v>
+        <v>0.9966209903713983</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037922591711894</v>
+        <v>1.048351065841403</v>
       </c>
       <c r="J23">
-        <v>1.004587006344891</v>
+        <v>0.9930919001850419</v>
       </c>
       <c r="K23">
-        <v>1.033345413811468</v>
+        <v>1.043925265571843</v>
       </c>
       <c r="L23">
-        <v>1.000579589835636</v>
+        <v>1.00003733721271</v>
       </c>
       <c r="M23">
-        <v>0.9937683860657633</v>
+        <v>1.011945313361057</v>
       </c>
       <c r="N23">
-        <v>1.006013635121642</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.00093675139769</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.018025943742959</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042187559084175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.980573112755223</v>
+        <v>0.9683804343761255</v>
       </c>
       <c r="D24">
-        <v>1.022653511636999</v>
+        <v>1.031382160329544</v>
       </c>
       <c r="E24">
-        <v>0.9907081431100244</v>
+        <v>0.9900192137775922</v>
       </c>
       <c r="F24">
-        <v>0.9865953130620777</v>
+        <v>1.001937611402619</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03994688809307</v>
+        <v>1.048725542854911</v>
       </c>
       <c r="J24">
-        <v>1.008840052364517</v>
+        <v>0.9971524342499318</v>
       </c>
       <c r="K24">
-        <v>1.036294151947156</v>
+        <v>1.044879706486629</v>
       </c>
       <c r="L24">
-        <v>1.004900423032725</v>
+        <v>1.004223900002495</v>
       </c>
       <c r="M24">
-        <v>1.000861991648321</v>
+        <v>1.015930785641417</v>
       </c>
       <c r="N24">
-        <v>1.010272720954446</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.002401863267745</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.02118027289299</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.042854958004996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9886529976115955</v>
+        <v>0.9763322102617366</v>
       </c>
       <c r="D25">
-        <v>1.027380126481459</v>
+        <v>1.033840219357872</v>
       </c>
       <c r="E25">
-        <v>0.9970726512839864</v>
+        <v>0.996248900170136</v>
       </c>
       <c r="F25">
-        <v>0.9960896102096591</v>
+        <v>1.007922456626813</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042166138115382</v>
+        <v>1.049098967336484</v>
       </c>
       <c r="J25">
-        <v>1.013568362257383</v>
+        <v>1.001683213305742</v>
       </c>
       <c r="K25">
-        <v>1.03956776600066</v>
+        <v>1.04593497792716</v>
       </c>
       <c r="L25">
-        <v>1.009716581183109</v>
+        <v>1.008905727571803</v>
       </c>
       <c r="M25">
-        <v>1.008748934768771</v>
+        <v>1.020399019068846</v>
       </c>
       <c r="N25">
-        <v>1.015007745589705</v>
+        <v>1.004033084028311</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.024716669019879</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043598245509948</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,61 +424,76 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.982443675679601</v>
+        <v>0.9835858147894925</v>
       </c>
       <c r="D2">
-        <v>1.035712547953849</v>
+        <v>1.032825697323196</v>
       </c>
       <c r="E2">
-        <v>1.001064508380054</v>
+        <v>1.001980461325574</v>
       </c>
       <c r="F2">
-        <v>1.01255977898438</v>
+        <v>1.013299364949778</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049337402236512</v>
+        <v>1.048219700393996</v>
       </c>
       <c r="J2">
-        <v>1.005162480544678</v>
+        <v>1.006268805805741</v>
       </c>
       <c r="K2">
-        <v>1.04669579886789</v>
+        <v>1.04384590304531</v>
       </c>
       <c r="L2">
-        <v>1.012509032805683</v>
+        <v>1.01341227395973</v>
       </c>
       <c r="M2">
-        <v>1.023846865917091</v>
+        <v>1.024576476398266</v>
       </c>
       <c r="N2">
-        <v>1.005282443235366</v>
+        <v>1.008564610874816</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.027445464688568</v>
+        <v>1.028022912935321</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044088245069363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042081863518713</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023640680817493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9867577525584021</v>
+        <v>0.9878236809365253</v>
       </c>
       <c r="D3">
-        <v>1.037067054470458</v>
+        <v>1.034091256967294</v>
       </c>
       <c r="E3">
-        <v>1.00447869972766</v>
+        <v>1.005334465302534</v>
       </c>
       <c r="F3">
-        <v>1.015853764933327</v>
+        <v>1.016544343993616</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049487680647808</v>
+        <v>1.048324723569994</v>
       </c>
       <c r="J3">
-        <v>1.007616041777431</v>
+        <v>1.008651879780534</v>
       </c>
       <c r="K3">
-        <v>1.047246644725429</v>
+        <v>1.044305752204074</v>
       </c>
       <c r="L3">
-        <v>1.015054593709363</v>
+        <v>1.015899542651843</v>
       </c>
       <c r="M3">
-        <v>1.026287734243848</v>
+        <v>1.026969824309749</v>
       </c>
       <c r="N3">
-        <v>1.006161375679397</v>
+        <v>1.009246359838556</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.029377281441808</v>
+        <v>1.029917118287875</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044475084162921</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042404089054006</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023685067749011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9894953505484556</v>
+        <v>0.9905137168152681</v>
       </c>
       <c r="D4">
-        <v>1.037931855449037</v>
+        <v>1.034899908592828</v>
       </c>
       <c r="E4">
-        <v>1.006651777770502</v>
+        <v>1.007469899913132</v>
       </c>
       <c r="F4">
-        <v>1.017953155787109</v>
+        <v>1.018613110952206</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049572111496014</v>
+        <v>1.048380620817972</v>
       </c>
       <c r="J4">
-        <v>1.009171637592022</v>
+        <v>1.010163235393327</v>
       </c>
       <c r="K4">
-        <v>1.047593055951435</v>
+        <v>1.044594607113662</v>
       </c>
       <c r="L4">
-        <v>1.016670579186148</v>
+        <v>1.017478998151571</v>
       </c>
       <c r="M4">
-        <v>1.027839625171543</v>
+        <v>1.028491964776459</v>
       </c>
       <c r="N4">
-        <v>1.006717588571084</v>
+        <v>1.009677891441229</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.030605517315504</v>
+        <v>1.031121807400067</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044720909765007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042609306323373</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023709269424258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9906337808742791</v>
+        <v>0.9916325493331819</v>
       </c>
       <c r="D5">
-        <v>1.03829759670333</v>
+        <v>1.035242247950713</v>
       </c>
       <c r="E5">
-        <v>1.007556967820503</v>
+        <v>1.008359561236205</v>
       </c>
       <c r="F5">
-        <v>1.018828322145197</v>
+        <v>1.019475650378878</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049605985669269</v>
+        <v>1.048402821756133</v>
       </c>
       <c r="J5">
-        <v>1.009818170123907</v>
+        <v>1.010791482934846</v>
       </c>
       <c r="K5">
-        <v>1.047741193554237</v>
+        <v>1.044718734616382</v>
       </c>
       <c r="L5">
-        <v>1.017342700444569</v>
+        <v>1.01813603377103</v>
       </c>
       <c r="M5">
-        <v>1.028485655345561</v>
+        <v>1.029125715610847</v>
       </c>
       <c r="N5">
-        <v>1.006948499797658</v>
+        <v>1.009857063945692</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.031116813842431</v>
+        <v>1.031623385152365</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044832776710201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042704919235391</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023719189608764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9908242105352414</v>
+        <v>0.9918197111221598</v>
       </c>
       <c r="D6">
-        <v>1.038364854199821</v>
+        <v>1.035305438948257</v>
       </c>
       <c r="E6">
-        <v>1.007708470137861</v>
+        <v>1.008508473181515</v>
       </c>
       <c r="F6">
-        <v>1.018974838599603</v>
+        <v>1.019620060862134</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049613236967681</v>
+        <v>1.048408301146565</v>
       </c>
       <c r="J6">
-        <v>1.009926295884084</v>
+        <v>1.010896556552912</v>
       </c>
       <c r="K6">
-        <v>1.047771872553018</v>
+        <v>1.044745245214819</v>
       </c>
       <c r="L6">
-        <v>1.017455134312104</v>
+        <v>1.018245950252284</v>
       </c>
       <c r="M6">
-        <v>1.028593757960977</v>
+        <v>1.029231769511669</v>
       </c>
       <c r="N6">
-        <v>1.006987101668072</v>
+        <v>1.009887017830986</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.0312023709423</v>
+        <v>1.031707320749731</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044863157169408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04273323348483</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023721787450538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9895106106756525</v>
+        <v>0.9905400557373707</v>
       </c>
       <c r="D7">
-        <v>1.037952736353756</v>
+        <v>1.034920066726252</v>
       </c>
       <c r="E7">
-        <v>1.006663905500218</v>
+        <v>1.007491471928838</v>
       </c>
       <c r="F7">
-        <v>1.017964878621596</v>
+        <v>1.018632321521952</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049577143280328</v>
+        <v>1.048385984911159</v>
       </c>
       <c r="J7">
-        <v>1.009180305532678</v>
+        <v>1.010182702394475</v>
       </c>
       <c r="K7">
-        <v>1.047610851837878</v>
+        <v>1.044611675431147</v>
       </c>
       <c r="L7">
-        <v>1.016679588261295</v>
+        <v>1.017497343200595</v>
       </c>
       <c r="M7">
-        <v>1.027848282284381</v>
+        <v>1.028508026084848</v>
       </c>
       <c r="N7">
-        <v>1.006720685396765</v>
+        <v>1.009709830735108</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.030612368935614</v>
+        <v>1.031134519016919</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044753470748898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042643379320292</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023711998710062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9839130744127353</v>
+        <v>0.985064226089623</v>
       </c>
       <c r="D8">
-        <v>1.036191905895273</v>
+        <v>1.033274243080503</v>
       </c>
       <c r="E8">
-        <v>1.002226003122952</v>
+        <v>1.00315135255161</v>
       </c>
       <c r="F8">
-        <v>1.01367978621707</v>
+        <v>1.014426371060533</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049396007884478</v>
+        <v>1.048263517281461</v>
       </c>
       <c r="J8">
-        <v>1.005998443109332</v>
+        <v>1.007114736439932</v>
       </c>
       <c r="K8">
-        <v>1.046902974072363</v>
+        <v>1.04402159500753</v>
       </c>
       <c r="L8">
-        <v>1.013375905974746</v>
+        <v>1.014288805307133</v>
       </c>
       <c r="M8">
-        <v>1.024677590376612</v>
+        <v>1.02541441045888</v>
       </c>
       <c r="N8">
-        <v>1.005582120514174</v>
+        <v>1.00888717859325</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.028102939282428</v>
+        <v>1.028686092989314</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044257468988285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042231127302479</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023659479572933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.973615478840802</v>
+        <v>0.974959308876117</v>
       </c>
       <c r="D9">
-        <v>1.032974464665604</v>
+        <v>1.030270984864237</v>
       </c>
       <c r="E9">
-        <v>0.9941159893716013</v>
+        <v>0.9951934795366495</v>
       </c>
       <c r="F9">
-        <v>1.005871624346686</v>
+        <v>1.006742130897467</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048972022628652</v>
+        <v>1.04794787519547</v>
       </c>
       <c r="J9">
-        <v>1.000135625505606</v>
+        <v>1.001428398457898</v>
       </c>
       <c r="K9">
-        <v>1.045554285442305</v>
+        <v>1.042891311857524</v>
       </c>
       <c r="L9">
-        <v>1.007305257404069</v>
+        <v>1.008365023531997</v>
       </c>
       <c r="M9">
-        <v>1.018870151469942</v>
+        <v>1.019726760676811</v>
       </c>
       <c r="N9">
-        <v>1.003476393975341</v>
+        <v>1.007266149951873</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.023506644467297</v>
+        <v>1.024184609373697</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043300737566056</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041428514036781</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023528600689818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9665414099769383</v>
+        <v>0.9680737700752703</v>
       </c>
       <c r="D10">
-        <v>1.030771624519167</v>
+        <v>1.02821850522849</v>
       </c>
       <c r="E10">
-        <v>0.9886303028925049</v>
+        <v>0.9898596023602256</v>
       </c>
       <c r="F10">
-        <v>1.000655595339066</v>
+        <v>1.001648792343448</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048623684632349</v>
+        <v>1.047676040527289</v>
       </c>
       <c r="J10">
-        <v>0.9961484161322225</v>
+        <v>0.9976139497547234</v>
       </c>
       <c r="K10">
-        <v>1.044606659347698</v>
+        <v>1.042096295725152</v>
       </c>
       <c r="L10">
-        <v>1.003207920612115</v>
+        <v>1.004414390740986</v>
       </c>
       <c r="M10">
-        <v>1.015013022889952</v>
+        <v>1.015988341011383</v>
       </c>
       <c r="N10">
-        <v>1.002046068162552</v>
+        <v>1.006294240348429</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.020506489779928</v>
+        <v>1.021278360210372</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.04264738644989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040884749994385</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023418093429048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.964338613722688</v>
+        <v>0.9660063858362486</v>
       </c>
       <c r="D11">
-        <v>1.029819229223579</v>
+        <v>1.027332815145971</v>
       </c>
       <c r="E11">
-        <v>0.9873060770302334</v>
+        <v>0.9886479344041859</v>
       </c>
       <c r="F11">
-        <v>0.9997983913454157</v>
+        <v>1.000880325383639</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048460176555388</v>
+        <v>1.047547524948373</v>
       </c>
       <c r="J11">
-        <v>0.9952740649532945</v>
+        <v>0.9968650568915041</v>
       </c>
       <c r="K11">
-        <v>1.044199887574685</v>
+        <v>1.041757048865781</v>
       </c>
       <c r="L11">
-        <v>1.002471419347515</v>
+        <v>1.003787157103791</v>
       </c>
       <c r="M11">
-        <v>1.014724110712069</v>
+        <v>1.015785659130986</v>
       </c>
       <c r="N11">
-        <v>1.00178862685202</v>
+        <v>1.006360152753078</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.020723180018376</v>
+        <v>1.021562853240895</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042392311289767</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040680671222261</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023366053971972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9638898528521271</v>
+        <v>0.9656013987870632</v>
       </c>
       <c r="D12">
-        <v>1.029453713433801</v>
+        <v>1.02699254206065</v>
       </c>
       <c r="E12">
-        <v>0.987242268809127</v>
+        <v>0.988620378584963</v>
       </c>
       <c r="F12">
-        <v>1.00002425465805</v>
+        <v>1.001134247887568</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048395032061213</v>
+        <v>1.047495074707291</v>
       </c>
       <c r="J12">
-        <v>0.9953051770943961</v>
+        <v>0.9969364474543071</v>
       </c>
       <c r="K12">
-        <v>1.044037575519721</v>
+        <v>1.041620256280551</v>
       </c>
       <c r="L12">
-        <v>1.002618037472157</v>
+        <v>1.003968890522573</v>
       </c>
       <c r="M12">
-        <v>1.015150990001665</v>
+        <v>1.016239749712739</v>
       </c>
       <c r="N12">
-        <v>1.001849283632902</v>
+        <v>1.00652450322737</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.021393222710459</v>
+        <v>1.022254117556601</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042277553525375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040583957804469</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02334487608274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9647587465897118</v>
+        <v>0.9664302447226009</v>
       </c>
       <c r="D13">
-        <v>1.029530397618539</v>
+        <v>1.027063830732072</v>
       </c>
       <c r="E13">
-        <v>0.9881428146525584</v>
+        <v>0.9894871287999882</v>
       </c>
       <c r="F13">
-        <v>1.001109294242273</v>
+        <v>1.002191714902028</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048408748996192</v>
+        <v>1.047505968168571</v>
       </c>
       <c r="J13">
-        <v>0.9960348735542638</v>
+        <v>0.9976284612939689</v>
       </c>
       <c r="K13">
-        <v>1.044070686826146</v>
+        <v>1.041647913531637</v>
       </c>
       <c r="L13">
-        <v>1.003455949817795</v>
+        <v>1.004773827496629</v>
       </c>
       <c r="M13">
-        <v>1.016171310145546</v>
+        <v>1.017233152006192</v>
       </c>
       <c r="N13">
-        <v>1.002158058504274</v>
+        <v>1.006735835188757</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.022480964801716</v>
+        <v>1.023320358215148</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042298495319382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040600797411573</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023349284948764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9659570393589041</v>
+        <v>0.9675638801545697</v>
       </c>
       <c r="D14">
-        <v>1.029788280008105</v>
+        <v>1.027303960616576</v>
       </c>
       <c r="E14">
-        <v>0.9892023537758798</v>
+        <v>0.9904926521476262</v>
       </c>
       <c r="F14">
-        <v>1.002250604653396</v>
+        <v>1.003289608532379</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048454682153709</v>
+        <v>1.047543037024122</v>
       </c>
       <c r="J14">
-        <v>0.9968557678571472</v>
+        <v>0.9983888757857206</v>
       </c>
       <c r="K14">
-        <v>1.044185741164019</v>
+        <v>1.041745020394762</v>
       </c>
       <c r="L14">
-        <v>1.00434805212245</v>
+        <v>1.005613325825531</v>
       </c>
       <c r="M14">
-        <v>1.017147115633187</v>
+        <v>1.018166640966049</v>
       </c>
       <c r="N14">
-        <v>1.00248416413275</v>
+        <v>1.006904752347148</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.023427892250999</v>
+        <v>1.024233723196427</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042381251826715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040671004028238</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023364245433663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9665396320925538</v>
+        <v>0.9681139922618933</v>
       </c>
       <c r="D15">
-        <v>1.029950514496379</v>
+        <v>1.02745522931871</v>
       </c>
       <c r="E15">
-        <v>0.9896793291144856</v>
+        <v>0.9909426387345849</v>
       </c>
       <c r="F15">
-        <v>1.002733164484664</v>
+        <v>1.003750560486336</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048483410644902</v>
+        <v>1.047566507901962</v>
       </c>
       <c r="J15">
-        <v>0.9972138578776103</v>
+        <v>0.9987166406685991</v>
       </c>
       <c r="K15">
-        <v>1.044259961764017</v>
+        <v>1.041808152363929</v>
       </c>
       <c r="L15">
-        <v>1.004725511998099</v>
+        <v>1.005964518918554</v>
       </c>
       <c r="M15">
-        <v>1.017532078652167</v>
+        <v>1.018530555265098</v>
       </c>
       <c r="N15">
-        <v>1.002619441093667</v>
+        <v>1.006960927114684</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.023770132787405</v>
+        <v>1.02455930584733</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042439543227685</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040722033568791</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023373706344199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9693547404443953</v>
+        <v>0.9707809739301737</v>
       </c>
       <c r="D16">
-        <v>1.03086657889601</v>
+        <v>1.028308467601778</v>
       </c>
       <c r="E16">
-        <v>0.991820305933608</v>
+        <v>0.9929613493529368</v>
       </c>
       <c r="F16">
-        <v>1.004756848445073</v>
+        <v>1.005676555752783</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048641046745407</v>
+        <v>1.047692642624566</v>
       </c>
       <c r="J16">
-        <v>0.9987584158868716</v>
+        <v>1.000123154507762</v>
       </c>
       <c r="K16">
-        <v>1.044664919573699</v>
+        <v>1.042149512777091</v>
       </c>
       <c r="L16">
-        <v>1.00630171746749</v>
+        <v>1.007421807187224</v>
       </c>
       <c r="M16">
-        <v>1.019004317476654</v>
+        <v>1.019907690248961</v>
       </c>
       <c r="N16">
-        <v>1.003163286687631</v>
+        <v>1.007142970796846</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.024894605698953</v>
+        <v>1.025608631844855</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042729002092301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04096683720248</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02342479801811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9708889826706089</v>
+        <v>0.9722481365349579</v>
       </c>
       <c r="D17">
-        <v>1.0314369962365</v>
+        <v>1.028839982093618</v>
       </c>
       <c r="E17">
-        <v>0.9929099928177801</v>
+        <v>0.9939961247695113</v>
       </c>
       <c r="F17">
-        <v>1.005707855188475</v>
+        <v>1.00658376907725</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048735667631504</v>
+        <v>1.047767757227158</v>
       </c>
       <c r="J17">
-        <v>0.9995137216117084</v>
+        <v>1.000816196072489</v>
       </c>
       <c r="K17">
-        <v>1.044915393702988</v>
+        <v>1.042360556589547</v>
       </c>
       <c r="L17">
-        <v>1.007043488149307</v>
+        <v>1.008110249009787</v>
       </c>
       <c r="M17">
-        <v>1.019616539751049</v>
+        <v>1.020477337395477</v>
       </c>
       <c r="N17">
-        <v>1.00340957157534</v>
+        <v>1.007225234528731</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.025247898884325</v>
+        <v>1.025928342868383</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.0429086635717</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041118874377442</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023455332452173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.971448866607531</v>
+        <v>0.9727876139598024</v>
       </c>
       <c r="D18">
-        <v>1.031758202652127</v>
+        <v>1.029138875244549</v>
       </c>
       <c r="E18">
-        <v>0.9931611960251236</v>
+        <v>0.9942308332423054</v>
       </c>
       <c r="F18">
-        <v>1.005762462935156</v>
+        <v>1.006625551811965</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048787130829848</v>
+        <v>1.047807466563276</v>
       </c>
       <c r="J18">
-        <v>0.9996356526285949</v>
+        <v>1.000919611091803</v>
       </c>
       <c r="K18">
-        <v>1.045050375521231</v>
+        <v>1.042472900267994</v>
       </c>
       <c r="L18">
-        <v>1.007099029603104</v>
+        <v>1.008149898673849</v>
       </c>
       <c r="M18">
-        <v>1.019482464612633</v>
+        <v>1.020330891308528</v>
       </c>
       <c r="N18">
-        <v>1.003414189836681</v>
+        <v>1.007181714480135</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.024900871816382</v>
+        <v>1.025571680272863</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042992565384677</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041185621167012</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023471499319526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9711319135655189</v>
+        <v>0.9724829440449996</v>
       </c>
       <c r="D19">
-        <v>1.031875197977585</v>
+        <v>1.029248140731739</v>
       </c>
       <c r="E19">
-        <v>0.9926524764975069</v>
+        <v>0.9937323476562139</v>
       </c>
       <c r="F19">
-        <v>1.004996322794613</v>
+        <v>1.005868287059125</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048806112497042</v>
+        <v>1.047822816792041</v>
       </c>
       <c r="J19">
-        <v>0.9991903996662083</v>
+        <v>1.000486414545576</v>
       </c>
       <c r="K19">
-        <v>1.045103788708061</v>
+        <v>1.042518471984908</v>
       </c>
       <c r="L19">
-        <v>1.006534022898833</v>
+        <v>1.007595023510353</v>
       </c>
       <c r="M19">
-        <v>1.018665283265525</v>
+        <v>1.019522485141895</v>
       </c>
       <c r="N19">
-        <v>1.003207180784527</v>
+        <v>1.007008146701094</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.023923839282369</v>
+        <v>1.024601814518526</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043036666995797</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041224809677748</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023477767222361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.968380264455115</v>
+        <v>0.969830842773349</v>
       </c>
       <c r="D20">
-        <v>1.031375180286342</v>
+        <v>1.028782336290126</v>
       </c>
       <c r="E20">
-        <v>0.9900552526581777</v>
+        <v>0.9912169422379455</v>
       </c>
       <c r="F20">
-        <v>1.002012029235278</v>
+        <v>1.002951033101242</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04872550805592</v>
+        <v>1.047759644334156</v>
       </c>
       <c r="J20">
-        <v>0.9971869431265707</v>
+        <v>0.9985763992079075</v>
       </c>
       <c r="K20">
-        <v>1.044887892900419</v>
+        <v>1.042337283937799</v>
       </c>
       <c r="L20">
-        <v>1.004275251875069</v>
+        <v>1.00541600951818</v>
       </c>
       <c r="M20">
-        <v>1.01601959155856</v>
+        <v>1.016942189870667</v>
       </c>
       <c r="N20">
-        <v>1.002419156617134</v>
+        <v>1.006468950972237</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.021292318441417</v>
+        <v>1.022022475167018</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042887895673752</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041100964395069</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02345203035214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9628831261710843</v>
+        <v>0.964642780182881</v>
       </c>
       <c r="D21">
-        <v>1.029722686715711</v>
+        <v>1.027243403783896</v>
       </c>
       <c r="E21">
-        <v>0.9857357682904542</v>
+        <v>0.9871558417329006</v>
       </c>
       <c r="F21">
-        <v>0.9978312429215028</v>
+        <v>0.9989769007642366</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04844328541862</v>
+        <v>1.047534773020793</v>
       </c>
       <c r="J21">
-        <v>0.9940190477249833</v>
+        <v>0.9956969390839681</v>
       </c>
       <c r="K21">
-        <v>1.044162016094864</v>
+        <v>1.041726392031481</v>
       </c>
       <c r="L21">
-        <v>1.000992515613279</v>
+        <v>1.002384706012486</v>
       </c>
       <c r="M21">
-        <v>1.012853819889905</v>
+        <v>1.01397768203271</v>
       </c>
       <c r="N21">
-        <v>1.001271505648323</v>
+        <v>1.006066763634812</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.018744988729427</v>
+        <v>1.019634477617702</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042377859614901</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040672545805566</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023360840859731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9594052511874149</v>
+        <v>0.961361816027986</v>
       </c>
       <c r="D22">
-        <v>1.028657052344519</v>
+        <v>1.02625106579487</v>
       </c>
       <c r="E22">
-        <v>0.9830355660632423</v>
+        <v>0.98462100095737</v>
       </c>
       <c r="F22">
-        <v>0.995246147842874</v>
+        <v>0.9965238456755731</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048249397389832</v>
+        <v>1.047377117275186</v>
       </c>
       <c r="J22">
-        <v>0.9920366951023181</v>
+        <v>0.9938968023336284</v>
       </c>
       <c r="K22">
-        <v>1.043681410035747</v>
+        <v>1.041319824987246</v>
       </c>
       <c r="L22">
-        <v>0.998950752852556</v>
+        <v>1.000503401592464</v>
       </c>
       <c r="M22">
-        <v>1.010912371398761</v>
+        <v>1.012164481830406</v>
       </c>
       <c r="N22">
-        <v>1.000555618799109</v>
+        <v>1.005815643022639</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.017208412359255</v>
+        <v>1.018199406507186</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042024679342392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.04037038703557</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023297352686557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9612565499816459</v>
+        <v>0.963088982747069</v>
       </c>
       <c r="D23">
-        <v>1.029211037751435</v>
+        <v>1.026766249975762</v>
       </c>
       <c r="E23">
-        <v>0.9844719700149462</v>
+        <v>0.9859524804436148</v>
       </c>
       <c r="F23">
-        <v>0.9966209903713983</v>
+        <v>0.9978150800040723</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048351065841403</v>
+        <v>1.047458865822012</v>
       </c>
       <c r="J23">
-        <v>0.9930919001850419</v>
+        <v>0.9948367672400215</v>
       </c>
       <c r="K23">
-        <v>1.043925265571843</v>
+        <v>1.041524498031067</v>
       </c>
       <c r="L23">
-        <v>1.00003733721271</v>
+        <v>1.001488055081234</v>
       </c>
       <c r="M23">
-        <v>1.011945313361057</v>
+        <v>1.013116126907337</v>
       </c>
       <c r="N23">
-        <v>1.00093675139769</v>
+        <v>1.00590353645925</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.018025943742959</v>
+        <v>1.018952593637422</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042187559084175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.04050461200035</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023330334040631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9683804343761255</v>
+        <v>0.9698305743708623</v>
       </c>
       <c r="D24">
-        <v>1.031382160329544</v>
+        <v>1.028787838295033</v>
       </c>
       <c r="E24">
-        <v>0.9900192137775922</v>
+        <v>0.9911805643354989</v>
       </c>
       <c r="F24">
-        <v>1.001937611402619</v>
+        <v>1.002876453500361</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048725542854911</v>
+        <v>1.047757767287486</v>
       </c>
       <c r="J24">
-        <v>0.9971524342499318</v>
+        <v>0.9985415570361514</v>
       </c>
       <c r="K24">
-        <v>1.044879706486629</v>
+        <v>1.042327588889257</v>
       </c>
       <c r="L24">
-        <v>1.004223900002495</v>
+        <v>1.005364349805773</v>
       </c>
       <c r="M24">
-        <v>1.015930785641417</v>
+        <v>1.016853242993383</v>
       </c>
       <c r="N24">
-        <v>1.002401863267745</v>
+        <v>1.006450969773056</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.02118027289299</v>
+        <v>1.021910355920895</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042854958004996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041064251943886</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023451252082542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9763322102617366</v>
+        <v>0.9776103360473495</v>
       </c>
       <c r="D25">
-        <v>1.033840219357872</v>
+        <v>1.031079541487466</v>
       </c>
       <c r="E25">
-        <v>0.996248900170136</v>
+        <v>0.9972736613378852</v>
       </c>
       <c r="F25">
-        <v>1.007922456626813</v>
+        <v>1.008750252466982</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049098967336484</v>
+        <v>1.048047046828999</v>
       </c>
       <c r="J25">
-        <v>1.001683213305742</v>
+        <v>1.00291543134955</v>
       </c>
       <c r="K25">
-        <v>1.04593497792716</v>
+        <v>1.043213811772467</v>
       </c>
       <c r="L25">
-        <v>1.008905727571803</v>
+        <v>1.009914448150355</v>
       </c>
       <c r="M25">
-        <v>1.020399019068846</v>
+        <v>1.021214233862313</v>
       </c>
       <c r="N25">
-        <v>1.004033084028311</v>
+        <v>1.007659518839017</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.024716669019879</v>
+        <v>1.025361871109389</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043598245509948</v>
+        <v>1.041687724383018</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023569570269883</v>
       </c>
     </row>
   </sheetData>
